--- a/input/kosodate-map/hoikuen.xlsx
+++ b/input/kosodate-map/hoikuen.xlsx
@@ -1,166 +1,166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27016"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\leo\02\3D009_HOIKUNINTEI\専用\入園係\08_ホームページ\20　受入可能性表\令和05年度\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44841377-7ECF-4CA3-AEF7-E034C6800206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{E6B5990A-E2BA-4E31-9371-15C6F76C4F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDE8583-A4C7-418E-9586-02053F3A4313}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="-75" windowWidth="10080" windowHeight="7305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="入所可能性一覧" sheetId="2" r:id="rId1"/>
+    <sheet name="受け入れ可能性" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_12B36A8C_50F5_4F21_8666_34C687C556A6_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_33142044_5240_4BF0_A3D7_EF570D9157AF_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_46B80F67_2096_4D1F_AFCF_86685A94AC8B_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_5CC2D8DA_2D84_4D2B_80C0_2C4DCEB70BC9_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_654D91BE_CCAA_4FEB_A8C4_3285131FA2BE_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_67A902B2_6A55_4A37_B144_77573A69BDB7_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_6A21EF7B_C06F_4209_86F6_3D66D1BD5A87_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_7417924B_AA72_4612_AAF6_341C4C5FE351_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_7A5D42BF_89EE_459B_9A67_B0E633063C0E_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_8CA4BFE4_24DD_4BEE_8542_BFE007BE183C_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_93BDA7D4_11E8_4A33_9A6C_C487B4776F23_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_B75929B9_E01D_48C1_973C_B687703BBFB4_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_D7EC1601_E840_417B_AB06_97689E4D0FC3_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_DE0D4679_1B90_4FD3_906B_AACDD3F8EF7A_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_E72CE9D3_6372_4837_94BA_B553162855E5_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_EC7E0635_B40B_463C_8411_80354908B4EA_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_EE9D43C2_E209_41E7_9E2C_D612658BE6E3_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_F02A94F8_B792_4B0E_8975_088F4728E3A0_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_F756C1F7_2BF5_4CD5_9B40_CEBA05DDA94D_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_12B36A8C_50F5_4F21_8666_34C687C556A6_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_33142044_5240_4BF0_A3D7_EF570D9157AF_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_46B80F67_2096_4D1F_AFCF_86685A94AC8B_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_5CC2D8DA_2D84_4D2B_80C0_2C4DCEB70BC9_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_654D91BE_CCAA_4FEB_A8C4_3285131FA2BE_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_67A902B2_6A55_4A37_B144_77573A69BDB7_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_6A21EF7B_C06F_4209_86F6_3D66D1BD5A87_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_7417924B_AA72_4612_AAF6_341C4C5FE351_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_7A5D42BF_89EE_459B_9A67_B0E633063C0E_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_8CA4BFE4_24DD_4BEE_8542_BFE007BE183C_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_93BDA7D4_11E8_4A33_9A6C_C487B4776F23_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_B75929B9_E01D_48C1_973C_B687703BBFB4_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_D7EC1601_E840_417B_AB06_97689E4D0FC3_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_DE0D4679_1B90_4FD3_906B_AACDD3F8EF7A_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_E72CE9D3_6372_4837_94BA_B553162855E5_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_EC7E0635_B40B_463C_8411_80354908B4EA_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_EE9D43C2_E209_41E7_9E2C_D612658BE6E3_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_F02A94F8_B792_4B0E_8975_088F4728E3A0_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_F756C1F7_2BF5_4CD5_9B40_CEBA05DDA94D_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="堀口　紗代 - 個人用ビュー" guid="{871E4C58-8935-4230-8D70-F7A81F2FC724}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="大髙　美緒 - 個人用ビュー" guid="{6094355E-E44C-4C56-8328-2C3685B421C9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="西　歩 - 個人用ビュー" guid="{7DC6FD10-0031-4D17-8C68-1625D405ED99}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="渡邉　淳太郎 - 個人用ビュー" guid="{F82A2838-40D3-40B0-85E8-92E88B9163F2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="瑞木　靖弘 - 個人用ビュー" guid="{578C94CE-764C-4584-A664-D779FE84D202}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="神子　拓也 - 個人用ビュー" guid="{A3BCB14A-7CCA-499C-A2A7-FBCF90A1B1EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="廣瀨　智啓 - 個人用ビュー" guid="{88B325CD-F4D0-4724-80F6-A367CBCA060E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="鈴木　由佳 - 個人用ビュー" guid="{B66AB97A-A4F2-4A9F-9ADA-FE17014DA34D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="竹下　哲博 - 個人用ビュー" guid="{29320641-556A-4A24-AEEF-62FC8F195D2F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
+    <customWorkbookView name="尾崎　紋加 - 個人用ビュー" guid="{59216830-A825-476B-8CBE-78563046C759}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="森村　欣央 - 個人用ビュー" guid="{4CF63494-B971-4B00-860A-18252F0D87D0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="永島　麻美 - 個人用ビュー" guid="{5CE4EDB0-26CC-4B55-9F9D-56040B98C515}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="中村　耀 - 個人用ビュー" guid="{2A9A9167-6530-49D4-8B88-67C4EABF4277}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="牧野　陽介 - 個人用ビュー" guid="{AABE4325-6870-4234-A595-04955EBD583E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="柳川　騎之 - 個人用ビュー" guid="{5E2A2DC3-32FF-4D9B-8086-36DA1142FA21}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
+    <customWorkbookView name="田中　悠気 - 個人用ビュー" guid="{CE0041BC-7C24-416A-AE2B-1867E02FB337}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="西尾　佳久 - 個人用ビュー" guid="{DE80D2D4-A772-4F02-A304-673180EEF4DB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="菅原　大智 - 個人用ビュー" guid="{A5216128-3301-4DA2-BB9D-A2B0B18A6D37}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="藤野　恵理菜 - 個人用ビュー" guid="{2D256DF8-D030-4C6D-AA71-2E6E9A9B0B14}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
     <customWorkbookView name="大島　直人 - 個人用ビュー" guid="{16051E61-8B90-4FE1-A49E-6F2F23F4D568}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="藤野　恵理菜 - 個人用ビュー" guid="{2D256DF8-D030-4C6D-AA71-2E6E9A9B0B14}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="菅原　大智 - 個人用ビュー" guid="{A5216128-3301-4DA2-BB9D-A2B0B18A6D37}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="西尾　佳久 - 個人用ビュー" guid="{DE80D2D4-A772-4F02-A304-673180EEF4DB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="田中　悠気 - 個人用ビュー" guid="{CE0041BC-7C24-416A-AE2B-1867E02FB337}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="柳川　騎之 - 個人用ビュー" guid="{5E2A2DC3-32FF-4D9B-8086-36DA1142FA21}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
-    <customWorkbookView name="牧野　陽介 - 個人用ビュー" guid="{AABE4325-6870-4234-A595-04955EBD583E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="中村　耀 - 個人用ビュー" guid="{2A9A9167-6530-49D4-8B88-67C4EABF4277}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="永島　麻美 - 個人用ビュー" guid="{5CE4EDB0-26CC-4B55-9F9D-56040B98C515}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="森村　欣央 - 個人用ビュー" guid="{4CF63494-B971-4B00-860A-18252F0D87D0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="尾崎　紋加 - 個人用ビュー" guid="{59216830-A825-476B-8CBE-78563046C759}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="竹下　哲博 - 個人用ビュー" guid="{29320641-556A-4A24-AEEF-62FC8F195D2F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
-    <customWorkbookView name="鈴木　由佳 - 個人用ビュー" guid="{B66AB97A-A4F2-4A9F-9ADA-FE17014DA34D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="廣瀨　智啓 - 個人用ビュー" guid="{88B325CD-F4D0-4724-80F6-A367CBCA060E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="神子　拓也 - 個人用ビュー" guid="{A3BCB14A-7CCA-499C-A2A7-FBCF90A1B1EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="瑞木　靖弘 - 個人用ビュー" guid="{578C94CE-764C-4584-A664-D779FE84D202}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="渡邉　淳太郎 - 個人用ビュー" guid="{F82A2838-40D3-40B0-85E8-92E88B9163F2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="西　歩 - 個人用ビュー" guid="{7DC6FD10-0031-4D17-8C68-1625D405ED99}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="大髙　美緒 - 個人用ビュー" guid="{6094355E-E44C-4C56-8328-2C3685B421C9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="堀口　紗代 - 個人用ビュー" guid="{871E4C58-8935-4230-8D70-F7A81F2FC724}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -184,7 +184,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="354">
   <si>
-    <t>令和5年11月</t>
+    <t>令和5年12月</t>
     <rPh sb="0" eb="2">
       <t>レイワ</t>
     </rPh>
@@ -212,7 +212,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>令和5年11月利用調整</t>
+      <t>令和5年12月利用調整</t>
     </r>
     <r>
       <rPr>
@@ -231,7 +231,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>各施設とも、令和5年10月利用調整後の受入れ予定人数であり、今後の保育士配置、入園辞退、転園、退園、申込児童や在園児童の健康状況等を踏まえた受入れ態勢の変更により実際の受入れ児童数が異なることにご留意ください。
+      <t>各施設とも、令和5年11月利用調整後の受入れ予定人数であり、今後の保育士配置、入園辞退、転園、退園、申込児童や在園児童の健康状況等を踏まえた受入れ態勢の変更により実際の受入れ児童数が異なることにご留意ください。
  　特に、</t>
     </r>
     <r>
@@ -2854,14 +2854,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>（仮称）アートチャイルドケア船橋くれよん保育園</t>
-    <rPh sb="1" eb="3">
-      <t>カショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
+    <t>アートチャイルドケア船橋くれよん保育園</t>
+    <rPh sb="10" eb="12">
       <t>フナバシ</t>
     </rPh>
-    <rPh sb="20" eb="23">
+    <rPh sb="16" eb="19">
       <t>ホイクエン</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -5123,7 +5120,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5837,6 +5834,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="177" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
@@ -5978,7 +5978,35 @@
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -5989,7 +6017,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6022,11 +6071,46 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -6043,11 +6127,25 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -6059,16 +6157,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
+          <bgColor rgb="FFA3A3A3"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -6080,16 +6171,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
+          <bgColor rgb="FFA3A3A3"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -6101,16 +6185,58 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
+          <bgColor rgb="FFA3A3A3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -6157,6 +6283,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -6164,7 +6304,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6192,497 +6360,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7046,14 +6724,14 @@
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="6.875" customWidth="1"/>
-    <col min="8" max="13" width="8.625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="238" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="13" width="9" style="10" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="238" customWidth="1"/>
     <col min="15" max="15" width="8.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.375" customWidth="1"/>
   </cols>
@@ -7070,14 +6748,14 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="260">
-        <v>45189</v>
-      </c>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
+      <c r="H1" s="261">
+        <v>45219</v>
+      </c>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
       <c r="N1" s="259"/>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
@@ -7097,22 +6775,22 @@
       <c r="N2" s="207"/>
     </row>
     <row r="3" spans="1:15" ht="132.75" customHeight="1">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="262"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
       <c r="O3" s="72"/>
     </row>
     <row r="4" spans="1:15" ht="9" hidden="1" customHeight="1">
@@ -7132,19 +6810,19 @@
       <c r="N4" s="61"/>
     </row>
     <row r="5" spans="1:15" ht="4.5" hidden="1" customHeight="1">
-      <c r="A5" s="263"/>
-      <c r="B5" s="264"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="264"/>
-      <c r="L5" s="264"/>
-      <c r="M5" s="264"/>
+      <c r="A5" s="264"/>
+      <c r="B5" s="265"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="265"/>
+      <c r="H5" s="265"/>
+      <c r="I5" s="265"/>
+      <c r="J5" s="265"/>
+      <c r="K5" s="265"/>
+      <c r="L5" s="265"/>
+      <c r="M5" s="265"/>
       <c r="N5" s="208"/>
     </row>
     <row r="6" spans="1:15" ht="7.5" hidden="1" customHeight="1">
@@ -7168,17 +6846,17 @@
       <c r="B7" s="239"/>
       <c r="C7" s="239"/>
       <c r="D7" s="239"/>
-      <c r="E7" s="265" t="s">
+      <c r="E7" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="265"/>
-      <c r="K7" s="265"/>
-      <c r="L7" s="265"/>
-      <c r="M7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
+      <c r="H7" s="266"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="266"/>
+      <c r="K7" s="266"/>
+      <c r="L7" s="266"/>
+      <c r="M7" s="266"/>
       <c r="N7" s="239"/>
     </row>
     <row r="8" spans="1:15" ht="2.25" customHeight="1" thickBot="1">
@@ -7235,7 +6913,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="266" t="s">
+      <c r="A10" s="267" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="197" t="s">
@@ -7267,7 +6945,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
-      <c r="A11" s="266"/>
+      <c r="A11" s="267"/>
       <c r="B11" s="198" t="s">
         <v>17</v>
       </c>
@@ -7291,7 +6969,7 @@
         <v>8</v>
       </c>
       <c r="L11" s="182">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M11" s="79">
         <v>6</v>
@@ -7301,7 +6979,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1">
-      <c r="A12" s="266"/>
+      <c r="A12" s="267"/>
       <c r="B12" s="22" t="s">
         <v>17</v>
       </c>
@@ -7329,7 +7007,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
-      <c r="A13" s="266"/>
+      <c r="A13" s="267"/>
       <c r="B13" s="22" t="s">
         <v>17</v>
       </c>
@@ -7351,21 +7029,15 @@
       <c r="H13" s="82"/>
       <c r="I13" s="83"/>
       <c r="J13" s="83"/>
-      <c r="K13" s="83">
-        <v>5</v>
-      </c>
-      <c r="L13" s="83">
-        <v>5</v>
-      </c>
-      <c r="M13" s="84">
-        <v>10</v>
-      </c>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="84"/>
       <c r="N13" s="220" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
-      <c r="A14" s="266"/>
+      <c r="A14" s="267"/>
       <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
@@ -7388,18 +7060,18 @@
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
       <c r="K14" s="83">
-        <v>4</v>
-      </c>
-      <c r="L14" s="268">
+        <v>3</v>
+      </c>
+      <c r="L14" s="269">
         <v>12</v>
       </c>
-      <c r="M14" s="269"/>
+      <c r="M14" s="270"/>
       <c r="N14" s="221" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
-      <c r="A15" s="266"/>
+      <c r="A15" s="267"/>
       <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
@@ -7435,7 +7107,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="266"/>
+      <c r="A16" s="267"/>
       <c r="B16" s="22" t="s">
         <v>35</v>
       </c>
@@ -7455,21 +7127,19 @@
       <c r="H16" s="78"/>
       <c r="I16" s="182"/>
       <c r="J16" s="182"/>
-      <c r="K16" s="182">
+      <c r="K16" s="182"/>
+      <c r="L16" s="182">
         <v>1</v>
       </c>
-      <c r="L16" s="182">
-        <v>6</v>
-      </c>
       <c r="M16" s="79">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N16" s="220" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
-      <c r="A17" s="266"/>
+      <c r="A17" s="267"/>
       <c r="B17" s="22" t="s">
         <v>35</v>
       </c>
@@ -7499,7 +7169,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
-      <c r="A18" s="266"/>
+      <c r="A18" s="267"/>
       <c r="B18" s="22" t="s">
         <v>35</v>
       </c>
@@ -7531,7 +7201,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
-      <c r="A19" s="266"/>
+      <c r="A19" s="267"/>
       <c r="B19" s="22" t="s">
         <v>35</v>
       </c>
@@ -7563,7 +7233,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
-      <c r="A20" s="266"/>
+      <c r="A20" s="267"/>
       <c r="B20" s="22" t="s">
         <v>35</v>
       </c>
@@ -7595,7 +7265,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
-      <c r="A21" s="266"/>
+      <c r="A21" s="267"/>
       <c r="B21" s="22" t="s">
         <v>35</v>
       </c>
@@ -7623,7 +7293,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
-      <c r="A22" s="266"/>
+      <c r="A22" s="267"/>
       <c r="B22" s="22" t="s">
         <v>35</v>
       </c>
@@ -7651,7 +7321,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
-      <c r="A23" s="266"/>
+      <c r="A23" s="267"/>
       <c r="B23" s="22" t="s">
         <v>35</v>
       </c>
@@ -7670,18 +7340,16 @@
       </c>
       <c r="H23" s="78"/>
       <c r="I23" s="182"/>
-      <c r="J23" s="182">
-        <v>1</v>
-      </c>
+      <c r="J23" s="182"/>
       <c r="K23" s="120"/>
       <c r="L23" s="121"/>
       <c r="M23" s="122"/>
       <c r="N23" s="222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
-      <c r="A24" s="266"/>
+      <c r="A24" s="267"/>
       <c r="B24" s="22" t="s">
         <v>35</v>
       </c>
@@ -7709,7 +7377,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="267"/>
+      <c r="A25" s="268"/>
       <c r="B25" s="24" t="s">
         <v>35</v>
       </c>
@@ -7739,7 +7407,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
-      <c r="A26" s="272" t="s">
+      <c r="A26" s="273" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7758,22 +7426,26 @@
       <c r="G26" s="67">
         <v>168</v>
       </c>
-      <c r="H26" s="95"/>
-      <c r="I26" s="275"/>
-      <c r="J26" s="276"/>
+      <c r="H26" s="95">
+        <v>1</v>
+      </c>
+      <c r="I26" s="276"/>
+      <c r="J26" s="277"/>
       <c r="K26" s="195">
-        <v>11</v>
-      </c>
-      <c r="L26" s="270">
-        <v>11</v>
-      </c>
-      <c r="M26" s="271"/>
+        <v>1</v>
+      </c>
+      <c r="L26" s="260">
+        <v>4</v>
+      </c>
+      <c r="M26" s="145">
+        <v>6</v>
+      </c>
       <c r="N26" s="222" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1">
-      <c r="A27" s="273"/>
+      <c r="A27" s="274"/>
       <c r="B27" s="22" t="s">
         <v>17</v>
       </c>
@@ -7791,8 +7463,8 @@
         <v>143</v>
       </c>
       <c r="H27" s="78"/>
-      <c r="I27" s="277"/>
-      <c r="J27" s="278"/>
+      <c r="I27" s="278"/>
+      <c r="J27" s="279"/>
       <c r="K27" s="182">
         <v>5</v>
       </c>
@@ -7807,7 +7479,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="274"/>
+      <c r="A28" s="275"/>
       <c r="B28" s="24" t="s">
         <v>35</v>
       </c>
@@ -7835,7 +7507,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1">
-      <c r="A29" s="279" t="s">
+      <c r="A29" s="280" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="199" t="s">
@@ -7867,7 +7539,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1">
-      <c r="A30" s="266"/>
+      <c r="A30" s="267"/>
       <c r="B30" s="22" t="s">
         <v>35</v>
       </c>
@@ -7895,7 +7567,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
-      <c r="A31" s="266"/>
+      <c r="A31" s="267"/>
       <c r="B31" s="22" t="s">
         <v>35</v>
       </c>
@@ -7913,25 +7585,21 @@
         <v>140</v>
       </c>
       <c r="H31" s="78"/>
-      <c r="I31" s="182">
-        <v>1</v>
-      </c>
+      <c r="I31" s="182"/>
       <c r="J31" s="182"/>
       <c r="K31" s="182">
-        <v>4</v>
-      </c>
-      <c r="L31" s="182">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L31" s="182"/>
       <c r="M31" s="79">
         <v>2</v>
       </c>
       <c r="N31" s="222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1">
-      <c r="A32" s="266"/>
+      <c r="A32" s="267"/>
       <c r="B32" s="22" t="s">
         <v>35</v>
       </c>
@@ -7961,7 +7629,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1">
-      <c r="A33" s="266"/>
+      <c r="A33" s="267"/>
       <c r="B33" s="22" t="s">
         <v>35</v>
       </c>
@@ -7993,7 +7661,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1">
-      <c r="A34" s="266"/>
+      <c r="A34" s="267"/>
       <c r="B34" s="22" t="s">
         <v>35</v>
       </c>
@@ -8027,7 +7695,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1">
-      <c r="A35" s="266"/>
+      <c r="A35" s="267"/>
       <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
@@ -8052,18 +7720,20 @@
         <v>1</v>
       </c>
       <c r="K35" s="182">
-        <v>7</v>
-      </c>
-      <c r="L35" s="182"/>
+        <v>9</v>
+      </c>
+      <c r="L35" s="182">
+        <v>2</v>
+      </c>
       <c r="M35" s="79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N35" s="222" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1">
-      <c r="A36" s="266"/>
+      <c r="A36" s="267"/>
       <c r="B36" s="22" t="s">
         <v>35</v>
       </c>
@@ -8093,7 +7763,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1">
-      <c r="A37" s="266"/>
+      <c r="A37" s="267"/>
       <c r="B37" s="200" t="s">
         <v>35</v>
       </c>
@@ -8121,7 +7791,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="267"/>
+      <c r="A38" s="268"/>
       <c r="B38" s="24" t="s">
         <v>35</v>
       </c>
@@ -8149,7 +7819,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1">
-      <c r="A39" s="279" t="s">
+      <c r="A39" s="280" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="199" t="s">
@@ -8174,7 +7844,7 @@
       <c r="I39" s="195"/>
       <c r="J39" s="214"/>
       <c r="K39" s="195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="195">
         <v>6</v>
@@ -8187,7 +7857,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1">
-      <c r="A40" s="266"/>
+      <c r="A40" s="267"/>
       <c r="B40" s="22" t="s">
         <v>17</v>
       </c>
@@ -8217,7 +7887,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1">
-      <c r="A41" s="266"/>
+      <c r="A41" s="267"/>
       <c r="B41" s="22" t="s">
         <v>35</v>
       </c>
@@ -8245,7 +7915,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1">
-      <c r="A42" s="266"/>
+      <c r="A42" s="267"/>
       <c r="B42" s="22" t="s">
         <v>35</v>
       </c>
@@ -8266,14 +7936,16 @@
       <c r="I42" s="182"/>
       <c r="J42" s="182"/>
       <c r="K42" s="182"/>
-      <c r="L42" s="182"/>
+      <c r="L42" s="182">
+        <v>1</v>
+      </c>
       <c r="M42" s="79"/>
       <c r="N42" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1">
-      <c r="A43" s="266"/>
+      <c r="A43" s="267"/>
       <c r="B43" s="22" t="s">
         <v>35</v>
       </c>
@@ -8291,10 +7963,14 @@
         <v>74</v>
       </c>
       <c r="H43" s="78">
-        <v>2</v>
-      </c>
-      <c r="I43" s="182"/>
-      <c r="J43" s="182"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="182">
+        <v>0</v>
+      </c>
+      <c r="J43" s="182">
+        <v>0</v>
+      </c>
       <c r="K43" s="182">
         <v>1</v>
       </c>
@@ -8302,14 +7978,14 @@
         <v>1</v>
       </c>
       <c r="M43" s="79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" s="222" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1">
-      <c r="A44" s="266"/>
+      <c r="A44" s="267"/>
       <c r="B44" s="22" t="s">
         <v>35</v>
       </c>
@@ -8329,10 +8005,10 @@
       <c r="H44" s="78"/>
       <c r="I44" s="182"/>
       <c r="J44" s="182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="182">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L44" s="182">
         <v>12</v>
@@ -8345,7 +8021,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="267"/>
+      <c r="A45" s="268"/>
       <c r="B45" s="24" t="s">
         <v>35</v>
       </c>
@@ -8373,7 +8049,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1">
-      <c r="A46" s="279" t="s">
+      <c r="A46" s="280" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="199" t="s">
@@ -8403,7 +8079,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1">
-      <c r="A47" s="266"/>
+      <c r="A47" s="267"/>
       <c r="B47" s="22" t="s">
         <v>35</v>
       </c>
@@ -8433,7 +8109,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1">
-      <c r="A48" s="266"/>
+      <c r="A48" s="267"/>
       <c r="B48" s="22" t="s">
         <v>35</v>
       </c>
@@ -8465,7 +8141,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1">
-      <c r="A49" s="266"/>
+      <c r="A49" s="267"/>
       <c r="B49" s="22" t="s">
         <v>35</v>
       </c>
@@ -8493,7 +8169,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1">
-      <c r="A50" s="266"/>
+      <c r="A50" s="267"/>
       <c r="B50" s="22" t="s">
         <v>35</v>
       </c>
@@ -8523,7 +8199,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1">
-      <c r="A51" s="266"/>
+      <c r="A51" s="267"/>
       <c r="B51" s="22" t="s">
         <v>35</v>
       </c>
@@ -8551,7 +8227,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1">
-      <c r="A52" s="266"/>
+      <c r="A52" s="267"/>
       <c r="B52" s="22" t="s">
         <v>35</v>
       </c>
@@ -8579,7 +8255,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1">
-      <c r="A53" s="266"/>
+      <c r="A53" s="267"/>
       <c r="B53" s="22" t="s">
         <v>35</v>
       </c>
@@ -8607,7 +8283,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="267"/>
+      <c r="A54" s="268"/>
       <c r="B54" s="24" t="s">
         <v>35</v>
       </c>
@@ -8635,7 +8311,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="15" customHeight="1">
-      <c r="A55" s="272" t="s">
+      <c r="A55" s="273" t="s">
         <v>104</v>
       </c>
       <c r="B55" s="199" t="s">
@@ -8662,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L55" s="195"/>
       <c r="M55" s="98"/>
@@ -8671,7 +8347,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="15" customHeight="1">
-      <c r="A56" s="273"/>
+      <c r="A56" s="274"/>
       <c r="B56" s="22" t="s">
         <v>17</v>
       </c>
@@ -8693,19 +8369,15 @@
       <c r="H56" s="78"/>
       <c r="I56" s="182"/>
       <c r="J56" s="193"/>
-      <c r="K56" s="182">
-        <v>5</v>
-      </c>
+      <c r="K56" s="182"/>
       <c r="L56" s="182"/>
-      <c r="M56" s="79">
-        <v>5</v>
-      </c>
+      <c r="M56" s="79"/>
       <c r="N56" s="222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15" customHeight="1">
-      <c r="A57" s="273"/>
+      <c r="A57" s="274"/>
       <c r="B57" s="22" t="s">
         <v>35</v>
       </c>
@@ -8737,7 +8409,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="15" customHeight="1">
-      <c r="A58" s="273"/>
+      <c r="A58" s="274"/>
       <c r="B58" s="22" t="s">
         <v>35</v>
       </c>
@@ -8765,7 +8437,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="15" customHeight="1">
-      <c r="A59" s="273"/>
+      <c r="A59" s="274"/>
       <c r="B59" s="22" t="s">
         <v>35</v>
       </c>
@@ -8795,7 +8467,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A60" s="274"/>
+      <c r="A60" s="275"/>
       <c r="B60" s="24" t="s">
         <v>35</v>
       </c>
@@ -8823,7 +8495,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" customHeight="1">
-      <c r="A61" s="280" t="s">
+      <c r="A61" s="281" t="s">
         <v>117</v>
       </c>
       <c r="B61" s="199" t="s">
@@ -8855,7 +8527,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="15" customHeight="1">
-      <c r="A62" s="281"/>
+      <c r="A62" s="282"/>
       <c r="B62" s="22" t="s">
         <v>35</v>
       </c>
@@ -8872,9 +8544,7 @@
       <c r="G62" s="23">
         <v>170</v>
       </c>
-      <c r="H62" s="78">
-        <v>1</v>
-      </c>
+      <c r="H62" s="78"/>
       <c r="I62" s="182"/>
       <c r="J62" s="182"/>
       <c r="K62" s="182"/>
@@ -8885,7 +8555,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" customHeight="1">
-      <c r="A63" s="281"/>
+      <c r="A63" s="282"/>
       <c r="B63" s="22" t="s">
         <v>35</v>
       </c>
@@ -8904,9 +8574,7 @@
       <c r="G63" s="23">
         <v>150</v>
       </c>
-      <c r="H63" s="78">
-        <v>1</v>
-      </c>
+      <c r="H63" s="78"/>
       <c r="I63" s="182"/>
       <c r="J63" s="182"/>
       <c r="K63" s="182"/>
@@ -8917,7 +8585,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="15" customHeight="1">
-      <c r="A64" s="281"/>
+      <c r="A64" s="282"/>
       <c r="B64" s="22" t="s">
         <v>35</v>
       </c>
@@ -8937,17 +8605,15 @@
       <c r="H64" s="78"/>
       <c r="I64" s="182"/>
       <c r="J64" s="182"/>
-      <c r="K64" s="182">
-        <v>2</v>
-      </c>
+      <c r="K64" s="182"/>
       <c r="L64" s="182"/>
       <c r="M64" s="79"/>
       <c r="N64" s="222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15" customHeight="1">
-      <c r="A65" s="281"/>
+      <c r="A65" s="282"/>
       <c r="B65" s="22" t="s">
         <v>35</v>
       </c>
@@ -8977,7 +8643,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A66" s="281"/>
+      <c r="A66" s="282"/>
       <c r="B66" s="22" t="s">
         <v>35</v>
       </c>
@@ -8996,13 +8662,11 @@
       <c r="G66" s="23">
         <v>90</v>
       </c>
-      <c r="H66" s="78">
-        <v>1</v>
-      </c>
+      <c r="H66" s="78"/>
       <c r="I66" s="182"/>
       <c r="J66" s="182"/>
       <c r="K66" s="182">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L66" s="182">
         <v>3</v>
@@ -9015,7 +8679,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="15" customHeight="1">
-      <c r="A67" s="280" t="s">
+      <c r="A67" s="281" t="s">
         <v>129</v>
       </c>
       <c r="B67" s="199" t="s">
@@ -9047,7 +8711,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="15" customHeight="1">
-      <c r="A68" s="281"/>
+      <c r="A68" s="282"/>
       <c r="B68" s="22" t="s">
         <v>35</v>
       </c>
@@ -9075,7 +8739,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="15" customHeight="1">
-      <c r="A69" s="281"/>
+      <c r="A69" s="282"/>
       <c r="B69" s="22" t="s">
         <v>35</v>
       </c>
@@ -9097,15 +8761,13 @@
       <c r="J69" s="182"/>
       <c r="K69" s="182"/>
       <c r="L69" s="182"/>
-      <c r="M69" s="79">
-        <v>1</v>
-      </c>
+      <c r="M69" s="79"/>
       <c r="N69" s="222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15" customHeight="1">
-      <c r="A70" s="281"/>
+      <c r="A70" s="282"/>
       <c r="B70" s="22" t="s">
         <v>35</v>
       </c>
@@ -9133,7 +8795,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="15" customHeight="1">
-      <c r="A71" s="281"/>
+      <c r="A71" s="282"/>
       <c r="B71" s="22" t="s">
         <v>35</v>
       </c>
@@ -9158,14 +8820,14 @@
       <c r="K71" s="182"/>
       <c r="L71" s="182"/>
       <c r="M71" s="79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N71" s="222" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15" customHeight="1">
-      <c r="A72" s="281"/>
+      <c r="A72" s="282"/>
       <c r="B72" s="22" t="s">
         <v>35</v>
       </c>
@@ -9182,11 +8844,21 @@
       <c r="G72" s="66">
         <v>60</v>
       </c>
-      <c r="H72" s="78"/>
-      <c r="I72" s="182"/>
-      <c r="J72" s="182"/>
-      <c r="K72" s="182"/>
-      <c r="L72" s="182"/>
+      <c r="H72" s="78">
+        <v>0</v>
+      </c>
+      <c r="I72" s="182">
+        <v>0</v>
+      </c>
+      <c r="J72" s="182">
+        <v>0</v>
+      </c>
+      <c r="K72" s="182">
+        <v>0</v>
+      </c>
+      <c r="L72" s="182">
+        <v>0</v>
+      </c>
       <c r="M72" s="79">
         <v>6</v>
       </c>
@@ -9195,7 +8867,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="15" customHeight="1">
-      <c r="A73" s="281"/>
+      <c r="A73" s="282"/>
       <c r="B73" s="22" t="s">
         <v>35</v>
       </c>
@@ -9225,7 +8897,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="15" customHeight="1">
-      <c r="A74" s="281"/>
+      <c r="A74" s="282"/>
       <c r="B74" s="22" t="s">
         <v>35</v>
       </c>
@@ -9248,18 +8920,20 @@
       <c r="I74" s="182"/>
       <c r="J74" s="182"/>
       <c r="K74" s="182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" s="182">
         <v>1</v>
       </c>
-      <c r="M74" s="79"/>
+      <c r="M74" s="79">
+        <v>1</v>
+      </c>
       <c r="N74" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15" customHeight="1">
-      <c r="A75" s="281"/>
+      <c r="A75" s="282"/>
       <c r="B75" s="22" t="s">
         <v>35</v>
       </c>
@@ -9285,11 +8959,11 @@
       </c>
       <c r="M75" s="79"/>
       <c r="N75" s="222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1">
-      <c r="A76" s="281"/>
+      <c r="A76" s="282"/>
       <c r="B76" s="22" t="s">
         <v>35</v>
       </c>
@@ -9319,7 +8993,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1">
-      <c r="A77" s="281"/>
+      <c r="A77" s="282"/>
       <c r="B77" s="22" t="s">
         <v>35</v>
       </c>
@@ -9349,7 +9023,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1">
-      <c r="A78" s="281"/>
+      <c r="A78" s="282"/>
       <c r="B78" s="22" t="s">
         <v>35</v>
       </c>
@@ -9366,9 +9040,7 @@
       <c r="G78" s="66">
         <v>19</v>
       </c>
-      <c r="H78" s="78">
-        <v>1</v>
-      </c>
+      <c r="H78" s="78"/>
       <c r="I78" s="182"/>
       <c r="J78" s="182"/>
       <c r="K78" s="120"/>
@@ -9379,7 +9051,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A79" s="282"/>
+      <c r="A79" s="283"/>
       <c r="B79" s="24" t="s">
         <v>35</v>
       </c>
@@ -9407,7 +9079,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="15" customHeight="1">
-      <c r="A80" s="280" t="s">
+      <c r="A80" s="281" t="s">
         <v>155</v>
       </c>
       <c r="B80" s="199" t="s">
@@ -9432,16 +9104,16 @@
       <c r="I80" s="182"/>
       <c r="J80" s="182"/>
       <c r="K80" s="182"/>
-      <c r="L80" s="270">
+      <c r="L80" s="271">
         <v>2</v>
       </c>
-      <c r="M80" s="271"/>
+      <c r="M80" s="272"/>
       <c r="N80" s="224" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1">
-      <c r="A81" s="283"/>
+      <c r="A81" s="284"/>
       <c r="B81" s="22" t="s">
         <v>35</v>
       </c>
@@ -9469,7 +9141,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="15" customHeight="1">
-      <c r="A82" s="283"/>
+      <c r="A82" s="284"/>
       <c r="B82" s="22" t="s">
         <v>35</v>
       </c>
@@ -9497,7 +9169,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" customHeight="1">
-      <c r="A83" s="283"/>
+      <c r="A83" s="284"/>
       <c r="B83" s="22" t="s">
         <v>35</v>
       </c>
@@ -9525,7 +9197,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1">
-      <c r="A84" s="283"/>
+      <c r="A84" s="284"/>
       <c r="B84" s="22" t="s">
         <v>35</v>
       </c>
@@ -9553,7 +9225,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="15" customHeight="1">
-      <c r="A85" s="283"/>
+      <c r="A85" s="284"/>
       <c r="B85" s="22" t="s">
         <v>35</v>
       </c>
@@ -9575,15 +9247,13 @@
       <c r="J85" s="182"/>
       <c r="K85" s="182"/>
       <c r="L85" s="182"/>
-      <c r="M85" s="79">
-        <v>1</v>
-      </c>
+      <c r="M85" s="79"/>
       <c r="N85" s="222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1">
-      <c r="A86" s="283"/>
+      <c r="A86" s="284"/>
       <c r="B86" s="22" t="s">
         <v>35</v>
       </c>
@@ -9611,7 +9281,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1">
-      <c r="A87" s="283"/>
+      <c r="A87" s="284"/>
       <c r="B87" s="22" t="s">
         <v>35</v>
       </c>
@@ -9639,7 +9309,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" ht="15" customHeight="1">
-      <c r="A88" s="283"/>
+      <c r="A88" s="284"/>
       <c r="B88" s="22" t="s">
         <v>35</v>
       </c>
@@ -9662,14 +9332,14 @@
       <c r="K88" s="182"/>
       <c r="L88" s="182"/>
       <c r="M88" s="79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" s="222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="15" customHeight="1">
-      <c r="A89" s="283"/>
+      <c r="A89" s="284"/>
       <c r="B89" s="22" t="s">
         <v>35</v>
       </c>
@@ -9697,7 +9367,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1">
-      <c r="A90" s="283"/>
+      <c r="A90" s="284"/>
       <c r="B90" s="201" t="s">
         <v>35</v>
       </c>
@@ -9725,7 +9395,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A91" s="284"/>
+      <c r="A91" s="285"/>
       <c r="B91" s="24" t="s">
         <v>35</v>
       </c>
@@ -9753,7 +9423,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="15" customHeight="1">
-      <c r="A92" s="285" t="s">
+      <c r="A92" s="286" t="s">
         <v>176</v>
       </c>
       <c r="B92" s="199" t="s">
@@ -9783,7 +9453,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="15" customHeight="1">
-      <c r="A93" s="281"/>
+      <c r="A93" s="282"/>
       <c r="B93" s="22" t="s">
         <v>35</v>
       </c>
@@ -9811,7 +9481,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" ht="15" customHeight="1">
-      <c r="A94" s="281"/>
+      <c r="A94" s="282"/>
       <c r="B94" s="22" t="s">
         <v>35</v>
       </c>
@@ -9839,7 +9509,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" ht="15" customHeight="1">
-      <c r="A95" s="281"/>
+      <c r="A95" s="282"/>
       <c r="B95" s="22" t="s">
         <v>35</v>
       </c>
@@ -9858,18 +9528,16 @@
       </c>
       <c r="H95" s="78"/>
       <c r="I95" s="182"/>
-      <c r="J95" s="182">
-        <v>1</v>
-      </c>
+      <c r="J95" s="182"/>
       <c r="K95" s="182"/>
       <c r="L95" s="182"/>
       <c r="M95" s="79"/>
       <c r="N95" s="222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1">
-      <c r="A96" s="281"/>
+      <c r="A96" s="282"/>
       <c r="B96" s="22" t="s">
         <v>35</v>
       </c>
@@ -9897,7 +9565,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1">
-      <c r="A97" s="281"/>
+      <c r="A97" s="282"/>
       <c r="B97" s="22" t="s">
         <v>35</v>
       </c>
@@ -9925,7 +9593,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1">
-      <c r="A98" s="281"/>
+      <c r="A98" s="282"/>
       <c r="B98" s="22" t="s">
         <v>35</v>
       </c>
@@ -9953,7 +9621,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A99" s="282"/>
+      <c r="A99" s="283"/>
       <c r="B99" s="24" t="s">
         <v>35</v>
       </c>
@@ -9981,7 +9649,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="15" customHeight="1">
-      <c r="A100" s="280" t="s">
+      <c r="A100" s="281" t="s">
         <v>190</v>
       </c>
       <c r="B100" s="199" t="s">
@@ -10003,7 +9671,9 @@
       <c r="H100" s="95"/>
       <c r="I100" s="195"/>
       <c r="J100" s="195"/>
-      <c r="K100" s="195"/>
+      <c r="K100" s="195">
+        <v>2</v>
+      </c>
       <c r="L100" s="195"/>
       <c r="M100" s="98">
         <v>3</v>
@@ -10013,7 +9683,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1">
-      <c r="A101" s="281"/>
+      <c r="A101" s="282"/>
       <c r="B101" s="22" t="s">
         <v>35</v>
       </c>
@@ -10041,7 +9711,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1">
-      <c r="A102" s="281"/>
+      <c r="A102" s="282"/>
       <c r="B102" s="22" t="s">
         <v>35</v>
       </c>
@@ -10069,7 +9739,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" ht="15" customHeight="1">
-      <c r="A103" s="281"/>
+      <c r="A103" s="282"/>
       <c r="B103" s="22" t="s">
         <v>35</v>
       </c>
@@ -10086,13 +9756,21 @@
       <c r="G103" s="66">
         <v>60</v>
       </c>
-      <c r="H103" s="78"/>
-      <c r="I103" s="182"/>
-      <c r="J103" s="182"/>
+      <c r="H103" s="78">
+        <v>0</v>
+      </c>
+      <c r="I103" s="182">
+        <v>0</v>
+      </c>
+      <c r="J103" s="182">
+        <v>0</v>
+      </c>
       <c r="K103" s="182">
         <v>1</v>
       </c>
-      <c r="L103" s="182"/>
+      <c r="L103" s="182">
+        <v>0</v>
+      </c>
       <c r="M103" s="79">
         <v>2</v>
       </c>
@@ -10101,7 +9779,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A104" s="282"/>
+      <c r="A104" s="283"/>
       <c r="B104" s="24" t="s">
         <v>35</v>
       </c>
@@ -10118,9 +9796,7 @@
       <c r="G104" s="25">
         <v>60</v>
       </c>
-      <c r="H104" s="90">
-        <v>1</v>
-      </c>
+      <c r="H104" s="90"/>
       <c r="I104" s="91"/>
       <c r="J104" s="91"/>
       <c r="K104" s="91"/>
@@ -10135,7 +9811,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1">
-      <c r="A105" s="279" t="s">
+      <c r="A105" s="280" t="s">
         <v>199</v>
       </c>
       <c r="B105" s="199" t="s">
@@ -10164,14 +9840,14 @@
         <v>1</v>
       </c>
       <c r="M105" s="109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N105" s="229" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1">
-      <c r="A106" s="266"/>
+      <c r="A106" s="267"/>
       <c r="B106" s="22" t="s">
         <v>35</v>
       </c>
@@ -10199,7 +9875,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1">
-      <c r="A107" s="266"/>
+      <c r="A107" s="267"/>
       <c r="B107" s="22" t="s">
         <v>35</v>
       </c>
@@ -10218,18 +9894,16 @@
       </c>
       <c r="H107" s="78"/>
       <c r="I107" s="182"/>
-      <c r="J107" s="182">
-        <v>1</v>
-      </c>
+      <c r="J107" s="182"/>
       <c r="K107" s="182"/>
       <c r="L107" s="182"/>
       <c r="M107" s="79"/>
       <c r="N107" s="230" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="15" customHeight="1">
-      <c r="A108" s="266"/>
+      <c r="A108" s="267"/>
       <c r="B108" s="22" t="s">
         <v>35</v>
       </c>
@@ -10257,7 +9931,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="15" customHeight="1">
-      <c r="A109" s="266"/>
+      <c r="A109" s="267"/>
       <c r="B109" s="22" t="s">
         <v>35</v>
       </c>
@@ -10279,13 +9953,15 @@
       <c r="J109" s="182"/>
       <c r="K109" s="182"/>
       <c r="L109" s="182"/>
-      <c r="M109" s="79"/>
+      <c r="M109" s="79">
+        <v>1</v>
+      </c>
       <c r="N109" s="230" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1">
-      <c r="A110" s="266"/>
+      <c r="A110" s="267"/>
       <c r="B110" s="22" t="s">
         <v>35</v>
       </c>
@@ -10315,7 +9991,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="15" customHeight="1">
-      <c r="A111" s="266"/>
+      <c r="A111" s="267"/>
       <c r="B111" s="22" t="s">
         <v>35</v>
       </c>
@@ -10345,7 +10021,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1">
-      <c r="A112" s="266"/>
+      <c r="A112" s="267"/>
       <c r="B112" s="22" t="s">
         <v>35</v>
       </c>
@@ -10367,9 +10043,7 @@
       <c r="H112" s="78"/>
       <c r="I112" s="182"/>
       <c r="J112" s="182"/>
-      <c r="K112" s="182">
-        <v>1</v>
-      </c>
+      <c r="K112" s="182"/>
       <c r="L112" s="182">
         <v>3</v>
       </c>
@@ -10381,7 +10055,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1">
-      <c r="A113" s="266"/>
+      <c r="A113" s="267"/>
       <c r="B113" s="22" t="s">
         <v>35</v>
       </c>
@@ -10409,7 +10083,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1">
-      <c r="A114" s="266"/>
+      <c r="A114" s="267"/>
       <c r="B114" s="22" t="s">
         <v>35</v>
       </c>
@@ -10437,7 +10111,7 @@
       </c>
     </row>
     <row r="115" spans="1:14" ht="15" customHeight="1">
-      <c r="A115" s="266"/>
+      <c r="A115" s="267"/>
       <c r="B115" s="22" t="s">
         <v>35</v>
       </c>
@@ -10458,16 +10132,18 @@
       <c r="I115" s="182"/>
       <c r="J115" s="182"/>
       <c r="K115" s="182"/>
-      <c r="L115" s="182"/>
+      <c r="L115" s="182">
+        <v>2</v>
+      </c>
       <c r="M115" s="79">
         <v>1</v>
       </c>
       <c r="N115" s="222" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="15" customHeight="1">
-      <c r="A116" s="266"/>
+      <c r="A116" s="267"/>
       <c r="B116" s="22" t="s">
         <v>35</v>
       </c>
@@ -10495,7 +10171,7 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="15" customHeight="1">
-      <c r="A117" s="266"/>
+      <c r="A117" s="267"/>
       <c r="B117" s="22" t="s">
         <v>35</v>
       </c>
@@ -10523,7 +10199,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" ht="15" customHeight="1">
-      <c r="A118" s="266"/>
+      <c r="A118" s="267"/>
       <c r="B118" s="22" t="s">
         <v>35</v>
       </c>
@@ -10541,17 +10217,21 @@
         <v>19</v>
       </c>
       <c r="H118" s="78"/>
-      <c r="I118" s="182"/>
-      <c r="J118" s="182"/>
+      <c r="I118" s="182">
+        <v>1</v>
+      </c>
+      <c r="J118" s="182">
+        <v>1</v>
+      </c>
       <c r="K118" s="120"/>
       <c r="L118" s="121"/>
       <c r="M118" s="122"/>
       <c r="N118" s="222" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A119" s="267"/>
+      <c r="A119" s="268"/>
       <c r="B119" s="24" t="s">
         <v>35</v>
       </c>
@@ -10579,7 +10259,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1">
-      <c r="A120" s="272" t="s">
+      <c r="A120" s="273" t="s">
         <v>228</v>
       </c>
       <c r="B120" s="199" t="s">
@@ -10611,7 +10291,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" ht="15" customHeight="1">
-      <c r="A121" s="273"/>
+      <c r="A121" s="274"/>
       <c r="B121" s="22" t="s">
         <v>35</v>
       </c>
@@ -10641,7 +10321,7 @@
       </c>
     </row>
     <row r="122" spans="1:14" ht="15" customHeight="1">
-      <c r="A122" s="273"/>
+      <c r="A122" s="274"/>
       <c r="B122" s="22" t="s">
         <v>35</v>
       </c>
@@ -10669,7 +10349,7 @@
       </c>
     </row>
     <row r="123" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A123" s="286"/>
+      <c r="A123" s="287"/>
       <c r="B123" s="24" t="s">
         <v>35</v>
       </c>
@@ -10686,20 +10366,18 @@
       <c r="G123" s="25">
         <v>19</v>
       </c>
-      <c r="H123" s="90">
-        <v>2</v>
-      </c>
+      <c r="H123" s="90"/>
       <c r="I123" s="91"/>
       <c r="J123" s="91"/>
       <c r="K123" s="126"/>
       <c r="L123" s="127"/>
       <c r="M123" s="128"/>
       <c r="N123" s="223" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="15" customHeight="1">
-      <c r="A124" s="272" t="s">
+      <c r="A124" s="273" t="s">
         <v>237</v>
       </c>
       <c r="B124" s="199" t="s">
@@ -10731,7 +10409,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="15" customHeight="1">
-      <c r="A125" s="287"/>
+      <c r="A125" s="288"/>
       <c r="B125" s="22" t="s">
         <v>35</v>
       </c>
@@ -10759,7 +10437,7 @@
       </c>
     </row>
     <row r="126" spans="1:14" ht="15" customHeight="1">
-      <c r="A126" s="287"/>
+      <c r="A126" s="288"/>
       <c r="B126" s="22" t="s">
         <v>35</v>
       </c>
@@ -10789,7 +10467,7 @@
       </c>
     </row>
     <row r="127" spans="1:14" ht="15" customHeight="1">
-      <c r="A127" s="287"/>
+      <c r="A127" s="288"/>
       <c r="B127" s="22" t="s">
         <v>35</v>
       </c>
@@ -10819,7 +10497,7 @@
       </c>
     </row>
     <row r="128" spans="1:14" ht="15" customHeight="1">
-      <c r="A128" s="288"/>
+      <c r="A128" s="289"/>
       <c r="B128" s="22" t="s">
         <v>35</v>
       </c>
@@ -10847,7 +10525,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A129" s="289"/>
+      <c r="A129" s="290"/>
       <c r="B129" s="24" t="s">
         <v>35</v>
       </c>
@@ -10875,7 +10553,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" ht="15" customHeight="1">
-      <c r="A130" s="279" t="s">
+      <c r="A130" s="280" t="s">
         <v>249</v>
       </c>
       <c r="B130" s="199" t="s">
@@ -10907,7 +10585,7 @@
       </c>
     </row>
     <row r="131" spans="1:14" ht="15" customHeight="1">
-      <c r="A131" s="266"/>
+      <c r="A131" s="267"/>
       <c r="B131" s="22" t="s">
         <v>17</v>
       </c>
@@ -10929,17 +10607,15 @@
       <c r="H131" s="113"/>
       <c r="I131" s="114"/>
       <c r="J131" s="114"/>
-      <c r="K131" s="114">
-        <v>1</v>
-      </c>
+      <c r="K131" s="114"/>
       <c r="L131" s="114"/>
       <c r="M131" s="115"/>
       <c r="N131" s="232" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="15" customHeight="1">
-      <c r="A132" s="266"/>
+      <c r="A132" s="267"/>
       <c r="B132" s="22" t="s">
         <v>35</v>
       </c>
@@ -10973,7 +10649,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" ht="15" customHeight="1">
-      <c r="A133" s="266"/>
+      <c r="A133" s="267"/>
       <c r="B133" s="22" t="s">
         <v>35</v>
       </c>
@@ -10990,7 +10666,9 @@
       <c r="G133" s="66">
         <v>70</v>
       </c>
-      <c r="H133" s="78"/>
+      <c r="H133" s="78">
+        <v>1</v>
+      </c>
       <c r="I133" s="182"/>
       <c r="J133" s="182"/>
       <c r="K133" s="182"/>
@@ -11001,7 +10679,7 @@
       </c>
     </row>
     <row r="134" spans="1:14" ht="15" customHeight="1">
-      <c r="A134" s="266"/>
+      <c r="A134" s="267"/>
       <c r="B134" s="22" t="s">
         <v>35</v>
       </c>
@@ -11018,24 +10696,18 @@
       <c r="G134" s="66">
         <v>29</v>
       </c>
-      <c r="H134" s="78">
-        <v>0</v>
-      </c>
-      <c r="I134" s="182">
-        <v>1</v>
-      </c>
-      <c r="J134" s="182">
-        <v>1</v>
-      </c>
+      <c r="H134" s="78"/>
+      <c r="I134" s="182"/>
+      <c r="J134" s="182"/>
       <c r="K134" s="120"/>
       <c r="L134" s="121"/>
       <c r="M134" s="122"/>
       <c r="N134" s="222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="15" customHeight="1">
-      <c r="A135" s="266"/>
+      <c r="A135" s="267"/>
       <c r="B135" s="22" t="s">
         <v>35</v>
       </c>
@@ -11063,7 +10735,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" ht="15" customHeight="1">
-      <c r="A136" s="266"/>
+      <c r="A136" s="267"/>
       <c r="B136" s="22" t="s">
         <v>35</v>
       </c>
@@ -11080,11 +10752,21 @@
       <c r="G136" s="66">
         <v>56</v>
       </c>
-      <c r="H136" s="78"/>
-      <c r="I136" s="182"/>
-      <c r="J136" s="182"/>
-      <c r="K136" s="182"/>
-      <c r="L136" s="182"/>
+      <c r="H136" s="78">
+        <v>0</v>
+      </c>
+      <c r="I136" s="182">
+        <v>0</v>
+      </c>
+      <c r="J136" s="182">
+        <v>0</v>
+      </c>
+      <c r="K136" s="182">
+        <v>0</v>
+      </c>
+      <c r="L136" s="182">
+        <v>0</v>
+      </c>
       <c r="M136" s="79">
         <v>1</v>
       </c>
@@ -11093,7 +10775,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" ht="15" customHeight="1">
-      <c r="A137" s="266"/>
+      <c r="A137" s="267"/>
       <c r="B137" s="22" t="s">
         <v>35</v>
       </c>
@@ -11125,7 +10807,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" ht="15" customHeight="1">
-      <c r="A138" s="266"/>
+      <c r="A138" s="267"/>
       <c r="B138" s="22" t="s">
         <v>35</v>
       </c>
@@ -11143,21 +10825,17 @@
         <v>19</v>
       </c>
       <c r="H138" s="139"/>
-      <c r="I138" s="182">
-        <v>1</v>
-      </c>
-      <c r="J138" s="182">
-        <v>1</v>
-      </c>
+      <c r="I138" s="182"/>
+      <c r="J138" s="182"/>
       <c r="K138" s="120"/>
       <c r="L138" s="121"/>
       <c r="M138" s="122"/>
       <c r="N138" s="222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="15" customHeight="1">
-      <c r="A139" s="266"/>
+      <c r="A139" s="267"/>
       <c r="B139" s="22" t="s">
         <v>35</v>
       </c>
@@ -11185,7 +10863,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" ht="15" customHeight="1">
-      <c r="A140" s="266"/>
+      <c r="A140" s="267"/>
       <c r="B140" s="22" t="s">
         <v>35</v>
       </c>
@@ -11213,7 +10891,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" ht="15" customHeight="1">
-      <c r="A141" s="266"/>
+      <c r="A141" s="267"/>
       <c r="B141" s="200" t="s">
         <v>35</v>
       </c>
@@ -11241,7 +10919,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A142" s="267"/>
+      <c r="A142" s="268"/>
       <c r="B142" s="24" t="s">
         <v>35</v>
       </c>
@@ -11269,7 +10947,7 @@
       </c>
     </row>
     <row r="143" spans="1:14" ht="15" customHeight="1">
-      <c r="A143" s="279" t="s">
+      <c r="A143" s="280" t="s">
         <v>272</v>
       </c>
       <c r="B143" s="199" t="s">
@@ -11303,7 +10981,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="15" customHeight="1">
-      <c r="A144" s="266"/>
+      <c r="A144" s="267"/>
       <c r="B144" s="22" t="s">
         <v>35</v>
       </c>
@@ -11331,7 +11009,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" ht="15" customHeight="1">
-      <c r="A145" s="266"/>
+      <c r="A145" s="267"/>
       <c r="B145" s="22" t="s">
         <v>35</v>
       </c>
@@ -11355,15 +11033,13 @@
       <c r="L145" s="182">
         <v>1</v>
       </c>
-      <c r="M145" s="79">
-        <v>1</v>
-      </c>
+      <c r="M145" s="79"/>
       <c r="N145" s="222" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="15" customHeight="1">
-      <c r="A146" s="266"/>
+      <c r="A146" s="267"/>
       <c r="B146" s="22" t="s">
         <v>35</v>
       </c>
@@ -11382,18 +11058,16 @@
       </c>
       <c r="H146" s="78"/>
       <c r="I146" s="182"/>
-      <c r="J146" s="182">
-        <v>1</v>
-      </c>
+      <c r="J146" s="182"/>
       <c r="K146" s="182"/>
       <c r="L146" s="182"/>
       <c r="M146" s="79"/>
       <c r="N146" s="222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="15" customHeight="1">
-      <c r="A147" s="266"/>
+      <c r="A147" s="267"/>
       <c r="B147" s="22" t="s">
         <v>35</v>
       </c>
@@ -11421,7 +11095,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" ht="15" customHeight="1">
-      <c r="A148" s="266"/>
+      <c r="A148" s="267"/>
       <c r="B148" s="22" t="s">
         <v>35</v>
       </c>
@@ -11449,7 +11123,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" ht="15" customHeight="1">
-      <c r="A149" s="266"/>
+      <c r="A149" s="267"/>
       <c r="B149" s="22" t="s">
         <v>35</v>
       </c>
@@ -11477,7 +11151,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="15" customHeight="1">
-      <c r="A150" s="266"/>
+      <c r="A150" s="267"/>
       <c r="B150" s="22" t="s">
         <v>35</v>
       </c>
@@ -11500,20 +11174,20 @@
       <c r="I150" s="182"/>
       <c r="J150" s="182"/>
       <c r="K150" s="182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L150" s="182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M150" s="79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N150" s="225" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A151" s="267"/>
+      <c r="A151" s="268"/>
       <c r="B151" s="24" t="s">
         <v>35</v>
       </c>
@@ -11541,7 +11215,7 @@
       </c>
     </row>
     <row r="152" spans="1:14" ht="15" customHeight="1">
-      <c r="A152" s="296" t="s">
+      <c r="A152" s="297" t="s">
         <v>288</v>
       </c>
       <c r="B152" s="199" t="s">
@@ -11561,21 +11235,17 @@
         <v>60</v>
       </c>
       <c r="H152" s="95"/>
-      <c r="I152" s="195">
-        <v>1</v>
-      </c>
+      <c r="I152" s="195"/>
       <c r="J152" s="195"/>
       <c r="K152" s="195"/>
       <c r="L152" s="195"/>
-      <c r="M152" s="98">
-        <v>2</v>
-      </c>
+      <c r="M152" s="98"/>
       <c r="N152" s="218" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="15" customHeight="1">
-      <c r="A153" s="297"/>
+      <c r="A153" s="298"/>
       <c r="B153" s="22" t="s">
         <v>35</v>
       </c>
@@ -11603,7 +11273,7 @@
       </c>
     </row>
     <row r="154" spans="1:14" ht="15" customHeight="1">
-      <c r="A154" s="297"/>
+      <c r="A154" s="298"/>
       <c r="B154" s="22" t="s">
         <v>35</v>
       </c>
@@ -11633,7 +11303,7 @@
       </c>
     </row>
     <row r="155" spans="1:14" ht="15" customHeight="1">
-      <c r="A155" s="297"/>
+      <c r="A155" s="298"/>
       <c r="B155" s="200" t="s">
         <v>35</v>
       </c>
@@ -11663,7 +11333,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" ht="15" customHeight="1">
-      <c r="A156" s="297"/>
+      <c r="A156" s="298"/>
       <c r="B156" s="200" t="s">
         <v>35</v>
       </c>
@@ -11680,7 +11350,9 @@
       <c r="G156" s="174">
         <v>19</v>
       </c>
-      <c r="H156" s="143"/>
+      <c r="H156" s="143">
+        <v>1</v>
+      </c>
       <c r="I156" s="175"/>
       <c r="J156" s="175"/>
       <c r="K156" s="167"/>
@@ -11691,7 +11363,7 @@
       </c>
     </row>
     <row r="157" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A157" s="298"/>
+      <c r="A157" s="299"/>
       <c r="B157" s="24" t="s">
         <v>35</v>
       </c>
@@ -11709,12 +11381,8 @@
         <v>18</v>
       </c>
       <c r="H157" s="171"/>
-      <c r="I157" s="251">
-        <v>1</v>
-      </c>
-      <c r="J157" s="252">
-        <v>0</v>
-      </c>
+      <c r="I157" s="251"/>
+      <c r="J157" s="252"/>
       <c r="K157" s="126"/>
       <c r="L157" s="127"/>
       <c r="M157" s="128"/>
@@ -11723,7 +11391,7 @@
       </c>
     </row>
     <row r="158" spans="1:14" ht="15" customHeight="1">
-      <c r="A158" s="272" t="s">
+      <c r="A158" s="273" t="s">
         <v>300</v>
       </c>
       <c r="B158" s="199" t="s">
@@ -11755,7 +11423,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" ht="15" customHeight="1">
-      <c r="A159" s="287"/>
+      <c r="A159" s="288"/>
       <c r="B159" s="22" t="s">
         <v>17</v>
       </c>
@@ -11778,7 +11446,7 @@
       <c r="I159" s="182"/>
       <c r="J159" s="193"/>
       <c r="K159" s="182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L159" s="182"/>
       <c r="M159" s="79">
@@ -11789,7 +11457,7 @@
       </c>
     </row>
     <row r="160" spans="1:14" ht="15" customHeight="1">
-      <c r="A160" s="287"/>
+      <c r="A160" s="288"/>
       <c r="B160" s="22" t="s">
         <v>35</v>
       </c>
@@ -11806,18 +11474,20 @@
       <c r="G160" s="66">
         <v>100</v>
       </c>
-      <c r="H160" s="78"/>
+      <c r="H160" s="78">
+        <v>1</v>
+      </c>
       <c r="I160" s="182"/>
       <c r="J160" s="182"/>
       <c r="K160" s="182"/>
       <c r="L160" s="182"/>
       <c r="M160" s="79"/>
       <c r="N160" s="222" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="15" customHeight="1">
-      <c r="A161" s="287"/>
+      <c r="A161" s="288"/>
       <c r="B161" s="22" t="s">
         <v>35</v>
       </c>
@@ -11845,7 +11515,7 @@
       </c>
     </row>
     <row r="162" spans="1:14" ht="15" customHeight="1">
-      <c r="A162" s="287"/>
+      <c r="A162" s="288"/>
       <c r="B162" s="22" t="s">
         <v>35</v>
       </c>
@@ -11875,7 +11545,7 @@
       </c>
     </row>
     <row r="163" spans="1:14" ht="15" customHeight="1">
-      <c r="A163" s="287"/>
+      <c r="A163" s="288"/>
       <c r="B163" s="22" t="s">
         <v>35</v>
       </c>
@@ -11903,7 +11573,7 @@
       </c>
     </row>
     <row r="164" spans="1:14" ht="15" customHeight="1">
-      <c r="A164" s="287"/>
+      <c r="A164" s="288"/>
       <c r="B164" s="22" t="s">
         <v>35</v>
       </c>
@@ -11933,7 +11603,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" ht="15" customHeight="1">
-      <c r="A165" s="287"/>
+      <c r="A165" s="288"/>
       <c r="B165" s="22" t="s">
         <v>35</v>
       </c>
@@ -11957,7 +11627,7 @@
       <c r="J165" s="182"/>
       <c r="K165" s="182"/>
       <c r="L165" s="182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M165" s="79"/>
       <c r="N165" s="222" t="s">
@@ -11965,7 +11635,7 @@
       </c>
     </row>
     <row r="166" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A166" s="286"/>
+      <c r="A166" s="287"/>
       <c r="B166" s="24" t="s">
         <v>35</v>
       </c>
@@ -11993,7 +11663,7 @@
       </c>
     </row>
     <row r="167" spans="1:14" ht="15" customHeight="1">
-      <c r="A167" s="299" t="s">
+      <c r="A167" s="300" t="s">
         <v>318</v>
       </c>
       <c r="B167" s="199" t="s">
@@ -12023,7 +11693,7 @@
       </c>
     </row>
     <row r="168" spans="1:14" ht="15" customHeight="1">
-      <c r="A168" s="283"/>
+      <c r="A168" s="284"/>
       <c r="B168" s="22" t="s">
         <v>17</v>
       </c>
@@ -12053,7 +11723,7 @@
       </c>
     </row>
     <row r="169" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A169" s="300"/>
+      <c r="A169" s="301"/>
       <c r="B169" s="24" t="s">
         <v>35</v>
       </c>
@@ -12081,7 +11751,7 @@
       </c>
     </row>
     <row r="170" spans="1:14" ht="15" customHeight="1">
-      <c r="A170" s="301" t="s">
+      <c r="A170" s="302" t="s">
         <v>324</v>
       </c>
       <c r="B170" s="199" t="s">
@@ -12111,7 +11781,7 @@
       </c>
     </row>
     <row r="171" spans="1:14" ht="15" customHeight="1">
-      <c r="A171" s="302"/>
+      <c r="A171" s="303"/>
       <c r="B171" s="22" t="s">
         <v>35</v>
       </c>
@@ -12139,7 +11809,7 @@
       </c>
     </row>
     <row r="172" spans="1:14" ht="15" customHeight="1">
-      <c r="A172" s="302"/>
+      <c r="A172" s="303"/>
       <c r="B172" s="22" t="s">
         <v>35</v>
       </c>
@@ -12160,18 +11830,16 @@
       </c>
       <c r="H172" s="78"/>
       <c r="I172" s="182"/>
-      <c r="J172" s="182">
-        <v>2</v>
-      </c>
+      <c r="J172" s="182"/>
       <c r="K172" s="182"/>
       <c r="L172" s="182"/>
       <c r="M172" s="79"/>
       <c r="N172" s="233" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="15" customHeight="1">
-      <c r="A173" s="302"/>
+      <c r="A173" s="303"/>
       <c r="B173" s="22" t="s">
         <v>35</v>
       </c>
@@ -12191,17 +11859,19 @@
       <c r="H173" s="78"/>
       <c r="I173" s="182"/>
       <c r="J173" s="182"/>
-      <c r="K173" s="182"/>
+      <c r="K173" s="182">
+        <v>2</v>
+      </c>
       <c r="L173" s="182"/>
       <c r="M173" s="79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N173" s="233" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="15" customHeight="1">
-      <c r="A174" s="302"/>
+      <c r="A174" s="303"/>
       <c r="B174" s="22" t="s">
         <v>35</v>
       </c>
@@ -12220,16 +11890,18 @@
       </c>
       <c r="H174" s="78"/>
       <c r="I174" s="182"/>
-      <c r="J174" s="182"/>
+      <c r="J174" s="182">
+        <v>2</v>
+      </c>
       <c r="K174" s="182"/>
       <c r="L174" s="182"/>
       <c r="M174" s="79"/>
       <c r="N174" s="233" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="15" customHeight="1">
-      <c r="A175" s="302"/>
+      <c r="A175" s="303"/>
       <c r="B175" s="22" t="s">
         <v>35</v>
       </c>
@@ -12257,7 +11929,7 @@
       </c>
     </row>
     <row r="176" spans="1:14" ht="15" customHeight="1">
-      <c r="A176" s="302"/>
+      <c r="A176" s="303"/>
       <c r="B176" s="22" t="s">
         <v>35</v>
       </c>
@@ -12291,7 +11963,7 @@
       </c>
     </row>
     <row r="177" spans="1:14" ht="15" customHeight="1">
-      <c r="A177" s="302"/>
+      <c r="A177" s="303"/>
       <c r="B177" s="22" t="s">
         <v>35</v>
       </c>
@@ -12319,7 +11991,7 @@
       </c>
     </row>
     <row r="178" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A178" s="303"/>
+      <c r="A178" s="304"/>
       <c r="B178" s="24" t="s">
         <v>35</v>
       </c>
@@ -12367,16 +12039,16 @@
         <v>150</v>
       </c>
       <c r="H179" s="118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" s="73">
         <v>0</v>
       </c>
       <c r="J179" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L179" s="73">
         <v>0</v>
@@ -12385,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="N179" s="236" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="15" customHeight="1" thickBot="1">
@@ -12419,7 +12091,7 @@
       </c>
     </row>
     <row r="181" spans="1:14" ht="15" customHeight="1">
-      <c r="A181" s="304" t="s">
+      <c r="A181" s="305" t="s">
         <v>346</v>
       </c>
       <c r="B181" s="199" t="s">
@@ -12438,9 +12110,9 @@
       <c r="G181" s="69">
         <v>3</v>
       </c>
-      <c r="H181" s="290"/>
-      <c r="I181" s="291"/>
-      <c r="J181" s="291"/>
+      <c r="H181" s="291"/>
+      <c r="I181" s="292"/>
+      <c r="J181" s="292"/>
       <c r="K181" s="178"/>
       <c r="L181" s="132"/>
       <c r="M181" s="179"/>
@@ -12449,7 +12121,7 @@
       </c>
     </row>
     <row r="182" spans="1:14" ht="15" customHeight="1">
-      <c r="A182" s="302"/>
+      <c r="A182" s="303"/>
       <c r="B182" s="22" t="s">
         <v>35</v>
       </c>
@@ -12466,11 +12138,11 @@
       <c r="G182" s="66">
         <v>5</v>
       </c>
-      <c r="H182" s="292">
+      <c r="H182" s="293">
         <v>1</v>
       </c>
-      <c r="I182" s="293"/>
-      <c r="J182" s="293"/>
+      <c r="I182" s="294"/>
+      <c r="J182" s="294"/>
       <c r="K182" s="120"/>
       <c r="L182" s="121"/>
       <c r="M182" s="122"/>
@@ -12479,7 +12151,7 @@
       </c>
     </row>
     <row r="183" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A183" s="303"/>
+      <c r="A183" s="304"/>
       <c r="B183" s="21" t="s">
         <v>35</v>
       </c>
@@ -12496,9 +12168,9 @@
       <c r="G183" s="25">
         <v>5</v>
       </c>
-      <c r="H183" s="294"/>
-      <c r="I183" s="295"/>
-      <c r="J183" s="295"/>
+      <c r="H183" s="295"/>
+      <c r="I183" s="296"/>
+      <c r="J183" s="296"/>
       <c r="K183" s="126"/>
       <c r="L183" s="187"/>
       <c r="M183" s="188"/>
@@ -12784,7 +12456,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:N183" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="33">
+  <mergeCells count="32">
     <mergeCell ref="H181:J181"/>
     <mergeCell ref="H182:J182"/>
     <mergeCell ref="H183:J183"/>
@@ -12808,7 +12480,6 @@
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="A29:A38"/>
     <mergeCell ref="A39:A45"/>
@@ -12820,517 +12491,279 @@
     <mergeCell ref="L14:M14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="E12:I12 E120:L120 E121:M168 K12:M12 E10:M11 K26:L26 E170:J183 E169:I169 K169:M182 E26:I27 K27:M27 E62:M79 K61:M61 E80:L80 E28:M37 E40:M60 N111:N180 E38:I39 K38:M39 E61:I61 N85:N109 E81:M119 B10:D183 E13:M25 J38">
-    <cfRule type="expression" dxfId="101" priority="127">
+  <conditionalFormatting sqref="E10:I10 K10:M10 E11:M11">
+    <cfRule type="expression" dxfId="55" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="49">
+      <formula>"MOD(ROW(),2)=2"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E169:I169">
+    <cfRule type="expression" dxfId="54" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:L14 K181 H26:I27 I138 H17:K17 H37:K37 H52:K54 H78:K79 H82:K82 H99:K99 H116:J119 H123:J123 H128:J129 H134:J135 H139:J140 H144:J144 H156:K157 H162:J162 H166:J166 H175:J175 H177:J177 H91:K91 I141:J142 I178:J178 H13:M13 K61:M61 H15:M16 H62:M66 H167:I168 H28:M28 H170:M174 K27:M27 H41:M51 H18:M20 H30:M36 K29:M29 H55:M55 H68:M77 H83:M90 H115:M115 K114:M114 H121:M122 H124:M126 H131:M133 H136:M137 H143:M143 H145:M147 H152:M153 K151:M151 H160:M161 H163:M164 H179:M180 K176:M176 I127:M127 I165:M165 I154:M155 H100:M113 H158:I159 K158:M159 H67:I67 K67:M67 I169 H181:H183 K167:M168 H10:I12 H57:M60 H56:I56 K56:M56 H130:I130 K130:M130 K39:M40 H120:I120 K120:L120 K26:L26 H149:M150 H148:K148 H81:M81 H80:L80 K10:M12 N111:N181 H38:I40 H61:I61 N85:N109 H92:M98 H21:K25 J38:K38">
-    <cfRule type="cellIs" dxfId="100" priority="126" operator="equal">
+  <conditionalFormatting sqref="E10:M11 E12:I12 K12:M12 E13:M25 E26:I27 E28:M37 J38 E38:I39 K38:M39 E40:M60 E61:I61 K61:M61 E62:M79 E80:L80 E81:M119 N111:N180 E120:L120 E121:M168 K169:M182 E170:J183 B10:D183">
+    <cfRule type="expression" dxfId="53" priority="129">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="cellIs" dxfId="52" priority="82" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="83">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127">
+    <cfRule type="expression" dxfId="50" priority="75">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H138">
+    <cfRule type="expression" dxfId="49" priority="73">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H141:H142">
+    <cfRule type="expression" dxfId="48" priority="71">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H154:H155">
+    <cfRule type="expression" dxfId="47" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H165">
+    <cfRule type="expression" dxfId="46" priority="63">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H178">
+    <cfRule type="expression" dxfId="45" priority="51">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:I12 K10:M12 N111:N181 H13:M13 H14:L14 H15:M16 H17:K17 H18:M20 H21:K25 H26:I27 H28:M28 K29:M29 H30:M36 H37:K37 J38:K38 H38:I40 K39:M40 H41:M51 H52:K54 H55:M55 H56:I56 K56:M56 H57:M60 H61:I61 K61:M61 H62:M66 H67:I67 K67:M67 H68:M77 H78:K79 H80:L80 H81:M81 H82:K82 H83:M90 H91:K91 H92:M98 H99:K99 H120:I120 K120:L120 H121:M122 H130:I130 K130:M130 H131:M133 H136:M137 H143:M143 H145:M147 H148:K148 H156:K157 H158:I159 K158:M159 H160:M161 K167:M168 H170:M174 H179:M180 H181:H183">
+    <cfRule type="cellIs" dxfId="44" priority="128" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K116">
-    <cfRule type="expression" dxfId="99" priority="125">
+  <conditionalFormatting sqref="H138:I138">
+    <cfRule type="cellIs" dxfId="43" priority="72" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H167:I169">
+    <cfRule type="cellIs" dxfId="42" priority="60" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114:J114">
+    <cfRule type="expression" dxfId="41" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K116">
-    <cfRule type="cellIs" dxfId="98" priority="124" operator="equal">
+  <conditionalFormatting sqref="H139:J142">
+    <cfRule type="cellIs" dxfId="40" priority="70" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K118">
-    <cfRule type="expression" dxfId="97" priority="123">
+  <conditionalFormatting sqref="H151:J151">
+    <cfRule type="expression" dxfId="39" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K118">
-    <cfRule type="cellIs" dxfId="96" priority="122" operator="equal">
+  <conditionalFormatting sqref="H176:J176">
+    <cfRule type="expression" dxfId="38" priority="53">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H116:K119">
+    <cfRule type="cellIs" dxfId="37" priority="120" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K119">
-    <cfRule type="expression" dxfId="95" priority="121">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K119">
-    <cfRule type="cellIs" dxfId="94" priority="120" operator="equal">
+  <conditionalFormatting sqref="H123:K123">
+    <cfRule type="cellIs" dxfId="36" priority="118" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K117">
-    <cfRule type="expression" dxfId="93" priority="119">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K117">
-    <cfRule type="cellIs" dxfId="92" priority="118" operator="equal">
+  <conditionalFormatting sqref="H128:K129">
+    <cfRule type="cellIs" dxfId="35" priority="114" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K123">
-    <cfRule type="expression" dxfId="91" priority="117">
+  <conditionalFormatting sqref="H134:K135">
+    <cfRule type="cellIs" dxfId="34" priority="110" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H144:K144">
+    <cfRule type="cellIs" dxfId="33" priority="100" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H162:K162">
+    <cfRule type="cellIs" dxfId="32" priority="98" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H166:K166">
+    <cfRule type="cellIs" dxfId="31" priority="96" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H175:K175">
+    <cfRule type="cellIs" dxfId="30" priority="92" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H177:K178">
+    <cfRule type="cellIs" dxfId="29" priority="50" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100:M115">
+    <cfRule type="cellIs" dxfId="28" priority="76" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H124:M127">
+    <cfRule type="cellIs" dxfId="27" priority="74" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H149:M155">
+    <cfRule type="cellIs" dxfId="26" priority="58" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H163:M165">
+    <cfRule type="cellIs" dxfId="25" priority="62" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H176:M176">
+    <cfRule type="cellIs" dxfId="24" priority="52" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116:K119">
+    <cfRule type="expression" dxfId="23" priority="121">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K123">
-    <cfRule type="cellIs" dxfId="90" priority="116" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K129">
-    <cfRule type="expression" dxfId="89" priority="115">
+    <cfRule type="expression" dxfId="22" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K129">
-    <cfRule type="cellIs" dxfId="88" priority="114" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K128">
-    <cfRule type="expression" dxfId="87" priority="113">
+  <conditionalFormatting sqref="K128:K129">
+    <cfRule type="expression" dxfId="21" priority="115">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K128">
-    <cfRule type="cellIs" dxfId="86" priority="112" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K134">
-    <cfRule type="expression" dxfId="85" priority="111">
+  <conditionalFormatting sqref="K134:K135">
+    <cfRule type="expression" dxfId="20" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K134">
-    <cfRule type="cellIs" dxfId="84" priority="110" operator="equal">
+  <conditionalFormatting sqref="K138:K142">
+    <cfRule type="cellIs" dxfId="19" priority="102" operator="equal">
       <formula>"*"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K135">
-    <cfRule type="expression" dxfId="83" priority="109">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K135">
-    <cfRule type="cellIs" dxfId="82" priority="108" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K138">
-    <cfRule type="expression" dxfId="81" priority="107">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K138">
-    <cfRule type="cellIs" dxfId="80" priority="106" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K140">
-    <cfRule type="expression" dxfId="79" priority="105">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K140">
-    <cfRule type="cellIs" dxfId="78" priority="104" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K141:K142">
-    <cfRule type="expression" dxfId="77" priority="103">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K141:K142">
-    <cfRule type="cellIs" dxfId="76" priority="102" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K139">
-    <cfRule type="expression" dxfId="75" priority="101">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K139">
-    <cfRule type="cellIs" dxfId="74" priority="100" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K144">
-    <cfRule type="expression" dxfId="73" priority="99">
+    <cfRule type="expression" dxfId="18" priority="103">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144">
-    <cfRule type="cellIs" dxfId="72" priority="98" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K162">
-    <cfRule type="expression" dxfId="71" priority="97">
+    <cfRule type="expression" dxfId="17" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K162">
-    <cfRule type="cellIs" dxfId="70" priority="96" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K166">
-    <cfRule type="expression" dxfId="69" priority="95">
+    <cfRule type="expression" dxfId="16" priority="99">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K166">
-    <cfRule type="cellIs" dxfId="68" priority="94" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K169">
-    <cfRule type="expression" dxfId="67" priority="93">
+    <cfRule type="expression" dxfId="15" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K169">
-    <cfRule type="cellIs" dxfId="66" priority="92" operator="equal">
+    <cfRule type="expression" dxfId="14" priority="95">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="94" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K175">
-    <cfRule type="expression" dxfId="65" priority="91">
+    <cfRule type="expression" dxfId="12" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K175">
-    <cfRule type="cellIs" dxfId="64" priority="90" operator="equal">
+  <conditionalFormatting sqref="K177:K178">
+    <cfRule type="expression" dxfId="11" priority="89">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K181:K183">
+    <cfRule type="cellIs" dxfId="10" priority="84" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K177">
-    <cfRule type="expression" dxfId="63" priority="89">
+  <conditionalFormatting sqref="K182:K183">
+    <cfRule type="expression" dxfId="9" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K177">
-    <cfRule type="cellIs" dxfId="62" priority="88" operator="equal">
+  <conditionalFormatting sqref="K26:M27">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K178">
-    <cfRule type="expression" dxfId="61" priority="87">
+  <conditionalFormatting sqref="N10:N13">
+    <cfRule type="cellIs" dxfId="6" priority="45" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:N19">
+    <cfRule type="expression" dxfId="5" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K178">
-    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
+  <conditionalFormatting sqref="N10:N1048576">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>"なし"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:N110">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K182">
-    <cfRule type="expression" dxfId="59" priority="85">
+  <conditionalFormatting sqref="N20:N110">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K182">
-    <cfRule type="cellIs" dxfId="58" priority="84" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K183">
-    <cfRule type="expression" dxfId="57" priority="83">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K183">
-    <cfRule type="cellIs" dxfId="56" priority="82" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="55" priority="81">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="54" priority="80" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J114">
-    <cfRule type="expression" dxfId="53" priority="79">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J114">
-    <cfRule type="cellIs" dxfId="52" priority="78" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I114">
-    <cfRule type="expression" dxfId="51" priority="77">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
-    <cfRule type="expression" dxfId="49" priority="75">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
-    <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
-    <cfRule type="expression" dxfId="47" priority="73">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
-    <cfRule type="cellIs" dxfId="46" priority="72" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H138">
-    <cfRule type="expression" dxfId="45" priority="71">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H138">
-    <cfRule type="cellIs" dxfId="44" priority="70" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H141:H142">
-    <cfRule type="expression" dxfId="43" priority="69">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H141:H142">
-    <cfRule type="cellIs" dxfId="42" priority="68" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J151">
-    <cfRule type="expression" dxfId="41" priority="67">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J151">
-    <cfRule type="cellIs" dxfId="40" priority="66" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I151">
-    <cfRule type="expression" dxfId="39" priority="65">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I151">
-    <cfRule type="cellIs" dxfId="38" priority="64" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H151">
-    <cfRule type="expression" dxfId="37" priority="63">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H151">
-    <cfRule type="cellIs" dxfId="36" priority="62" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H165">
-    <cfRule type="expression" dxfId="35" priority="61">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H165">
-    <cfRule type="cellIs" dxfId="34" priority="60" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H169">
-    <cfRule type="expression" dxfId="33" priority="59">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H169">
-    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H154:H155">
-    <cfRule type="expression" dxfId="31" priority="57">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H154:H155">
-    <cfRule type="cellIs" dxfId="30" priority="56" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H176">
-    <cfRule type="expression" dxfId="29" priority="55">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H176">
-    <cfRule type="cellIs" dxfId="28" priority="54" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I176">
-    <cfRule type="expression" dxfId="27" priority="53">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I176">
-    <cfRule type="cellIs" dxfId="26" priority="52" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J176">
-    <cfRule type="expression" dxfId="25" priority="51">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J176">
-    <cfRule type="cellIs" dxfId="24" priority="50" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H178">
-    <cfRule type="expression" dxfId="23" priority="49">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H178">
-    <cfRule type="cellIs" dxfId="22" priority="48" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:I10 E11:M11 K10:M10">
-    <cfRule type="expression" dxfId="21" priority="46">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="47">
-      <formula>"MOD(ROW(),2)=2"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N19 N21:N25 N27:N32 N34:N83">
-    <cfRule type="expression" dxfId="20" priority="44">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N13 N15:N19 N21:N25 N27:N32 N34:N83">
-    <cfRule type="cellIs" dxfId="19" priority="43" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N19 N21:N25 N27:N32 N34:N83 N111:N1048576 N85:N109">
-    <cfRule type="cellIs" dxfId="18" priority="45" operator="equal">
-      <formula>"なし"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
-    <cfRule type="expression" dxfId="17" priority="33">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
-    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
-    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
-      <formula>"なし"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
-    <cfRule type="expression" dxfId="14" priority="30">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
-      <formula>"なし"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
-    <cfRule type="expression" dxfId="11" priority="27">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
-    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
-      <formula>"なし"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N84">
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N84">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N84">
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
-      <formula>"なし"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N181">
-    <cfRule type="expression" dxfId="5" priority="10">
+  <conditionalFormatting sqref="N181:N183">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N182:N183">
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N182:N183">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N110">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N110">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N110">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>"なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -13343,7 +12776,8 @@
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;P /&amp;N</oddHeader>
+    <oddHeader xml:space="preserve">&amp;C&amp;P /&amp;N&amp;R&amp;"ＭＳ Ｐゴシック,太字"&amp;26&amp;U
+</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="99" max="16" man="1"/>

--- a/input/kosodate-map/hoikuen.xlsx
+++ b/input/kosodate-map/hoikuen.xlsx
@@ -1,143 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\leo\02\3D009_HOIKUNINTEI\専用\入園係\08_ホームページ\20　受入可能性表\令和05年度\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44841377-7ECF-4CA3-AEF7-E034C6800206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{99276253-7D9D-40A3-A532-ECA8DDAAE223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ACD0963-821E-43EF-83F9-69BC47322F13}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="-75" windowWidth="10080" windowHeight="7305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="入所可能性一覧" sheetId="2" r:id="rId1"/>
+    <sheet name="受け入れ可能性" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_12B36A8C_50F5_4F21_8666_34C687C556A6_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_33142044_5240_4BF0_A3D7_EF570D9157AF_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_46B80F67_2096_4D1F_AFCF_86685A94AC8B_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_5CC2D8DA_2D84_4D2B_80C0_2C4DCEB70BC9_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_654D91BE_CCAA_4FEB_A8C4_3285131FA2BE_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_67A902B2_6A55_4A37_B144_77573A69BDB7_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_6A21EF7B_C06F_4209_86F6_3D66D1BD5A87_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_7417924B_AA72_4612_AAF6_341C4C5FE351_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_7A5D42BF_89EE_459B_9A67_B0E633063C0E_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_8CA4BFE4_24DD_4BEE_8542_BFE007BE183C_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_93BDA7D4_11E8_4A33_9A6C_C487B4776F23_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_B75929B9_E01D_48C1_973C_B687703BBFB4_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_D7EC1601_E840_417B_AB06_97689E4D0FC3_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_DE0D4679_1B90_4FD3_906B_AACDD3F8EF7A_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
-    <definedName name="Z_E72CE9D3_6372_4837_94BA_B553162855E5_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_EC7E0635_B40B_463C_8411_80354908B4EA_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_EE9D43C2_E209_41E7_9E2C_D612658BE6E3_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_F02A94F8_B792_4B0E_8975_088F4728E3A0_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_F756C1F7_2BF5_4CD5_9B40_CEBA05DDA94D_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.Cols" localSheetId="0" hidden="1">入所可能性一覧!$B:$D,入所可能性一覧!$F:$F</definedName>
-    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.FilterData" localSheetId="0" hidden="1">入所可能性一覧!$A$9:$N$183</definedName>
-    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.PrintArea" localSheetId="0" hidden="1">入所可能性一覧!$A$1:$N$183</definedName>
-    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.PrintTitles" localSheetId="0" hidden="1">入所可能性一覧!$1:$9</definedName>
-    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.Rows" localSheetId="0" hidden="1">入所可能性一覧!$4:$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_12B36A8C_50F5_4F21_8666_34C687C556A6_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_16051E61_8B90_4FE1_A49E_6F2F23F4D568_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_29320641_556A_4A24_AEEF_62FC8F195D2F_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_2A9A9167_6530_49D4_8B88_67C4EABF4277_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_2D256DF8_D030_4C6D_AA71_2E6E9A9B0B14_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_33142044_5240_4BF0_A3D7_EF570D9157AF_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_46B80F67_2096_4D1F_AFCF_86685A94AC8B_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_4CF63494_B971_4B00_860A_18252F0D87D0_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_578C94CE_764C_4584_A664_D779FE84D202_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_59216830_A825_476B_8CBE_78563046C759_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_5CC2D8DA_2D84_4D2B_80C0_2C4DCEB70BC9_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_5CE4EDB0_26CC_4B55_9F9D_56040B98C515_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_5E2A2DC3_32FF_4D9B_8086_36DA1142FA21_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_6094355E_E44C_4C56_8328_2C3685B421C9_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_654D91BE_CCAA_4FEB_A8C4_3285131FA2BE_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_67A902B2_6A55_4A37_B144_77573A69BDB7_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_6A21EF7B_C06F_4209_86F6_3D66D1BD5A87_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_7417924B_AA72_4612_AAF6_341C4C5FE351_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_7A5D42BF_89EE_459B_9A67_B0E633063C0E_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_7DC6FD10_0031_4D17_8C68_1625D405ED99_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_871E4C58_8935_4230_8D70_F7A81F2FC724_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_88B325CD_F4D0_4724_80F6_A367CBCA060E_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_8CA4BFE4_24DD_4BEE_8542_BFE007BE183C_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_93BDA7D4_11E8_4A33_9A6C_C487B4776F23_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_A3BCB14A_7CCA_499C_A2A7_FBCF90A1B1EA_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_A5216128_3301_4DA2_BB9D_A2B0B18A6D37_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_AABE4325_6870_4234_A595_04955EBD583E_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_B66AB97A_A4F2_4A9F_9ADA_FE17014DA34D_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_B75929B9_E01D_48C1_973C_B687703BBFB4_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_CE0041BC_7C24_416A_AE2B_1867E02FB337_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_D7EC1601_E840_417B_AB06_97689E4D0FC3_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_DE0D4679_1B90_4FD3_906B_AACDD3F8EF7A_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_DE80D2D4_A772_4F02_A304_673180EEF4DB_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
+    <definedName name="Z_E72CE9D3_6372_4837_94BA_B553162855E5_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_EC7E0635_B40B_463C_8411_80354908B4EA_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_EE9D43C2_E209_41E7_9E2C_D612658BE6E3_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_F02A94F8_B792_4B0E_8975_088F4728E3A0_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_F756C1F7_2BF5_4CD5_9B40_CEBA05DDA94D_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.Cols" localSheetId="0" hidden="1">受け入れ可能性!$B:$D,受け入れ可能性!$F:$F</definedName>
+    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.FilterData" localSheetId="0" hidden="1">受け入れ可能性!$A$9:$N$183</definedName>
+    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.PrintArea" localSheetId="0" hidden="1">受け入れ可能性!$A$1:$N$183</definedName>
+    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.PrintTitles" localSheetId="0" hidden="1">受け入れ可能性!$1:$9</definedName>
+    <definedName name="Z_F82A2838_40D3_40B0_85E8_92E88B9163F2_.wvu.Rows" localSheetId="0" hidden="1">受け入れ可能性!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
@@ -184,14 +184,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="354">
   <si>
-    <t>令和5年11月</t>
+    <t>令和6年1月</t>
     <rPh sb="0" eb="2">
       <t>レイワ</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>ネン</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="5" eb="6">
       <t>ガツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -212,7 +212,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>令和5年11月利用調整</t>
+      <t>令和6年1月利用調整</t>
     </r>
     <r>
       <rPr>
@@ -231,7 +231,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>各施設とも、令和5年10月利用調整後の受入れ予定人数であり、今後の保育士配置、入園辞退、転園、退園、申込児童や在園児童の健康状況等を踏まえた受入れ態勢の変更により実際の受入れ児童数が異なることにご留意ください。
+      <t>各施設とも、令和5年12月利用調整後の受入れ予定人数であり、今後の保育士配置、入園辞退、転園、退園、申込児童や在園児童の健康状況等を踏まえた受入れ態勢の変更により実際の受入れ児童数が異なることにご留意ください。
  　特に、</t>
     </r>
     <r>
@@ -311,211 +311,211 @@
       </rPr>
       <t>とは … 転入予定のない市外居住の児童について、受入れ人数に制限を踏まえた受入れ可能性になります。なお、一覧で「〇※受入れ可能性あり」の表示でも、受入れできないことがあります。</t>
     </r>
-    <rPh sb="15" eb="16">
+    <rPh sb="14" eb="15">
       <t>ガツ</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="25" eb="27">
       <t>シセツ</t>
     </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウ</t>
+    </rPh>
     <rPh sb="29" eb="30">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>チョウセイゴ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
       <t>ウ</t>
     </rPh>
-    <rPh sb="30" eb="31">
+    <rPh sb="68" eb="69">
       <t>イ</t>
     </rPh>
-    <rPh sb="32" eb="34">
+    <rPh sb="70" eb="72">
       <t>ヨテイ</t>
     </rPh>
-    <rPh sb="35" eb="37">
+    <rPh sb="72" eb="74">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ニュウエン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>テンエン</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>モウシコ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
       <t>ジドウ</t>
     </rPh>
-    <rPh sb="39" eb="41">
+    <rPh sb="105" eb="107">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ウケイレ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>テイイン</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="215" eb="218">
+      <t>ホイクシ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="251" eb="253">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="280" eb="282">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="283" eb="284">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="286" eb="288">
+      <t>ウケイ</t>
+    </rPh>
+    <rPh sb="289" eb="291">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="300" eb="301">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="309" eb="311">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="341" eb="343">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="343" eb="345">
+      <t>ウケイ</t>
+    </rPh>
+    <rPh sb="345" eb="346">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="352" eb="354">
+      <t>テンニュウ</t>
+    </rPh>
+    <rPh sb="354" eb="356">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="359" eb="361">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="361" eb="363">
+      <t>キョジュウ</t>
+    </rPh>
+    <rPh sb="364" eb="366">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="371" eb="373">
+      <t>ウケイ</t>
+    </rPh>
+    <rPh sb="374" eb="376">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="377" eb="379">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="380" eb="381">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="384" eb="385">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="385" eb="386">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="387" eb="390">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="399" eb="401">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="405" eb="407">
+      <t>ウケイ</t>
+    </rPh>
+    <rPh sb="408" eb="411">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="415" eb="417">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="55" eb="57">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="64" eb="67">
-      <t>チョウセイゴ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ニュウエン</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ジタイ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>テンエン</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>モウシコ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ウケイレ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>タイセイ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>テイイン</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>コンゴ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="216" eb="219">
-      <t>ホイクシ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="222" eb="224">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="252" eb="254">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="254" eb="256">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="281" eb="283">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="284" eb="285">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="287" eb="289">
-      <t>ウケイ</t>
-    </rPh>
-    <rPh sb="290" eb="292">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="301" eb="302">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="310" eb="312">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="342" eb="344">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="344" eb="346">
-      <t>ウケイ</t>
-    </rPh>
-    <rPh sb="346" eb="347">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="353" eb="355">
-      <t>テンニュウ</t>
-    </rPh>
-    <rPh sb="355" eb="357">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="360" eb="362">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="362" eb="364">
-      <t>キョジュウ</t>
-    </rPh>
-    <rPh sb="365" eb="367">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="372" eb="374">
-      <t>ウケイ</t>
-    </rPh>
-    <rPh sb="375" eb="377">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="378" eb="380">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="381" eb="382">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="385" eb="386">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="386" eb="387">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="388" eb="391">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="400" eb="402">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="406" eb="408">
-      <t>ウケイ</t>
-    </rPh>
-    <rPh sb="409" eb="412">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="416" eb="418">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="421" eb="423">
+    <rPh sb="420" eb="422">
       <t>ウケイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -676,9 +676,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>〇</t>
-  </si>
-  <si>
     <t>中央</t>
   </si>
   <si>
@@ -710,6 +707,9 @@
       <t>カイジン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
   </si>
   <si>
     <t>海神第二</t>
@@ -1022,7 +1022,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ひなぎく</t>
+    <t>ひなぎく ※令和6年1月より0歳受け入れ開始</t>
+    <rPh sb="6" eb="8">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2854,14 +2875,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>（仮称）アートチャイルドケア船橋くれよん保育園</t>
-    <rPh sb="1" eb="3">
-      <t>カショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
+    <t>アートチャイルドケア船橋くれよん保育園</t>
+    <rPh sb="10" eb="12">
       <t>フナバシ</t>
     </rPh>
-    <rPh sb="20" eb="23">
+    <rPh sb="16" eb="19">
       <t>ホイクエン</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -3913,7 +3931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -5117,13 +5135,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5704,9 +5735,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5834,9 +5862,132 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="177" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
@@ -5855,122 +6006,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5978,7 +6018,21 @@
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="104">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -7039,23 +7093,23 @@
   </sheetPr>
   <dimension ref="A1:O214"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="6.875" customWidth="1"/>
-    <col min="8" max="13" width="8.625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="238" customWidth="1"/>
-    <col min="15" max="15" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="13" width="8.5703125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="237" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1">
@@ -7070,15 +7124,15 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="260">
-        <v>45189</v>
-      </c>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="259"/>
+      <c r="H1" s="300">
+        <v>45250</v>
+      </c>
+      <c r="I1" s="301"/>
+      <c r="J1" s="301"/>
+      <c r="K1" s="301"/>
+      <c r="L1" s="301"/>
+      <c r="M1" s="301"/>
+      <c r="N1" s="260"/>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
       <c r="A2" s="13"/>
@@ -7097,22 +7151,22 @@
       <c r="N2" s="207"/>
     </row>
     <row r="3" spans="1:15" ht="132.75" customHeight="1">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="262"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="302"/>
+      <c r="H3" s="302"/>
+      <c r="I3" s="302"/>
+      <c r="J3" s="302"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
       <c r="O3" s="72"/>
     </row>
     <row r="4" spans="1:15" ht="9" hidden="1" customHeight="1">
@@ -7132,19 +7186,19 @@
       <c r="N4" s="61"/>
     </row>
     <row r="5" spans="1:15" ht="4.5" hidden="1" customHeight="1">
-      <c r="A5" s="263"/>
-      <c r="B5" s="264"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="264"/>
-      <c r="L5" s="264"/>
-      <c r="M5" s="264"/>
+      <c r="A5" s="303"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
       <c r="N5" s="208"/>
     </row>
     <row r="6" spans="1:15" ht="7.5" hidden="1" customHeight="1">
@@ -7165,21 +7219,21 @@
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="265" t="s">
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="265"/>
-      <c r="K7" s="265"/>
-      <c r="L7" s="265"/>
-      <c r="M7" s="265"/>
-      <c r="N7" s="239"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="305"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="305"/>
+      <c r="N7" s="238"/>
     </row>
     <row r="8" spans="1:15" ht="2.25" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
@@ -7235,7 +7289,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="266" t="s">
+      <c r="A10" s="268" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="197" t="s">
@@ -7262,12 +7316,12 @@
       <c r="K10" s="134"/>
       <c r="L10" s="134"/>
       <c r="M10" s="135"/>
-      <c r="N10" s="218" t="s">
+      <c r="N10" s="217" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
-      <c r="A11" s="266"/>
+      <c r="A11" s="268"/>
       <c r="B11" s="198" t="s">
         <v>17</v>
       </c>
@@ -7288,20 +7342,20 @@
       <c r="I11" s="182"/>
       <c r="J11" s="193"/>
       <c r="K11" s="182">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="182">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M11" s="79">
         <v>6</v>
       </c>
-      <c r="N11" s="218" t="s">
-        <v>25</v>
+      <c r="N11" s="217" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1">
-      <c r="A12" s="266"/>
+      <c r="A12" s="268"/>
       <c r="B12" s="22" t="s">
         <v>17</v>
       </c>
@@ -7310,10 +7364,10 @@
         <v>19</v>
       </c>
       <c r="E12" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="81" t="s">
         <v>26</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>27</v>
       </c>
       <c r="G12" s="66">
         <v>209</v>
@@ -7324,26 +7378,26 @@
       <c r="K12" s="83"/>
       <c r="L12" s="83"/>
       <c r="M12" s="84"/>
-      <c r="N12" s="219" t="s">
+      <c r="N12" s="218" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
-      <c r="A13" s="266"/>
+      <c r="A13" s="268"/>
       <c r="B13" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="80" t="s">
+      <c r="F13" s="81" t="s">
         <v>29</v>
-      </c>
-      <c r="F13" s="81" t="s">
-        <v>30</v>
       </c>
       <c r="G13" s="66">
         <v>140</v>
@@ -7351,35 +7405,29 @@
       <c r="H13" s="82"/>
       <c r="I13" s="83"/>
       <c r="J13" s="83"/>
-      <c r="K13" s="83">
-        <v>5</v>
-      </c>
-      <c r="L13" s="83">
-        <v>5</v>
-      </c>
-      <c r="M13" s="84">
-        <v>10</v>
-      </c>
-      <c r="N13" s="220" t="s">
-        <v>25</v>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="219" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
-      <c r="A14" s="266"/>
+      <c r="A14" s="268"/>
       <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="81" t="s">
         <v>31</v>
-      </c>
-      <c r="F14" s="81" t="s">
-        <v>32</v>
       </c>
       <c r="G14" s="23">
         <v>244</v>
@@ -7388,23 +7436,23 @@
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
       <c r="K14" s="83">
-        <v>4</v>
-      </c>
-      <c r="L14" s="268">
+        <v>3</v>
+      </c>
+      <c r="L14" s="306">
         <v>12</v>
       </c>
-      <c r="M14" s="269"/>
-      <c r="N14" s="221" t="s">
-        <v>25</v>
+      <c r="M14" s="307"/>
+      <c r="N14" s="220" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
-      <c r="A15" s="266"/>
+      <c r="A15" s="268"/>
       <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>19</v>
@@ -7430,12 +7478,12 @@
       <c r="M15" s="84">
         <v>2</v>
       </c>
-      <c r="N15" s="220" t="s">
-        <v>25</v>
+      <c r="N15" s="219" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="266"/>
+      <c r="A16" s="268"/>
       <c r="B16" s="22" t="s">
         <v>35</v>
       </c>
@@ -7447,7 +7495,7 @@
         <v>36</v>
       </c>
       <c r="F16" s="81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="66">
         <v>110</v>
@@ -7455,21 +7503,15 @@
       <c r="H16" s="78"/>
       <c r="I16" s="182"/>
       <c r="J16" s="182"/>
-      <c r="K16" s="182">
-        <v>1</v>
-      </c>
-      <c r="L16" s="182">
-        <v>6</v>
-      </c>
-      <c r="M16" s="79">
-        <v>6</v>
-      </c>
-      <c r="N16" s="220" t="s">
-        <v>25</v>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="219" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
-      <c r="A17" s="266"/>
+      <c r="A17" s="268"/>
       <c r="B17" s="22" t="s">
         <v>35</v>
       </c>
@@ -7494,12 +7536,12 @@
       <c r="K17" s="136"/>
       <c r="L17" s="121"/>
       <c r="M17" s="122"/>
-      <c r="N17" s="220" t="s">
-        <v>25</v>
+      <c r="N17" s="219" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
-      <c r="A18" s="266"/>
+      <c r="A18" s="268"/>
       <c r="B18" s="22" t="s">
         <v>35</v>
       </c>
@@ -7526,12 +7568,12 @@
       <c r="M18" s="79">
         <v>2</v>
       </c>
-      <c r="N18" s="222" t="s">
-        <v>25</v>
+      <c r="N18" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
-      <c r="A19" s="266"/>
+      <c r="A19" s="268"/>
       <c r="B19" s="22" t="s">
         <v>35</v>
       </c>
@@ -7558,12 +7600,12 @@
         <v>1</v>
       </c>
       <c r="M19" s="79"/>
-      <c r="N19" s="222" t="s">
+      <c r="N19" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
-      <c r="A20" s="266"/>
+      <c r="A20" s="268"/>
       <c r="B20" s="22" t="s">
         <v>35</v>
       </c>
@@ -7590,12 +7632,12 @@
       <c r="M20" s="79">
         <v>1</v>
       </c>
-      <c r="N20" s="222" t="s">
-        <v>25</v>
+      <c r="N20" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
-      <c r="A21" s="266"/>
+      <c r="A21" s="268"/>
       <c r="B21" s="22" t="s">
         <v>35</v>
       </c>
@@ -7618,12 +7660,12 @@
       <c r="K21" s="120"/>
       <c r="L21" s="121"/>
       <c r="M21" s="122"/>
-      <c r="N21" s="222" t="s">
+      <c r="N21" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
-      <c r="A22" s="266"/>
+      <c r="A22" s="268"/>
       <c r="B22" s="22" t="s">
         <v>35</v>
       </c>
@@ -7646,12 +7688,12 @@
       <c r="K22" s="120"/>
       <c r="L22" s="124"/>
       <c r="M22" s="125"/>
-      <c r="N22" s="222" t="s">
+      <c r="N22" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
-      <c r="A23" s="266"/>
+      <c r="A23" s="268"/>
       <c r="B23" s="22" t="s">
         <v>35</v>
       </c>
@@ -7663,25 +7705,23 @@
         <v>48</v>
       </c>
       <c r="F23" s="87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="66">
         <v>12</v>
       </c>
       <c r="H23" s="78"/>
       <c r="I23" s="182"/>
-      <c r="J23" s="182">
-        <v>1</v>
-      </c>
+      <c r="J23" s="182"/>
       <c r="K23" s="120"/>
       <c r="L23" s="121"/>
       <c r="M23" s="122"/>
-      <c r="N23" s="222" t="s">
-        <v>25</v>
+      <c r="N23" s="221" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
-      <c r="A24" s="266"/>
+      <c r="A24" s="268"/>
       <c r="B24" s="22" t="s">
         <v>35</v>
       </c>
@@ -7693,23 +7733,23 @@
         <v>49</v>
       </c>
       <c r="F24" s="87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="66">
         <v>19</v>
       </c>
-      <c r="H24" s="253"/>
+      <c r="H24" s="252"/>
       <c r="I24" s="182"/>
-      <c r="J24" s="254"/>
+      <c r="J24" s="253"/>
       <c r="K24" s="123"/>
       <c r="L24" s="124"/>
       <c r="M24" s="125"/>
-      <c r="N24" s="222" t="s">
+      <c r="N24" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="267"/>
+      <c r="A25" s="269"/>
       <c r="B25" s="24" t="s">
         <v>35</v>
       </c>
@@ -7728,18 +7768,16 @@
       </c>
       <c r="H25" s="90"/>
       <c r="I25" s="91"/>
-      <c r="J25" s="91">
-        <v>1</v>
-      </c>
+      <c r="J25" s="91"/>
       <c r="K25" s="126"/>
       <c r="L25" s="127"/>
       <c r="M25" s="128"/>
-      <c r="N25" s="223" t="s">
-        <v>25</v>
+      <c r="N25" s="222" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
-      <c r="A26" s="272" t="s">
+      <c r="A26" s="273" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7759,21 +7797,23 @@
         <v>168</v>
       </c>
       <c r="H26" s="95"/>
-      <c r="I26" s="275"/>
-      <c r="J26" s="276"/>
-      <c r="K26" s="195">
-        <v>11</v>
-      </c>
-      <c r="L26" s="270">
-        <v>11</v>
-      </c>
-      <c r="M26" s="271"/>
-      <c r="N26" s="222" t="s">
-        <v>25</v>
+      <c r="I26" s="294">
+        <v>2</v>
+      </c>
+      <c r="J26" s="295"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="258">
+        <v>7</v>
+      </c>
+      <c r="M26" s="145">
+        <v>6</v>
+      </c>
+      <c r="N26" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1">
-      <c r="A27" s="273"/>
+      <c r="A27" s="283"/>
       <c r="B27" s="22" t="s">
         <v>17</v>
       </c>
@@ -7791,23 +7831,23 @@
         <v>143</v>
       </c>
       <c r="H27" s="78"/>
-      <c r="I27" s="277"/>
-      <c r="J27" s="278"/>
+      <c r="I27" s="296"/>
+      <c r="J27" s="297"/>
       <c r="K27" s="182">
         <v>5</v>
       </c>
       <c r="L27" s="182">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M27" s="79">
         <v>9</v>
       </c>
-      <c r="N27" s="222" t="s">
-        <v>25</v>
+      <c r="N27" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="274"/>
+      <c r="A28" s="284"/>
       <c r="B28" s="24" t="s">
         <v>35</v>
       </c>
@@ -7830,12 +7870,12 @@
       <c r="K28" s="91"/>
       <c r="L28" s="91"/>
       <c r="M28" s="92"/>
-      <c r="N28" s="223" t="s">
+      <c r="N28" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1">
-      <c r="A29" s="279" t="s">
+      <c r="A29" s="267" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="199" t="s">
@@ -7862,12 +7902,12 @@
       <c r="K29" s="195"/>
       <c r="L29" s="195"/>
       <c r="M29" s="98"/>
-      <c r="N29" s="224" t="s">
+      <c r="N29" s="223" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1">
-      <c r="A30" s="266"/>
+      <c r="A30" s="268"/>
       <c r="B30" s="22" t="s">
         <v>35</v>
       </c>
@@ -7890,12 +7930,12 @@
       <c r="K30" s="182"/>
       <c r="L30" s="182"/>
       <c r="M30" s="79"/>
-      <c r="N30" s="222" t="s">
+      <c r="N30" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
-      <c r="A31" s="266"/>
+      <c r="A31" s="268"/>
       <c r="B31" s="22" t="s">
         <v>35</v>
       </c>
@@ -7913,30 +7953,26 @@
         <v>140</v>
       </c>
       <c r="H31" s="78"/>
-      <c r="I31" s="182">
-        <v>1</v>
-      </c>
+      <c r="I31" s="182"/>
       <c r="J31" s="182"/>
       <c r="K31" s="182">
-        <v>4</v>
-      </c>
-      <c r="L31" s="182">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L31" s="182"/>
       <c r="M31" s="79">
         <v>2</v>
       </c>
-      <c r="N31" s="222" t="s">
-        <v>25</v>
+      <c r="N31" s="221" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1">
-      <c r="A32" s="266"/>
+      <c r="A32" s="268"/>
       <c r="B32" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>19</v>
@@ -7956,12 +7992,12 @@
       <c r="K32" s="182"/>
       <c r="L32" s="182"/>
       <c r="M32" s="79"/>
-      <c r="N32" s="222" t="s">
+      <c r="N32" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1">
-      <c r="A33" s="266"/>
+      <c r="A33" s="268"/>
       <c r="B33" s="22" t="s">
         <v>35</v>
       </c>
@@ -7988,12 +8024,12 @@
       <c r="M33" s="79">
         <v>4</v>
       </c>
-      <c r="N33" s="222" t="s">
-        <v>25</v>
+      <c r="N33" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1">
-      <c r="A34" s="266"/>
+      <c r="A34" s="268"/>
       <c r="B34" s="22" t="s">
         <v>35</v>
       </c>
@@ -8022,12 +8058,12 @@
       <c r="M34" s="79">
         <v>6</v>
       </c>
-      <c r="N34" s="222" t="s">
+      <c r="N34" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1">
-      <c r="A35" s="266"/>
+      <c r="A35" s="268"/>
       <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
@@ -8044,26 +8080,26 @@
       <c r="G35" s="23">
         <v>50</v>
       </c>
-      <c r="H35" s="78">
-        <v>1</v>
-      </c>
+      <c r="H35" s="78"/>
       <c r="I35" s="182"/>
       <c r="J35" s="182">
         <v>1</v>
       </c>
       <c r="K35" s="182">
-        <v>7</v>
-      </c>
-      <c r="L35" s="182"/>
+        <v>9</v>
+      </c>
+      <c r="L35" s="182">
+        <v>2</v>
+      </c>
       <c r="M35" s="79">
-        <v>2</v>
-      </c>
-      <c r="N35" s="222" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="N35" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1">
-      <c r="A36" s="266"/>
+      <c r="A36" s="268"/>
       <c r="B36" s="22" t="s">
         <v>35</v>
       </c>
@@ -8088,12 +8124,12 @@
       <c r="K36" s="182"/>
       <c r="L36" s="182"/>
       <c r="M36" s="79"/>
-      <c r="N36" s="222" t="s">
+      <c r="N36" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1">
-      <c r="A37" s="266"/>
+      <c r="A37" s="268"/>
       <c r="B37" s="200" t="s">
         <v>35</v>
       </c>
@@ -8116,12 +8152,12 @@
       <c r="K37" s="167"/>
       <c r="L37" s="168"/>
       <c r="M37" s="169"/>
-      <c r="N37" s="225" t="s">
+      <c r="N37" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="267"/>
+      <c r="A38" s="269"/>
       <c r="B38" s="24" t="s">
         <v>35</v>
       </c>
@@ -8129,27 +8165,29 @@
       <c r="D38" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="240" t="s">
+      <c r="E38" s="239" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="248" t="s">
+      <c r="F38" s="247" t="s">
         <v>60</v>
       </c>
       <c r="G38" s="68">
-        <v>15</v>
-      </c>
-      <c r="H38" s="171"/>
-      <c r="I38" s="255"/>
-      <c r="J38" s="255"/>
+        <v>17</v>
+      </c>
+      <c r="H38" s="298">
+        <v>1</v>
+      </c>
+      <c r="I38" s="299"/>
+      <c r="J38" s="254"/>
       <c r="K38" s="170"/>
       <c r="L38" s="130"/>
       <c r="M38" s="131"/>
-      <c r="N38" s="226" t="s">
-        <v>22</v>
+      <c r="N38" s="225" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1">
-      <c r="A39" s="279" t="s">
+      <c r="A39" s="267" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="199" t="s">
@@ -8174,7 +8212,7 @@
       <c r="I39" s="195"/>
       <c r="J39" s="214"/>
       <c r="K39" s="195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="195">
         <v>6</v>
@@ -8182,12 +8220,12 @@
       <c r="M39" s="98">
         <v>5</v>
       </c>
-      <c r="N39" s="218" t="s">
-        <v>25</v>
+      <c r="N39" s="217" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1">
-      <c r="A40" s="266"/>
+      <c r="A40" s="268"/>
       <c r="B40" s="22" t="s">
         <v>17</v>
       </c>
@@ -8212,12 +8250,12 @@
       <c r="M40" s="79">
         <v>3</v>
       </c>
-      <c r="N40" s="222" t="s">
-        <v>25</v>
+      <c r="N40" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1">
-      <c r="A41" s="266"/>
+      <c r="A41" s="268"/>
       <c r="B41" s="22" t="s">
         <v>35</v>
       </c>
@@ -8240,12 +8278,12 @@
       <c r="K41" s="182"/>
       <c r="L41" s="182"/>
       <c r="M41" s="79"/>
-      <c r="N41" s="222" t="s">
+      <c r="N41" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1">
-      <c r="A42" s="266"/>
+      <c r="A42" s="268"/>
       <c r="B42" s="22" t="s">
         <v>35</v>
       </c>
@@ -8266,14 +8304,16 @@
       <c r="I42" s="182"/>
       <c r="J42" s="182"/>
       <c r="K42" s="182"/>
-      <c r="L42" s="182"/>
+      <c r="L42" s="182">
+        <v>1</v>
+      </c>
       <c r="M42" s="79"/>
-      <c r="N42" s="222" t="s">
+      <c r="N42" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1">
-      <c r="A43" s="266"/>
+      <c r="A43" s="268"/>
       <c r="B43" s="22" t="s">
         <v>35</v>
       </c>
@@ -8290,9 +8330,7 @@
       <c r="G43" s="23">
         <v>74</v>
       </c>
-      <c r="H43" s="78">
-        <v>2</v>
-      </c>
+      <c r="H43" s="78"/>
       <c r="I43" s="182"/>
       <c r="J43" s="182"/>
       <c r="K43" s="182">
@@ -8302,14 +8340,14 @@
         <v>1</v>
       </c>
       <c r="M43" s="79">
-        <v>4</v>
-      </c>
-      <c r="N43" s="222" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="N43" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1">
-      <c r="A44" s="266"/>
+      <c r="A44" s="268"/>
       <c r="B44" s="22" t="s">
         <v>35</v>
       </c>
@@ -8332,7 +8370,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="182">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L44" s="182">
         <v>12</v>
@@ -8340,12 +8378,12 @@
       <c r="M44" s="79">
         <v>9</v>
       </c>
-      <c r="N44" s="225" t="s">
-        <v>25</v>
+      <c r="N44" s="224" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="267"/>
+      <c r="A45" s="269"/>
       <c r="B45" s="24" t="s">
         <v>35</v>
       </c>
@@ -8368,12 +8406,12 @@
       <c r="K45" s="91"/>
       <c r="L45" s="91"/>
       <c r="M45" s="92"/>
-      <c r="N45" s="226" t="s">
+      <c r="N45" s="225" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1">
-      <c r="A46" s="279" t="s">
+      <c r="A46" s="267" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="199" t="s">
@@ -8392,18 +8430,22 @@
       <c r="G46" s="67">
         <v>110</v>
       </c>
-      <c r="H46" s="95"/>
+      <c r="H46" s="95">
+        <v>1</v>
+      </c>
       <c r="I46" s="195"/>
       <c r="J46" s="195"/>
-      <c r="K46" s="195"/>
+      <c r="K46" s="195">
+        <v>1</v>
+      </c>
       <c r="L46" s="195"/>
       <c r="M46" s="98"/>
-      <c r="N46" s="218" t="s">
+      <c r="N46" s="217" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1">
-      <c r="A47" s="266"/>
+      <c r="A47" s="268"/>
       <c r="B47" s="22" t="s">
         <v>35</v>
       </c>
@@ -8428,12 +8470,12 @@
         <v>1</v>
       </c>
       <c r="M47" s="79"/>
-      <c r="N47" s="222" t="s">
+      <c r="N47" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1">
-      <c r="A48" s="266"/>
+      <c r="A48" s="268"/>
       <c r="B48" s="22" t="s">
         <v>35</v>
       </c>
@@ -8460,12 +8502,12 @@
         <v>1</v>
       </c>
       <c r="M48" s="79"/>
-      <c r="N48" s="222" t="s">
+      <c r="N48" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1">
-      <c r="A49" s="266"/>
+      <c r="A49" s="268"/>
       <c r="B49" s="22" t="s">
         <v>35</v>
       </c>
@@ -8488,12 +8530,12 @@
       <c r="K49" s="182"/>
       <c r="L49" s="182"/>
       <c r="M49" s="79"/>
-      <c r="N49" s="222" t="s">
+      <c r="N49" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1">
-      <c r="A50" s="266"/>
+      <c r="A50" s="268"/>
       <c r="B50" s="22" t="s">
         <v>35</v>
       </c>
@@ -8518,12 +8560,12 @@
       <c r="K50" s="182"/>
       <c r="L50" s="182"/>
       <c r="M50" s="79"/>
-      <c r="N50" s="222" t="s">
+      <c r="N50" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1">
-      <c r="A51" s="266"/>
+      <c r="A51" s="268"/>
       <c r="B51" s="22" t="s">
         <v>35</v>
       </c>
@@ -8546,12 +8588,12 @@
       <c r="K51" s="182"/>
       <c r="L51" s="182"/>
       <c r="M51" s="79"/>
-      <c r="N51" s="222" t="s">
+      <c r="N51" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1">
-      <c r="A52" s="266"/>
+      <c r="A52" s="268"/>
       <c r="B52" s="22" t="s">
         <v>35</v>
       </c>
@@ -8570,16 +8612,18 @@
       </c>
       <c r="H52" s="78"/>
       <c r="I52" s="182"/>
-      <c r="J52" s="182"/>
+      <c r="J52" s="182">
+        <v>1</v>
+      </c>
       <c r="K52" s="123"/>
       <c r="L52" s="124"/>
       <c r="M52" s="125"/>
-      <c r="N52" s="227" t="s">
-        <v>22</v>
+      <c r="N52" s="226" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1">
-      <c r="A53" s="266"/>
+      <c r="A53" s="268"/>
       <c r="B53" s="22" t="s">
         <v>35</v>
       </c>
@@ -8602,12 +8646,12 @@
       <c r="K53" s="120"/>
       <c r="L53" s="121"/>
       <c r="M53" s="122"/>
-      <c r="N53" s="225" t="s">
+      <c r="N53" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="267"/>
+      <c r="A54" s="269"/>
       <c r="B54" s="24" t="s">
         <v>35</v>
       </c>
@@ -8630,12 +8674,12 @@
       <c r="K54" s="129"/>
       <c r="L54" s="130"/>
       <c r="M54" s="131"/>
-      <c r="N54" s="226" t="s">
+      <c r="N54" s="225" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15" customHeight="1">
-      <c r="A55" s="272" t="s">
+      <c r="A55" s="273" t="s">
         <v>104</v>
       </c>
       <c r="B55" s="199" t="s">
@@ -8658,25 +8702,23 @@
       </c>
       <c r="H55" s="95"/>
       <c r="I55" s="195"/>
-      <c r="J55" s="195">
-        <v>1</v>
-      </c>
+      <c r="J55" s="195"/>
       <c r="K55" s="195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L55" s="195"/>
       <c r="M55" s="98"/>
-      <c r="N55" s="218" t="s">
-        <v>25</v>
+      <c r="N55" s="217" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15" customHeight="1">
-      <c r="A56" s="273"/>
+      <c r="A56" s="283"/>
       <c r="B56" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>19</v>
@@ -8693,19 +8735,15 @@
       <c r="H56" s="78"/>
       <c r="I56" s="182"/>
       <c r="J56" s="193"/>
-      <c r="K56" s="182">
-        <v>5</v>
-      </c>
+      <c r="K56" s="182"/>
       <c r="L56" s="182"/>
-      <c r="M56" s="79">
-        <v>5</v>
-      </c>
-      <c r="N56" s="222" t="s">
-        <v>25</v>
+      <c r="M56" s="79"/>
+      <c r="N56" s="221" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15" customHeight="1">
-      <c r="A57" s="273"/>
+      <c r="A57" s="283"/>
       <c r="B57" s="22" t="s">
         <v>35</v>
       </c>
@@ -8724,20 +8762,18 @@
       </c>
       <c r="H57" s="78"/>
       <c r="I57" s="182"/>
-      <c r="J57" s="182">
-        <v>1</v>
-      </c>
+      <c r="J57" s="182"/>
       <c r="K57" s="182"/>
       <c r="L57" s="182">
         <v>1</v>
       </c>
       <c r="M57" s="79"/>
-      <c r="N57" s="225" t="s">
+      <c r="N57" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15" customHeight="1">
-      <c r="A58" s="273"/>
+      <c r="A58" s="283"/>
       <c r="B58" s="22" t="s">
         <v>35</v>
       </c>
@@ -8760,12 +8796,12 @@
       <c r="K58" s="144"/>
       <c r="L58" s="144"/>
       <c r="M58" s="145"/>
-      <c r="N58" s="222" t="s">
+      <c r="N58" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15" customHeight="1">
-      <c r="A59" s="273"/>
+      <c r="A59" s="283"/>
       <c r="B59" s="22" t="s">
         <v>35</v>
       </c>
@@ -8787,15 +8823,13 @@
       <c r="J59" s="182"/>
       <c r="K59" s="182"/>
       <c r="L59" s="182"/>
-      <c r="M59" s="79">
-        <v>2</v>
-      </c>
-      <c r="N59" s="228" t="s">
-        <v>25</v>
+      <c r="M59" s="79"/>
+      <c r="N59" s="227" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A60" s="274"/>
+      <c r="A60" s="284"/>
       <c r="B60" s="24" t="s">
         <v>35</v>
       </c>
@@ -8818,12 +8852,12 @@
       <c r="K60" s="156"/>
       <c r="L60" s="156"/>
       <c r="M60" s="157"/>
-      <c r="N60" s="226" t="s">
+      <c r="N60" s="225" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" customHeight="1">
-      <c r="A61" s="280" t="s">
+      <c r="A61" s="285" t="s">
         <v>117</v>
       </c>
       <c r="B61" s="199" t="s">
@@ -8846,16 +8880,16 @@
       </c>
       <c r="H61" s="95"/>
       <c r="I61" s="182"/>
-      <c r="J61" s="242"/>
+      <c r="J61" s="241"/>
       <c r="K61" s="195"/>
       <c r="L61" s="195"/>
       <c r="M61" s="98"/>
-      <c r="N61" s="218" t="s">
+      <c r="N61" s="217" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15" customHeight="1">
-      <c r="A62" s="281"/>
+      <c r="A62" s="286"/>
       <c r="B62" s="22" t="s">
         <v>35</v>
       </c>
@@ -8872,25 +8906,23 @@
       <c r="G62" s="23">
         <v>170</v>
       </c>
-      <c r="H62" s="78">
-        <v>1</v>
-      </c>
+      <c r="H62" s="78"/>
       <c r="I62" s="182"/>
       <c r="J62" s="182"/>
       <c r="K62" s="182"/>
       <c r="L62" s="182"/>
       <c r="M62" s="79"/>
-      <c r="N62" s="222" t="s">
+      <c r="N62" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" customHeight="1">
-      <c r="A63" s="281"/>
+      <c r="A63" s="286"/>
       <c r="B63" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="31" t="s">
         <v>19</v>
@@ -8904,20 +8936,18 @@
       <c r="G63" s="23">
         <v>150</v>
       </c>
-      <c r="H63" s="78">
-        <v>1</v>
-      </c>
+      <c r="H63" s="78"/>
       <c r="I63" s="182"/>
       <c r="J63" s="182"/>
       <c r="K63" s="182"/>
       <c r="L63" s="182"/>
       <c r="M63" s="79"/>
-      <c r="N63" s="222" t="s">
+      <c r="N63" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15" customHeight="1">
-      <c r="A64" s="281"/>
+      <c r="A64" s="286"/>
       <c r="B64" s="22" t="s">
         <v>35</v>
       </c>
@@ -8937,22 +8967,20 @@
       <c r="H64" s="78"/>
       <c r="I64" s="182"/>
       <c r="J64" s="182"/>
-      <c r="K64" s="182">
-        <v>2</v>
-      </c>
+      <c r="K64" s="182"/>
       <c r="L64" s="182"/>
       <c r="M64" s="79"/>
-      <c r="N64" s="222" t="s">
-        <v>25</v>
+      <c r="N64" s="221" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15" customHeight="1">
-      <c r="A65" s="281"/>
+      <c r="A65" s="286"/>
       <c r="B65" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="31" t="s">
         <v>19</v>
@@ -8966,23 +8994,25 @@
       <c r="G65" s="23">
         <v>120</v>
       </c>
-      <c r="H65" s="78"/>
+      <c r="H65" s="78">
+        <v>1</v>
+      </c>
       <c r="I65" s="182"/>
       <c r="J65" s="182"/>
       <c r="K65" s="182"/>
       <c r="L65" s="182"/>
       <c r="M65" s="79"/>
-      <c r="N65" s="222" t="s">
+      <c r="N65" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A66" s="281"/>
+      <c r="A66" s="286"/>
       <c r="B66" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>19</v>
@@ -8996,13 +9026,11 @@
       <c r="G66" s="23">
         <v>90</v>
       </c>
-      <c r="H66" s="78">
-        <v>1</v>
-      </c>
+      <c r="H66" s="78"/>
       <c r="I66" s="182"/>
       <c r="J66" s="182"/>
       <c r="K66" s="182">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L66" s="182">
         <v>3</v>
@@ -9010,12 +9038,12 @@
       <c r="M66" s="79">
         <v>1</v>
       </c>
-      <c r="N66" s="223" t="s">
-        <v>25</v>
+      <c r="N66" s="222" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15" customHeight="1">
-      <c r="A67" s="280" t="s">
+      <c r="A67" s="285" t="s">
         <v>129</v>
       </c>
       <c r="B67" s="199" t="s">
@@ -9042,12 +9070,12 @@
       <c r="K67" s="195"/>
       <c r="L67" s="195"/>
       <c r="M67" s="98"/>
-      <c r="N67" s="224" t="s">
+      <c r="N67" s="223" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="15" customHeight="1">
-      <c r="A68" s="281"/>
+      <c r="A68" s="286"/>
       <c r="B68" s="22" t="s">
         <v>35</v>
       </c>
@@ -9070,12 +9098,12 @@
       <c r="K68" s="182"/>
       <c r="L68" s="182"/>
       <c r="M68" s="79"/>
-      <c r="N68" s="222" t="s">
+      <c r="N68" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15" customHeight="1">
-      <c r="A69" s="281"/>
+      <c r="A69" s="286"/>
       <c r="B69" s="22" t="s">
         <v>35</v>
       </c>
@@ -9097,15 +9125,13 @@
       <c r="J69" s="182"/>
       <c r="K69" s="182"/>
       <c r="L69" s="182"/>
-      <c r="M69" s="79">
-        <v>1</v>
-      </c>
-      <c r="N69" s="222" t="s">
-        <v>25</v>
+      <c r="M69" s="79"/>
+      <c r="N69" s="221" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15" customHeight="1">
-      <c r="A70" s="281"/>
+      <c r="A70" s="286"/>
       <c r="B70" s="22" t="s">
         <v>35</v>
       </c>
@@ -9128,17 +9154,17 @@
       <c r="K70" s="182"/>
       <c r="L70" s="182"/>
       <c r="M70" s="79"/>
-      <c r="N70" s="222" t="s">
+      <c r="N70" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15" customHeight="1">
-      <c r="A71" s="281"/>
+      <c r="A71" s="286"/>
       <c r="B71" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="31" t="s">
         <v>19</v>
@@ -9158,14 +9184,14 @@
       <c r="K71" s="182"/>
       <c r="L71" s="182"/>
       <c r="M71" s="79">
-        <v>4</v>
-      </c>
-      <c r="N71" s="222" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="N71" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15" customHeight="1">
-      <c r="A72" s="281"/>
+      <c r="A72" s="286"/>
       <c r="B72" s="22" t="s">
         <v>35</v>
       </c>
@@ -9190,12 +9216,12 @@
       <c r="M72" s="79">
         <v>6</v>
       </c>
-      <c r="N72" s="222" t="s">
+      <c r="N72" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15" customHeight="1">
-      <c r="A73" s="281"/>
+      <c r="A73" s="286"/>
       <c r="B73" s="22" t="s">
         <v>35</v>
       </c>
@@ -9220,12 +9246,12 @@
       <c r="K73" s="182"/>
       <c r="L73" s="182"/>
       <c r="M73" s="79"/>
-      <c r="N73" s="222" t="s">
+      <c r="N73" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15" customHeight="1">
-      <c r="A74" s="281"/>
+      <c r="A74" s="286"/>
       <c r="B74" s="22" t="s">
         <v>35</v>
       </c>
@@ -9248,18 +9274,20 @@
       <c r="I74" s="182"/>
       <c r="J74" s="182"/>
       <c r="K74" s="182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" s="182">
         <v>1</v>
       </c>
-      <c r="M74" s="79"/>
-      <c r="N74" s="222" t="s">
-        <v>22</v>
+      <c r="M74" s="79">
+        <v>1</v>
+      </c>
+      <c r="N74" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15" customHeight="1">
-      <c r="A75" s="281"/>
+      <c r="A75" s="286"/>
       <c r="B75" s="22" t="s">
         <v>35</v>
       </c>
@@ -9284,12 +9312,12 @@
         <v>1</v>
       </c>
       <c r="M75" s="79"/>
-      <c r="N75" s="222" t="s">
-        <v>25</v>
+      <c r="N75" s="221" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1">
-      <c r="A76" s="281"/>
+      <c r="A76" s="286"/>
       <c r="B76" s="22" t="s">
         <v>35</v>
       </c>
@@ -9311,15 +9339,13 @@
       <c r="J76" s="182"/>
       <c r="K76" s="182"/>
       <c r="L76" s="182"/>
-      <c r="M76" s="79">
-        <v>5</v>
-      </c>
-      <c r="N76" s="222" t="s">
+      <c r="M76" s="79"/>
+      <c r="N76" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1">
-      <c r="A77" s="281"/>
+      <c r="A77" s="286"/>
       <c r="B77" s="22" t="s">
         <v>35</v>
       </c>
@@ -9344,12 +9370,12 @@
       <c r="K77" s="148"/>
       <c r="L77" s="148"/>
       <c r="M77" s="149"/>
-      <c r="N77" s="218" t="s">
+      <c r="N77" s="217" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1">
-      <c r="A78" s="281"/>
+      <c r="A78" s="286"/>
       <c r="B78" s="22" t="s">
         <v>35</v>
       </c>
@@ -9366,20 +9392,18 @@
       <c r="G78" s="66">
         <v>19</v>
       </c>
-      <c r="H78" s="78">
-        <v>1</v>
-      </c>
+      <c r="H78" s="78"/>
       <c r="I78" s="182"/>
       <c r="J78" s="182"/>
       <c r="K78" s="120"/>
       <c r="L78" s="121"/>
       <c r="M78" s="122"/>
-      <c r="N78" s="222" t="s">
+      <c r="N78" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A79" s="282"/>
+      <c r="A79" s="287"/>
       <c r="B79" s="24" t="s">
         <v>35</v>
       </c>
@@ -9402,12 +9426,12 @@
       <c r="K79" s="186"/>
       <c r="L79" s="187"/>
       <c r="M79" s="188"/>
-      <c r="N79" s="223" t="s">
+      <c r="N79" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="15" customHeight="1">
-      <c r="A80" s="280" t="s">
+      <c r="A80" s="285" t="s">
         <v>155</v>
       </c>
       <c r="B80" s="199" t="s">
@@ -9432,16 +9456,16 @@
       <c r="I80" s="182"/>
       <c r="J80" s="182"/>
       <c r="K80" s="182"/>
-      <c r="L80" s="270">
-        <v>2</v>
-      </c>
-      <c r="M80" s="271"/>
-      <c r="N80" s="224" t="s">
-        <v>25</v>
+      <c r="L80" s="292">
+        <v>1</v>
+      </c>
+      <c r="M80" s="293"/>
+      <c r="N80" s="223" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1">
-      <c r="A81" s="283"/>
+      <c r="A81" s="277"/>
       <c r="B81" s="22" t="s">
         <v>35</v>
       </c>
@@ -9464,12 +9488,12 @@
       <c r="K81" s="182"/>
       <c r="L81" s="182"/>
       <c r="M81" s="79"/>
-      <c r="N81" s="222" t="s">
+      <c r="N81" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="15" customHeight="1">
-      <c r="A82" s="283"/>
+      <c r="A82" s="277"/>
       <c r="B82" s="22" t="s">
         <v>35</v>
       </c>
@@ -9492,12 +9516,12 @@
       <c r="K82" s="120"/>
       <c r="L82" s="121"/>
       <c r="M82" s="122"/>
-      <c r="N82" s="222" t="s">
+      <c r="N82" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" customHeight="1">
-      <c r="A83" s="283"/>
+      <c r="A83" s="277"/>
       <c r="B83" s="22" t="s">
         <v>35</v>
       </c>
@@ -9520,12 +9544,12 @@
       <c r="K83" s="182"/>
       <c r="L83" s="182"/>
       <c r="M83" s="79"/>
-      <c r="N83" s="222" t="s">
+      <c r="N83" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1">
-      <c r="A84" s="283"/>
+      <c r="A84" s="277"/>
       <c r="B84" s="22" t="s">
         <v>35</v>
       </c>
@@ -9548,12 +9572,12 @@
       <c r="K84" s="182"/>
       <c r="L84" s="182"/>
       <c r="M84" s="79"/>
-      <c r="N84" s="218" t="s">
+      <c r="N84" s="217" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="15" customHeight="1">
-      <c r="A85" s="283"/>
+      <c r="A85" s="277"/>
       <c r="B85" s="22" t="s">
         <v>35</v>
       </c>
@@ -9572,18 +9596,18 @@
       </c>
       <c r="H85" s="78"/>
       <c r="I85" s="182"/>
-      <c r="J85" s="182"/>
+      <c r="J85" s="182">
+        <v>1</v>
+      </c>
       <c r="K85" s="182"/>
       <c r="L85" s="182"/>
-      <c r="M85" s="79">
-        <v>1</v>
-      </c>
-      <c r="N85" s="222" t="s">
-        <v>25</v>
+      <c r="M85" s="79"/>
+      <c r="N85" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1">
-      <c r="A86" s="283"/>
+      <c r="A86" s="277"/>
       <c r="B86" s="22" t="s">
         <v>35</v>
       </c>
@@ -9606,12 +9630,12 @@
       <c r="K86" s="182"/>
       <c r="L86" s="182"/>
       <c r="M86" s="79"/>
-      <c r="N86" s="222" t="s">
+      <c r="N86" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1">
-      <c r="A87" s="283"/>
+      <c r="A87" s="277"/>
       <c r="B87" s="22" t="s">
         <v>35</v>
       </c>
@@ -9628,18 +9652,18 @@
       <c r="G87" s="66">
         <v>60</v>
       </c>
-      <c r="H87" s="258"/>
+      <c r="H87" s="257"/>
       <c r="I87" s="182"/>
       <c r="J87" s="182"/>
       <c r="K87" s="182"/>
       <c r="L87" s="182"/>
       <c r="M87" s="79"/>
-      <c r="N87" s="222" t="s">
+      <c r="N87" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="15" customHeight="1">
-      <c r="A88" s="283"/>
+      <c r="A88" s="277"/>
       <c r="B88" s="22" t="s">
         <v>35</v>
       </c>
@@ -9661,15 +9685,13 @@
       <c r="J88" s="182"/>
       <c r="K88" s="182"/>
       <c r="L88" s="182"/>
-      <c r="M88" s="79">
-        <v>1</v>
-      </c>
-      <c r="N88" s="222" t="s">
-        <v>25</v>
+      <c r="M88" s="79"/>
+      <c r="N88" s="221" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="15" customHeight="1">
-      <c r="A89" s="283"/>
+      <c r="A89" s="277"/>
       <c r="B89" s="22" t="s">
         <v>35</v>
       </c>
@@ -9692,12 +9714,12 @@
       <c r="K89" s="182"/>
       <c r="L89" s="182"/>
       <c r="M89" s="79"/>
-      <c r="N89" s="222" t="s">
+      <c r="N89" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1">
-      <c r="A90" s="283"/>
+      <c r="A90" s="277"/>
       <c r="B90" s="201" t="s">
         <v>35</v>
       </c>
@@ -9720,12 +9742,12 @@
       <c r="K90" s="182"/>
       <c r="L90" s="182"/>
       <c r="M90" s="79"/>
-      <c r="N90" s="222" t="s">
+      <c r="N90" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A91" s="284"/>
+      <c r="A91" s="288"/>
       <c r="B91" s="24" t="s">
         <v>35</v>
       </c>
@@ -9748,12 +9770,12 @@
       <c r="K91" s="126"/>
       <c r="L91" s="127"/>
       <c r="M91" s="128"/>
-      <c r="N91" s="223" t="s">
+      <c r="N91" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="15" customHeight="1">
-      <c r="A92" s="285" t="s">
+      <c r="A92" s="289" t="s">
         <v>176</v>
       </c>
       <c r="B92" s="199" t="s">
@@ -9778,12 +9800,12 @@
       <c r="K92" s="195"/>
       <c r="L92" s="195"/>
       <c r="M92" s="98"/>
-      <c r="N92" s="224" t="s">
+      <c r="N92" s="223" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="15" customHeight="1">
-      <c r="A93" s="281"/>
+      <c r="A93" s="286"/>
       <c r="B93" s="22" t="s">
         <v>35</v>
       </c>
@@ -9800,18 +9822,20 @@
       <c r="G93" s="66">
         <v>130</v>
       </c>
-      <c r="H93" s="78"/>
+      <c r="H93" s="78">
+        <v>1</v>
+      </c>
       <c r="I93" s="182"/>
       <c r="J93" s="182"/>
       <c r="K93" s="182"/>
       <c r="L93" s="182"/>
       <c r="M93" s="79"/>
-      <c r="N93" s="222" t="s">
+      <c r="N93" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="15" customHeight="1">
-      <c r="A94" s="281"/>
+      <c r="A94" s="286"/>
       <c r="B94" s="22" t="s">
         <v>35</v>
       </c>
@@ -9834,12 +9858,12 @@
       <c r="K94" s="182"/>
       <c r="L94" s="182"/>
       <c r="M94" s="79"/>
-      <c r="N94" s="222" t="s">
+      <c r="N94" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="15" customHeight="1">
-      <c r="A95" s="281"/>
+      <c r="A95" s="286"/>
       <c r="B95" s="22" t="s">
         <v>35</v>
       </c>
@@ -9858,18 +9882,16 @@
       </c>
       <c r="H95" s="78"/>
       <c r="I95" s="182"/>
-      <c r="J95" s="182">
-        <v>1</v>
-      </c>
+      <c r="J95" s="182"/>
       <c r="K95" s="182"/>
       <c r="L95" s="182"/>
       <c r="M95" s="79"/>
-      <c r="N95" s="222" t="s">
-        <v>25</v>
+      <c r="N95" s="221" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1">
-      <c r="A96" s="281"/>
+      <c r="A96" s="286"/>
       <c r="B96" s="22" t="s">
         <v>35</v>
       </c>
@@ -9892,12 +9914,12 @@
       <c r="K96" s="182"/>
       <c r="L96" s="182"/>
       <c r="M96" s="79"/>
-      <c r="N96" s="222" t="s">
+      <c r="N96" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1">
-      <c r="A97" s="281"/>
+      <c r="A97" s="286"/>
       <c r="B97" s="22" t="s">
         <v>35</v>
       </c>
@@ -9920,12 +9942,12 @@
       <c r="K97" s="182"/>
       <c r="L97" s="182"/>
       <c r="M97" s="79"/>
-      <c r="N97" s="222" t="s">
+      <c r="N97" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1">
-      <c r="A98" s="281"/>
+      <c r="A98" s="286"/>
       <c r="B98" s="22" t="s">
         <v>35</v>
       </c>
@@ -9948,12 +9970,12 @@
       <c r="K98" s="182"/>
       <c r="L98" s="182"/>
       <c r="M98" s="79"/>
-      <c r="N98" s="222" t="s">
+      <c r="N98" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A99" s="282"/>
+      <c r="A99" s="287"/>
       <c r="B99" s="24" t="s">
         <v>35</v>
       </c>
@@ -9976,12 +9998,12 @@
       <c r="K99" s="186"/>
       <c r="L99" s="187"/>
       <c r="M99" s="188"/>
-      <c r="N99" s="223" t="s">
+      <c r="N99" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="15" customHeight="1">
-      <c r="A100" s="280" t="s">
+      <c r="A100" s="285" t="s">
         <v>190</v>
       </c>
       <c r="B100" s="199" t="s">
@@ -10003,17 +10025,19 @@
       <c r="H100" s="95"/>
       <c r="I100" s="195"/>
       <c r="J100" s="195"/>
-      <c r="K100" s="195"/>
+      <c r="K100" s="195">
+        <v>1</v>
+      </c>
       <c r="L100" s="195"/>
       <c r="M100" s="98">
         <v>3</v>
       </c>
-      <c r="N100" s="224" t="s">
+      <c r="N100" s="223" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1">
-      <c r="A101" s="281"/>
+      <c r="A101" s="286"/>
       <c r="B101" s="22" t="s">
         <v>35</v>
       </c>
@@ -10036,12 +10060,12 @@
       <c r="K101" s="182"/>
       <c r="L101" s="182"/>
       <c r="M101" s="79"/>
-      <c r="N101" s="222" t="s">
+      <c r="N101" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1">
-      <c r="A102" s="281"/>
+      <c r="A102" s="286"/>
       <c r="B102" s="22" t="s">
         <v>35</v>
       </c>
@@ -10064,12 +10088,12 @@
       <c r="K102" s="182"/>
       <c r="L102" s="182"/>
       <c r="M102" s="79"/>
-      <c r="N102" s="222" t="s">
+      <c r="N102" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="15" customHeight="1">
-      <c r="A103" s="281"/>
+      <c r="A103" s="286"/>
       <c r="B103" s="22" t="s">
         <v>35</v>
       </c>
@@ -10096,12 +10120,12 @@
       <c r="M103" s="79">
         <v>2</v>
       </c>
-      <c r="N103" s="222" t="s">
+      <c r="N103" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A104" s="282"/>
+      <c r="A104" s="287"/>
       <c r="B104" s="24" t="s">
         <v>35</v>
       </c>
@@ -10118,9 +10142,7 @@
       <c r="G104" s="25">
         <v>60</v>
       </c>
-      <c r="H104" s="90">
-        <v>1</v>
-      </c>
+      <c r="H104" s="90"/>
       <c r="I104" s="91"/>
       <c r="J104" s="91"/>
       <c r="K104" s="91"/>
@@ -10130,12 +10152,12 @@
       <c r="M104" s="92">
         <v>4</v>
       </c>
-      <c r="N104" s="223" t="s">
+      <c r="N104" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1">
-      <c r="A105" s="279" t="s">
+      <c r="A105" s="267" t="s">
         <v>199</v>
       </c>
       <c r="B105" s="199" t="s">
@@ -10159,19 +10181,21 @@
       <c r="H105" s="95"/>
       <c r="I105" s="195"/>
       <c r="J105" s="195"/>
-      <c r="K105" s="195"/>
+      <c r="K105" s="195">
+        <v>1</v>
+      </c>
       <c r="L105" s="195">
         <v>1</v>
       </c>
       <c r="M105" s="109">
-        <v>1</v>
-      </c>
-      <c r="N105" s="229" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="N105" s="228" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1">
-      <c r="A106" s="266"/>
+      <c r="A106" s="268"/>
       <c r="B106" s="22" t="s">
         <v>35</v>
       </c>
@@ -10190,16 +10214,20 @@
       </c>
       <c r="H106" s="78"/>
       <c r="I106" s="182"/>
-      <c r="J106" s="182"/>
-      <c r="K106" s="182"/>
+      <c r="J106" s="182">
+        <v>2</v>
+      </c>
+      <c r="K106" s="182">
+        <v>2</v>
+      </c>
       <c r="L106" s="182"/>
       <c r="M106" s="79"/>
-      <c r="N106" s="222" t="s">
-        <v>22</v>
+      <c r="N106" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1">
-      <c r="A107" s="266"/>
+      <c r="A107" s="268"/>
       <c r="B107" s="22" t="s">
         <v>35</v>
       </c>
@@ -10218,18 +10246,16 @@
       </c>
       <c r="H107" s="78"/>
       <c r="I107" s="182"/>
-      <c r="J107" s="182">
-        <v>1</v>
-      </c>
+      <c r="J107" s="182"/>
       <c r="K107" s="182"/>
       <c r="L107" s="182"/>
       <c r="M107" s="79"/>
-      <c r="N107" s="230" t="s">
-        <v>25</v>
+      <c r="N107" s="229" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="15" customHeight="1">
-      <c r="A108" s="266"/>
+      <c r="A108" s="268"/>
       <c r="B108" s="22" t="s">
         <v>35</v>
       </c>
@@ -10252,12 +10278,12 @@
       <c r="K108" s="182"/>
       <c r="L108" s="182"/>
       <c r="M108" s="79"/>
-      <c r="N108" s="222" t="s">
+      <c r="N108" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="15" customHeight="1">
-      <c r="A109" s="266"/>
+      <c r="A109" s="268"/>
       <c r="B109" s="22" t="s">
         <v>35</v>
       </c>
@@ -10280,17 +10306,17 @@
       <c r="K109" s="182"/>
       <c r="L109" s="182"/>
       <c r="M109" s="79"/>
-      <c r="N109" s="230" t="s">
+      <c r="N109" s="229" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1">
-      <c r="A110" s="266"/>
+      <c r="A110" s="268"/>
       <c r="B110" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C110" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="31" t="s">
         <v>19</v>
@@ -10310,12 +10336,12 @@
       <c r="K110" s="182"/>
       <c r="L110" s="182"/>
       <c r="M110" s="79"/>
-      <c r="N110" s="222" t="s">
+      <c r="N110" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="15" customHeight="1">
-      <c r="A111" s="266"/>
+      <c r="A111" s="268"/>
       <c r="B111" s="22" t="s">
         <v>35</v>
       </c>
@@ -10340,12 +10366,12 @@
       <c r="K111" s="182"/>
       <c r="L111" s="182"/>
       <c r="M111" s="79"/>
-      <c r="N111" s="222" t="s">
+      <c r="N111" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1">
-      <c r="A112" s="266"/>
+      <c r="A112" s="268"/>
       <c r="B112" s="22" t="s">
         <v>35</v>
       </c>
@@ -10367,21 +10393,19 @@
       <c r="H112" s="78"/>
       <c r="I112" s="182"/>
       <c r="J112" s="182"/>
-      <c r="K112" s="182">
-        <v>1</v>
-      </c>
+      <c r="K112" s="182"/>
       <c r="L112" s="182">
         <v>3</v>
       </c>
       <c r="M112" s="79">
         <v>2</v>
       </c>
-      <c r="N112" s="222" t="s">
-        <v>25</v>
+      <c r="N112" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1">
-      <c r="A113" s="266"/>
+      <c r="A113" s="268"/>
       <c r="B113" s="22" t="s">
         <v>35</v>
       </c>
@@ -10404,12 +10428,12 @@
       <c r="K113" s="182"/>
       <c r="L113" s="182"/>
       <c r="M113" s="79"/>
-      <c r="N113" s="222" t="s">
+      <c r="N113" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1">
-      <c r="A114" s="266"/>
+      <c r="A114" s="268"/>
       <c r="B114" s="22" t="s">
         <v>35</v>
       </c>
@@ -10432,12 +10456,12 @@
       <c r="K114" s="182"/>
       <c r="L114" s="182"/>
       <c r="M114" s="79"/>
-      <c r="N114" s="222" t="s">
+      <c r="N114" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="15" customHeight="1">
-      <c r="A115" s="266"/>
+      <c r="A115" s="268"/>
       <c r="B115" s="22" t="s">
         <v>35</v>
       </c>
@@ -10458,16 +10482,18 @@
       <c r="I115" s="182"/>
       <c r="J115" s="182"/>
       <c r="K115" s="182"/>
-      <c r="L115" s="182"/>
+      <c r="L115" s="182">
+        <v>2</v>
+      </c>
       <c r="M115" s="79">
         <v>1</v>
       </c>
-      <c r="N115" s="222" t="s">
-        <v>22</v>
+      <c r="N115" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="15" customHeight="1">
-      <c r="A116" s="266"/>
+      <c r="A116" s="268"/>
       <c r="B116" s="22" t="s">
         <v>35</v>
       </c>
@@ -10490,12 +10516,12 @@
       <c r="K116" s="120"/>
       <c r="L116" s="121"/>
       <c r="M116" s="122"/>
-      <c r="N116" s="241" t="s">
+      <c r="N116" s="240" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="15" customHeight="1">
-      <c r="A117" s="266"/>
+      <c r="A117" s="268"/>
       <c r="B117" s="22" t="s">
         <v>35</v>
       </c>
@@ -10518,12 +10544,12 @@
       <c r="K117" s="120"/>
       <c r="L117" s="189"/>
       <c r="M117" s="190"/>
-      <c r="N117" s="222" t="s">
+      <c r="N117" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="15" customHeight="1">
-      <c r="A118" s="266"/>
+      <c r="A118" s="268"/>
       <c r="B118" s="22" t="s">
         <v>35</v>
       </c>
@@ -10540,18 +10566,22 @@
       <c r="G118" s="66">
         <v>19</v>
       </c>
-      <c r="H118" s="78"/>
+      <c r="H118" s="78">
+        <v>1</v>
+      </c>
       <c r="I118" s="182"/>
-      <c r="J118" s="182"/>
+      <c r="J118" s="182">
+        <v>1</v>
+      </c>
       <c r="K118" s="120"/>
       <c r="L118" s="121"/>
       <c r="M118" s="122"/>
-      <c r="N118" s="222" t="s">
-        <v>22</v>
+      <c r="N118" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A119" s="267"/>
+      <c r="A119" s="269"/>
       <c r="B119" s="24" t="s">
         <v>35</v>
       </c>
@@ -10574,12 +10604,12 @@
       <c r="K119" s="126"/>
       <c r="L119" s="127"/>
       <c r="M119" s="128"/>
-      <c r="N119" s="222" t="s">
+      <c r="N119" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1">
-      <c r="A120" s="272" t="s">
+      <c r="A120" s="273" t="s">
         <v>228</v>
       </c>
       <c r="B120" s="199" t="s">
@@ -10606,17 +10636,17 @@
       <c r="K120" s="195"/>
       <c r="L120" s="195"/>
       <c r="M120" s="191"/>
-      <c r="N120" s="224" t="s">
+      <c r="N120" s="223" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="15" customHeight="1">
-      <c r="A121" s="273"/>
+      <c r="A121" s="283"/>
       <c r="B121" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C121" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="31" t="s">
         <v>19</v>
@@ -10633,15 +10663,17 @@
       <c r="H121" s="78"/>
       <c r="I121" s="182"/>
       <c r="J121" s="182"/>
-      <c r="K121" s="182"/>
+      <c r="K121" s="182">
+        <v>1</v>
+      </c>
       <c r="L121" s="182"/>
       <c r="M121" s="79"/>
-      <c r="N121" s="222" t="s">
+      <c r="N121" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="15" customHeight="1">
-      <c r="A122" s="273"/>
+      <c r="A122" s="283"/>
       <c r="B122" s="22" t="s">
         <v>35</v>
       </c>
@@ -10664,12 +10696,12 @@
       <c r="K122" s="182"/>
       <c r="L122" s="182"/>
       <c r="M122" s="79"/>
-      <c r="N122" s="222" t="s">
+      <c r="N122" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A123" s="286"/>
+      <c r="A123" s="275"/>
       <c r="B123" s="24" t="s">
         <v>35</v>
       </c>
@@ -10686,20 +10718,18 @@
       <c r="G123" s="25">
         <v>19</v>
       </c>
-      <c r="H123" s="90">
-        <v>2</v>
-      </c>
+      <c r="H123" s="90"/>
       <c r="I123" s="91"/>
       <c r="J123" s="91"/>
       <c r="K123" s="126"/>
       <c r="L123" s="127"/>
       <c r="M123" s="128"/>
-      <c r="N123" s="223" t="s">
-        <v>25</v>
+      <c r="N123" s="222" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="15" customHeight="1">
-      <c r="A124" s="272" t="s">
+      <c r="A124" s="273" t="s">
         <v>237</v>
       </c>
       <c r="B124" s="199" t="s">
@@ -10726,12 +10756,12 @@
       <c r="K124" s="195"/>
       <c r="L124" s="195"/>
       <c r="M124" s="98"/>
-      <c r="N124" s="224" t="s">
+      <c r="N124" s="223" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="15" customHeight="1">
-      <c r="A125" s="287"/>
+      <c r="A125" s="274"/>
       <c r="B125" s="22" t="s">
         <v>35</v>
       </c>
@@ -10754,17 +10784,17 @@
       <c r="K125" s="182"/>
       <c r="L125" s="182"/>
       <c r="M125" s="79"/>
-      <c r="N125" s="222" t="s">
+      <c r="N125" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="15" customHeight="1">
-      <c r="A126" s="287"/>
+      <c r="A126" s="274"/>
       <c r="B126" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C126" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="31" t="s">
         <v>19</v>
@@ -10781,20 +10811,22 @@
       <c r="H126" s="78"/>
       <c r="I126" s="182"/>
       <c r="J126" s="182"/>
-      <c r="K126" s="182"/>
+      <c r="K126" s="182">
+        <v>1</v>
+      </c>
       <c r="L126" s="182"/>
       <c r="M126" s="79"/>
-      <c r="N126" s="222" t="s">
-        <v>22</v>
+      <c r="N126" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="15" customHeight="1">
-      <c r="A127" s="287"/>
+      <c r="A127" s="274"/>
       <c r="B127" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="31" t="s">
         <v>42</v>
@@ -10814,12 +10846,12 @@
       <c r="K127" s="182"/>
       <c r="L127" s="182"/>
       <c r="M127" s="79"/>
-      <c r="N127" s="222" t="s">
+      <c r="N127" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="15" customHeight="1">
-      <c r="A128" s="288"/>
+      <c r="A128" s="290"/>
       <c r="B128" s="22" t="s">
         <v>35</v>
       </c>
@@ -10842,12 +10874,12 @@
       <c r="K128" s="120"/>
       <c r="L128" s="121"/>
       <c r="M128" s="122"/>
-      <c r="N128" s="227" t="s">
+      <c r="N128" s="226" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A129" s="289"/>
+      <c r="A129" s="291"/>
       <c r="B129" s="24" t="s">
         <v>35</v>
       </c>
@@ -10870,19 +10902,19 @@
       <c r="K129" s="126"/>
       <c r="L129" s="127"/>
       <c r="M129" s="128"/>
-      <c r="N129" s="225" t="s">
+      <c r="N129" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="15" customHeight="1">
-      <c r="A130" s="279" t="s">
+      <c r="A130" s="267" t="s">
         <v>249</v>
       </c>
       <c r="B130" s="199" t="s">
         <v>17</v>
       </c>
       <c r="C130" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="33" t="s">
         <v>19</v>
@@ -10902,17 +10934,17 @@
       <c r="K130" s="111"/>
       <c r="L130" s="111"/>
       <c r="M130" s="112"/>
-      <c r="N130" s="231" t="s">
+      <c r="N130" s="230" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="15" customHeight="1">
-      <c r="A131" s="266"/>
+      <c r="A131" s="268"/>
       <c r="B131" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C131" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="31" t="s">
         <v>19</v>
@@ -10929,17 +10961,15 @@
       <c r="H131" s="113"/>
       <c r="I131" s="114"/>
       <c r="J131" s="114"/>
-      <c r="K131" s="114">
-        <v>1</v>
-      </c>
+      <c r="K131" s="114"/>
       <c r="L131" s="114"/>
       <c r="M131" s="115"/>
-      <c r="N131" s="232" t="s">
-        <v>25</v>
+      <c r="N131" s="231" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="15" customHeight="1">
-      <c r="A132" s="266"/>
+      <c r="A132" s="268"/>
       <c r="B132" s="22" t="s">
         <v>35</v>
       </c>
@@ -10962,18 +10992,16 @@
       <c r="I132" s="182">
         <v>1</v>
       </c>
-      <c r="J132" s="182">
-        <v>1</v>
-      </c>
+      <c r="J132" s="182"/>
       <c r="K132" s="182"/>
       <c r="L132" s="182"/>
       <c r="M132" s="79"/>
-      <c r="N132" s="222" t="s">
+      <c r="N132" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="15" customHeight="1">
-      <c r="A133" s="266"/>
+      <c r="A133" s="268"/>
       <c r="B133" s="22" t="s">
         <v>35</v>
       </c>
@@ -10990,18 +11018,20 @@
       <c r="G133" s="66">
         <v>70</v>
       </c>
-      <c r="H133" s="78"/>
+      <c r="H133" s="78">
+        <v>1</v>
+      </c>
       <c r="I133" s="182"/>
       <c r="J133" s="182"/>
       <c r="K133" s="182"/>
       <c r="L133" s="182"/>
       <c r="M133" s="79"/>
-      <c r="N133" s="222" t="s">
+      <c r="N133" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="15" customHeight="1">
-      <c r="A134" s="266"/>
+      <c r="A134" s="268"/>
       <c r="B134" s="22" t="s">
         <v>35</v>
       </c>
@@ -11018,24 +11048,20 @@
       <c r="G134" s="66">
         <v>29</v>
       </c>
-      <c r="H134" s="78">
-        <v>0</v>
-      </c>
-      <c r="I134" s="182">
-        <v>1</v>
-      </c>
+      <c r="H134" s="78"/>
+      <c r="I134" s="182"/>
       <c r="J134" s="182">
         <v>1</v>
       </c>
       <c r="K134" s="120"/>
       <c r="L134" s="121"/>
       <c r="M134" s="122"/>
-      <c r="N134" s="222" t="s">
-        <v>25</v>
+      <c r="N134" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="15" customHeight="1">
-      <c r="A135" s="266"/>
+      <c r="A135" s="268"/>
       <c r="B135" s="22" t="s">
         <v>35</v>
       </c>
@@ -11058,12 +11084,12 @@
       <c r="K135" s="120"/>
       <c r="L135" s="121"/>
       <c r="M135" s="122"/>
-      <c r="N135" s="222" t="s">
+      <c r="N135" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="15" customHeight="1">
-      <c r="A136" s="266"/>
+      <c r="A136" s="268"/>
       <c r="B136" s="22" t="s">
         <v>35</v>
       </c>
@@ -11088,12 +11114,12 @@
       <c r="M136" s="79">
         <v>1</v>
       </c>
-      <c r="N136" s="222" t="s">
+      <c r="N136" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="15" customHeight="1">
-      <c r="A137" s="266"/>
+      <c r="A137" s="268"/>
       <c r="B137" s="22" t="s">
         <v>35</v>
       </c>
@@ -11120,12 +11146,12 @@
       <c r="M137" s="79">
         <v>1</v>
       </c>
-      <c r="N137" s="222" t="s">
-        <v>25</v>
+      <c r="N137" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="15" customHeight="1">
-      <c r="A138" s="266"/>
+      <c r="A138" s="268"/>
       <c r="B138" s="22" t="s">
         <v>35</v>
       </c>
@@ -11143,21 +11169,17 @@
         <v>19</v>
       </c>
       <c r="H138" s="139"/>
-      <c r="I138" s="182">
-        <v>1</v>
-      </c>
-      <c r="J138" s="182">
-        <v>1</v>
-      </c>
+      <c r="I138" s="182"/>
+      <c r="J138" s="182"/>
       <c r="K138" s="120"/>
       <c r="L138" s="121"/>
       <c r="M138" s="122"/>
-      <c r="N138" s="222" t="s">
-        <v>25</v>
+      <c r="N138" s="221" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="15" customHeight="1">
-      <c r="A139" s="266"/>
+      <c r="A139" s="268"/>
       <c r="B139" s="22" t="s">
         <v>35</v>
       </c>
@@ -11180,12 +11202,12 @@
       <c r="K139" s="120"/>
       <c r="L139" s="121"/>
       <c r="M139" s="122"/>
-      <c r="N139" s="222" t="s">
+      <c r="N139" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="15" customHeight="1">
-      <c r="A140" s="266"/>
+      <c r="A140" s="268"/>
       <c r="B140" s="22" t="s">
         <v>35</v>
       </c>
@@ -11203,17 +11225,19 @@
         <v>19</v>
       </c>
       <c r="H140" s="78"/>
-      <c r="I140" s="182"/>
+      <c r="I140" s="182">
+        <v>1</v>
+      </c>
       <c r="J140" s="182"/>
       <c r="K140" s="120"/>
       <c r="L140" s="121"/>
       <c r="M140" s="122"/>
-      <c r="N140" s="222" t="s">
-        <v>22</v>
+      <c r="N140" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="15" customHeight="1">
-      <c r="A141" s="266"/>
+      <c r="A141" s="268"/>
       <c r="B141" s="200" t="s">
         <v>35</v>
       </c>
@@ -11236,12 +11260,12 @@
       <c r="K141" s="167"/>
       <c r="L141" s="168"/>
       <c r="M141" s="169"/>
-      <c r="N141" s="225" t="s">
+      <c r="N141" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A142" s="267"/>
+      <c r="A142" s="269"/>
       <c r="B142" s="24" t="s">
         <v>35</v>
       </c>
@@ -11260,16 +11284,18 @@
       </c>
       <c r="H142" s="90"/>
       <c r="I142" s="91"/>
-      <c r="J142" s="91"/>
+      <c r="J142" s="91">
+        <v>1</v>
+      </c>
       <c r="K142" s="204"/>
       <c r="L142" s="205"/>
       <c r="M142" s="206"/>
-      <c r="N142" s="226" t="s">
+      <c r="N142" s="225" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="15" customHeight="1">
-      <c r="A143" s="279" t="s">
+      <c r="A143" s="267" t="s">
         <v>272</v>
       </c>
       <c r="B143" s="199" t="s">
@@ -11298,12 +11324,12 @@
       <c r="M143" s="98">
         <v>7</v>
       </c>
-      <c r="N143" s="218" t="s">
-        <v>25</v>
+      <c r="N143" s="217" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="15" customHeight="1">
-      <c r="A144" s="266"/>
+      <c r="A144" s="268"/>
       <c r="B144" s="22" t="s">
         <v>35</v>
       </c>
@@ -11322,16 +11348,18 @@
       </c>
       <c r="H144" s="78"/>
       <c r="I144" s="182"/>
-      <c r="J144" s="182"/>
+      <c r="J144" s="182">
+        <v>1</v>
+      </c>
       <c r="K144" s="120"/>
       <c r="L144" s="121"/>
       <c r="M144" s="122"/>
-      <c r="N144" s="222" t="s">
+      <c r="N144" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="15" customHeight="1">
-      <c r="A145" s="266"/>
+      <c r="A145" s="268"/>
       <c r="B145" s="22" t="s">
         <v>35</v>
       </c>
@@ -11355,15 +11383,13 @@
       <c r="L145" s="182">
         <v>1</v>
       </c>
-      <c r="M145" s="79">
-        <v>1</v>
-      </c>
-      <c r="N145" s="222" t="s">
-        <v>22</v>
+      <c r="M145" s="79"/>
+      <c r="N145" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="15" customHeight="1">
-      <c r="A146" s="266"/>
+      <c r="A146" s="268"/>
       <c r="B146" s="22" t="s">
         <v>35</v>
       </c>
@@ -11382,18 +11408,16 @@
       </c>
       <c r="H146" s="78"/>
       <c r="I146" s="182"/>
-      <c r="J146" s="182">
-        <v>1</v>
-      </c>
+      <c r="J146" s="182"/>
       <c r="K146" s="182"/>
       <c r="L146" s="182"/>
       <c r="M146" s="79"/>
-      <c r="N146" s="222" t="s">
-        <v>25</v>
+      <c r="N146" s="221" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="15" customHeight="1">
-      <c r="A147" s="266"/>
+      <c r="A147" s="268"/>
       <c r="B147" s="22" t="s">
         <v>35</v>
       </c>
@@ -11416,12 +11440,12 @@
       <c r="K147" s="182"/>
       <c r="L147" s="182"/>
       <c r="M147" s="79"/>
-      <c r="N147" s="222" t="s">
+      <c r="N147" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="15" customHeight="1">
-      <c r="A148" s="266"/>
+      <c r="A148" s="268"/>
       <c r="B148" s="22" t="s">
         <v>35</v>
       </c>
@@ -11442,14 +11466,14 @@
       <c r="I148" s="182"/>
       <c r="J148" s="182"/>
       <c r="K148" s="182"/>
-      <c r="L148" s="216"/>
-      <c r="M148" s="217"/>
-      <c r="N148" s="222" t="s">
+      <c r="L148" s="215"/>
+      <c r="M148" s="216"/>
+      <c r="N148" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="15" customHeight="1">
-      <c r="A149" s="266"/>
+      <c r="A149" s="268"/>
       <c r="B149" s="22" t="s">
         <v>35</v>
       </c>
@@ -11472,12 +11496,12 @@
       <c r="K149" s="182"/>
       <c r="L149" s="182"/>
       <c r="M149" s="79"/>
-      <c r="N149" s="222" t="s">
+      <c r="N149" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="15" customHeight="1">
-      <c r="A150" s="266"/>
+      <c r="A150" s="268"/>
       <c r="B150" s="22" t="s">
         <v>35</v>
       </c>
@@ -11508,12 +11532,12 @@
       <c r="M150" s="79">
         <v>1</v>
       </c>
-      <c r="N150" s="225" t="s">
-        <v>25</v>
+      <c r="N150" s="224" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A151" s="267"/>
+      <c r="A151" s="269"/>
       <c r="B151" s="24" t="s">
         <v>35</v>
       </c>
@@ -11536,12 +11560,12 @@
       <c r="K151" s="91"/>
       <c r="L151" s="91"/>
       <c r="M151" s="92"/>
-      <c r="N151" s="226" t="s">
+      <c r="N151" s="225" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="15" customHeight="1">
-      <c r="A152" s="296" t="s">
+      <c r="A152" s="270" t="s">
         <v>288</v>
       </c>
       <c r="B152" s="199" t="s">
@@ -11561,21 +11585,17 @@
         <v>60</v>
       </c>
       <c r="H152" s="95"/>
-      <c r="I152" s="195">
-        <v>1</v>
-      </c>
+      <c r="I152" s="195"/>
       <c r="J152" s="195"/>
       <c r="K152" s="195"/>
       <c r="L152" s="195"/>
-      <c r="M152" s="98">
-        <v>2</v>
-      </c>
-      <c r="N152" s="218" t="s">
+      <c r="M152" s="98"/>
+      <c r="N152" s="217" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="15" customHeight="1">
-      <c r="A153" s="297"/>
+      <c r="A153" s="271"/>
       <c r="B153" s="22" t="s">
         <v>35</v>
       </c>
@@ -11598,12 +11618,12 @@
       <c r="K153" s="182"/>
       <c r="L153" s="182"/>
       <c r="M153" s="79"/>
-      <c r="N153" s="222" t="s">
+      <c r="N153" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="15" customHeight="1">
-      <c r="A154" s="297"/>
+      <c r="A154" s="271"/>
       <c r="B154" s="22" t="s">
         <v>35</v>
       </c>
@@ -11628,42 +11648,42 @@
       <c r="M154" s="79">
         <v>1</v>
       </c>
-      <c r="N154" s="225" t="s">
+      <c r="N154" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="15" customHeight="1">
-      <c r="A155" s="297"/>
+      <c r="A155" s="271"/>
       <c r="B155" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="C155" s="247" t="s">
+      <c r="C155" s="246" t="s">
         <v>18</v>
       </c>
       <c r="D155" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="E155" s="243" t="s">
+      <c r="E155" s="242" t="s">
         <v>295</v>
       </c>
-      <c r="F155" s="249" t="s">
+      <c r="F155" s="248" t="s">
         <v>296</v>
       </c>
-      <c r="G155" s="245">
+      <c r="G155" s="244">
         <v>30</v>
       </c>
       <c r="H155" s="180"/>
       <c r="I155" s="181"/>
       <c r="J155" s="181"/>
-      <c r="K155" s="256"/>
-      <c r="L155" s="256"/>
-      <c r="M155" s="257"/>
-      <c r="N155" s="233" t="s">
+      <c r="K155" s="255"/>
+      <c r="L155" s="255"/>
+      <c r="M155" s="256"/>
+      <c r="N155" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="15" customHeight="1">
-      <c r="A156" s="297"/>
+      <c r="A156" s="271"/>
       <c r="B156" s="200" t="s">
         <v>35</v>
       </c>
@@ -11686,12 +11706,12 @@
       <c r="K156" s="167"/>
       <c r="L156" s="168"/>
       <c r="M156" s="169"/>
-      <c r="N156" s="233" t="s">
+      <c r="N156" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A157" s="298"/>
+      <c r="A157" s="272"/>
       <c r="B157" s="24" t="s">
         <v>35</v>
       </c>
@@ -11699,31 +11719,27 @@
       <c r="D157" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E157" s="244" t="s">
+      <c r="E157" s="243" t="s">
         <v>299</v>
       </c>
-      <c r="F157" s="250" t="s">
+      <c r="F157" s="249" t="s">
         <v>296</v>
       </c>
-      <c r="G157" s="246">
+      <c r="G157" s="245">
         <v>18</v>
       </c>
       <c r="H157" s="171"/>
-      <c r="I157" s="251">
-        <v>1</v>
-      </c>
-      <c r="J157" s="252">
-        <v>0</v>
-      </c>
+      <c r="I157" s="250"/>
+      <c r="J157" s="251"/>
       <c r="K157" s="126"/>
       <c r="L157" s="127"/>
       <c r="M157" s="128"/>
-      <c r="N157" s="226" t="s">
+      <c r="N157" s="225" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="15" customHeight="1">
-      <c r="A158" s="272" t="s">
+      <c r="A158" s="273" t="s">
         <v>300</v>
       </c>
       <c r="B158" s="199" t="s">
@@ -11745,22 +11761,24 @@
       <c r="H158" s="95"/>
       <c r="I158" s="195"/>
       <c r="J158" s="194"/>
-      <c r="K158" s="195"/>
+      <c r="K158" s="195">
+        <v>1</v>
+      </c>
       <c r="L158" s="195"/>
       <c r="M158" s="98">
         <v>1</v>
       </c>
-      <c r="N158" s="218" t="s">
-        <v>25</v>
+      <c r="N158" s="217" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="15" customHeight="1">
-      <c r="A159" s="287"/>
+      <c r="A159" s="274"/>
       <c r="B159" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" s="31" t="s">
         <v>19</v>
@@ -11778,18 +11796,18 @@
       <c r="I159" s="182"/>
       <c r="J159" s="193"/>
       <c r="K159" s="182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L159" s="182"/>
       <c r="M159" s="79">
         <v>1</v>
       </c>
-      <c r="N159" s="222" t="s">
-        <v>25</v>
+      <c r="N159" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="15" customHeight="1">
-      <c r="A160" s="287"/>
+      <c r="A160" s="274"/>
       <c r="B160" s="22" t="s">
         <v>35</v>
       </c>
@@ -11812,12 +11830,12 @@
       <c r="K160" s="182"/>
       <c r="L160" s="182"/>
       <c r="M160" s="79"/>
-      <c r="N160" s="222" t="s">
+      <c r="N160" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="15" customHeight="1">
-      <c r="A161" s="287"/>
+      <c r="A161" s="274"/>
       <c r="B161" s="22" t="s">
         <v>35</v>
       </c>
@@ -11840,12 +11858,12 @@
       <c r="K161" s="182"/>
       <c r="L161" s="182"/>
       <c r="M161" s="79"/>
-      <c r="N161" s="222" t="s">
+      <c r="N161" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="15" customHeight="1">
-      <c r="A162" s="287"/>
+      <c r="A162" s="274"/>
       <c r="B162" s="22" t="s">
         <v>35</v>
       </c>
@@ -11863,19 +11881,19 @@
         <v>30</v>
       </c>
       <c r="H162" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" s="182"/>
       <c r="J162" s="182"/>
       <c r="K162" s="120"/>
       <c r="L162" s="121"/>
       <c r="M162" s="122"/>
-      <c r="N162" s="222" t="s">
-        <v>22</v>
+      <c r="N162" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="15" customHeight="1">
-      <c r="A163" s="287"/>
+      <c r="A163" s="274"/>
       <c r="B163" s="22" t="s">
         <v>35</v>
       </c>
@@ -11894,21 +11912,23 @@
       </c>
       <c r="H163" s="78"/>
       <c r="I163" s="182"/>
-      <c r="J163" s="182"/>
+      <c r="J163" s="182">
+        <v>1</v>
+      </c>
       <c r="K163" s="182"/>
       <c r="L163" s="182"/>
       <c r="M163" s="79"/>
-      <c r="N163" s="225" t="s">
+      <c r="N163" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="15" customHeight="1">
-      <c r="A164" s="287"/>
+      <c r="A164" s="274"/>
       <c r="B164" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" s="31" t="s">
         <v>19</v>
@@ -11928,12 +11948,12 @@
       <c r="K164" s="182"/>
       <c r="L164" s="182"/>
       <c r="M164" s="79"/>
-      <c r="N164" s="233" t="s">
+      <c r="N164" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="15" customHeight="1">
-      <c r="A165" s="287"/>
+      <c r="A165" s="274"/>
       <c r="B165" s="22" t="s">
         <v>35</v>
       </c>
@@ -11956,16 +11976,14 @@
       <c r="I165" s="182"/>
       <c r="J165" s="182"/>
       <c r="K165" s="182"/>
-      <c r="L165" s="182">
-        <v>2</v>
-      </c>
+      <c r="L165" s="182"/>
       <c r="M165" s="79"/>
-      <c r="N165" s="222" t="s">
+      <c r="N165" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A166" s="286"/>
+      <c r="A166" s="275"/>
       <c r="B166" s="24" t="s">
         <v>35</v>
       </c>
@@ -11988,12 +12006,12 @@
       <c r="K166" s="126"/>
       <c r="L166" s="127"/>
       <c r="M166" s="128"/>
-      <c r="N166" s="223" t="s">
+      <c r="N166" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="15" customHeight="1">
-      <c r="A167" s="299" t="s">
+      <c r="A167" s="276" t="s">
         <v>318</v>
       </c>
       <c r="B167" s="199" t="s">
@@ -12018,17 +12036,17 @@
       <c r="K167" s="195"/>
       <c r="L167" s="195"/>
       <c r="M167" s="98"/>
-      <c r="N167" s="234" t="s">
+      <c r="N167" s="233" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="15" customHeight="1">
-      <c r="A168" s="283"/>
+      <c r="A168" s="277"/>
       <c r="B168" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C168" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" s="31" t="s">
         <v>19</v>
@@ -12048,12 +12066,12 @@
       <c r="K168" s="182"/>
       <c r="L168" s="182"/>
       <c r="M168" s="79"/>
-      <c r="N168" s="233" t="s">
+      <c r="N168" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A169" s="300"/>
+      <c r="A169" s="278"/>
       <c r="B169" s="24" t="s">
         <v>35</v>
       </c>
@@ -12071,17 +12089,19 @@
         <v>19</v>
       </c>
       <c r="H169" s="210"/>
-      <c r="I169" s="91"/>
-      <c r="J169" s="215"/>
+      <c r="I169" s="91">
+        <v>1</v>
+      </c>
+      <c r="J169" s="259"/>
       <c r="K169" s="211"/>
       <c r="L169" s="212"/>
       <c r="M169" s="213"/>
-      <c r="N169" s="226" t="s">
+      <c r="N169" s="225" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="15" customHeight="1">
-      <c r="A170" s="301" t="s">
+      <c r="A170" s="279" t="s">
         <v>324</v>
       </c>
       <c r="B170" s="199" t="s">
@@ -12106,12 +12126,12 @@
       <c r="K170" s="195"/>
       <c r="L170" s="195"/>
       <c r="M170" s="98"/>
-      <c r="N170" s="234" t="s">
+      <c r="N170" s="233" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="15" customHeight="1">
-      <c r="A171" s="302"/>
+      <c r="A171" s="280"/>
       <c r="B171" s="22" t="s">
         <v>35</v>
       </c>
@@ -12134,12 +12154,12 @@
       <c r="K171" s="182"/>
       <c r="L171" s="182"/>
       <c r="M171" s="79"/>
-      <c r="N171" s="233" t="s">
+      <c r="N171" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="15" customHeight="1">
-      <c r="A172" s="302"/>
+      <c r="A172" s="280"/>
       <c r="B172" s="22" t="s">
         <v>35</v>
       </c>
@@ -12160,18 +12180,16 @@
       </c>
       <c r="H172" s="78"/>
       <c r="I172" s="182"/>
-      <c r="J172" s="182">
-        <v>2</v>
-      </c>
+      <c r="J172" s="182"/>
       <c r="K172" s="182"/>
       <c r="L172" s="182"/>
       <c r="M172" s="79"/>
-      <c r="N172" s="233" t="s">
-        <v>25</v>
+      <c r="N172" s="232" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="15" customHeight="1">
-      <c r="A173" s="302"/>
+      <c r="A173" s="280"/>
       <c r="B173" s="22" t="s">
         <v>35</v>
       </c>
@@ -12193,15 +12211,13 @@
       <c r="J173" s="182"/>
       <c r="K173" s="182"/>
       <c r="L173" s="182"/>
-      <c r="M173" s="79">
-        <v>1</v>
-      </c>
-      <c r="N173" s="233" t="s">
-        <v>25</v>
+      <c r="M173" s="79"/>
+      <c r="N173" s="232" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="15" customHeight="1">
-      <c r="A174" s="302"/>
+      <c r="A174" s="280"/>
       <c r="B174" s="22" t="s">
         <v>35</v>
       </c>
@@ -12224,12 +12240,12 @@
       <c r="K174" s="182"/>
       <c r="L174" s="182"/>
       <c r="M174" s="79"/>
-      <c r="N174" s="233" t="s">
+      <c r="N174" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="15" customHeight="1">
-      <c r="A175" s="302"/>
+      <c r="A175" s="280"/>
       <c r="B175" s="22" t="s">
         <v>35</v>
       </c>
@@ -12252,12 +12268,12 @@
       <c r="K175" s="120"/>
       <c r="L175" s="121"/>
       <c r="M175" s="122"/>
-      <c r="N175" s="233" t="s">
+      <c r="N175" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="15" customHeight="1">
-      <c r="A176" s="302"/>
+      <c r="A176" s="280"/>
       <c r="B176" s="22" t="s">
         <v>35</v>
       </c>
@@ -12280,18 +12296,18 @@
       <c r="I176" s="120"/>
       <c r="J176" s="120"/>
       <c r="K176" s="182">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L176" s="182">
         <v>4</v>
       </c>
       <c r="M176" s="79"/>
-      <c r="N176" s="233" t="s">
+      <c r="N176" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="15" customHeight="1">
-      <c r="A177" s="302"/>
+      <c r="A177" s="280"/>
       <c r="B177" s="22" t="s">
         <v>35</v>
       </c>
@@ -12314,12 +12330,12 @@
       <c r="K177" s="120"/>
       <c r="L177" s="121"/>
       <c r="M177" s="122"/>
-      <c r="N177" s="233" t="s">
+      <c r="N177" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A178" s="303"/>
+      <c r="A178" s="281"/>
       <c r="B178" s="24" t="s">
         <v>35</v>
       </c>
@@ -12337,13 +12353,15 @@
         <v>19</v>
       </c>
       <c r="H178" s="138"/>
-      <c r="I178" s="91"/>
+      <c r="I178" s="91">
+        <v>3</v>
+      </c>
       <c r="J178" s="91"/>
       <c r="K178" s="126"/>
       <c r="L178" s="127"/>
       <c r="M178" s="128"/>
-      <c r="N178" s="235" t="s">
-        <v>22</v>
+      <c r="N178" s="234" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="15" customHeight="1" thickBot="1">
@@ -12367,25 +12385,15 @@
         <v>150</v>
       </c>
       <c r="H179" s="118">
-        <v>0</v>
-      </c>
-      <c r="I179" s="73">
-        <v>0</v>
-      </c>
-      <c r="J179" s="73">
         <v>1</v>
       </c>
-      <c r="K179" s="73">
-        <v>1</v>
-      </c>
-      <c r="L179" s="73">
-        <v>0</v>
-      </c>
-      <c r="M179" s="119">
-        <v>0</v>
-      </c>
-      <c r="N179" s="236" t="s">
-        <v>25</v>
+      <c r="I179" s="73"/>
+      <c r="J179" s="73"/>
+      <c r="K179" s="73"/>
+      <c r="L179" s="73"/>
+      <c r="M179" s="119"/>
+      <c r="N179" s="235" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="15" customHeight="1" thickBot="1">
@@ -12414,12 +12422,12 @@
       <c r="K180" s="73"/>
       <c r="L180" s="73"/>
       <c r="M180" s="119"/>
-      <c r="N180" s="236" t="s">
+      <c r="N180" s="235" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="15" customHeight="1">
-      <c r="A181" s="304" t="s">
+      <c r="A181" s="282" t="s">
         <v>346</v>
       </c>
       <c r="B181" s="199" t="s">
@@ -12438,18 +12446,18 @@
       <c r="G181" s="69">
         <v>3</v>
       </c>
-      <c r="H181" s="290"/>
-      <c r="I181" s="291"/>
-      <c r="J181" s="291"/>
+      <c r="H181" s="261"/>
+      <c r="I181" s="262"/>
+      <c r="J181" s="262"/>
       <c r="K181" s="178"/>
       <c r="L181" s="132"/>
       <c r="M181" s="179"/>
-      <c r="N181" s="234" t="s">
+      <c r="N181" s="233" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="15" customHeight="1">
-      <c r="A182" s="302"/>
+      <c r="A182" s="280"/>
       <c r="B182" s="22" t="s">
         <v>35</v>
       </c>
@@ -12466,20 +12474,20 @@
       <c r="G182" s="66">
         <v>5</v>
       </c>
-      <c r="H182" s="292">
+      <c r="H182" s="263">
         <v>1</v>
       </c>
-      <c r="I182" s="293"/>
-      <c r="J182" s="293"/>
+      <c r="I182" s="264"/>
+      <c r="J182" s="264"/>
       <c r="K182" s="120"/>
       <c r="L182" s="121"/>
       <c r="M182" s="122"/>
-      <c r="N182" s="233" t="s">
-        <v>25</v>
+      <c r="N182" s="232" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A183" s="303"/>
+      <c r="A183" s="281"/>
       <c r="B183" s="21" t="s">
         <v>35</v>
       </c>
@@ -12496,13 +12504,13 @@
       <c r="G183" s="25">
         <v>5</v>
       </c>
-      <c r="H183" s="294"/>
-      <c r="I183" s="295"/>
-      <c r="J183" s="295"/>
+      <c r="H183" s="265"/>
+      <c r="I183" s="266"/>
+      <c r="J183" s="266"/>
       <c r="K183" s="126"/>
       <c r="L183" s="187"/>
       <c r="M183" s="188"/>
-      <c r="N183" s="235" t="s">
+      <c r="N183" s="234" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12515,7 +12523,7 @@
       <c r="K184" s="71"/>
       <c r="L184" s="71"/>
       <c r="M184" s="71"/>
-      <c r="N184" s="237"/>
+      <c r="N184" s="236"/>
     </row>
     <row r="185" spans="1:14" ht="15.75">
       <c r="A185" s="26"/>
@@ -12526,7 +12534,7 @@
       <c r="K185" s="71"/>
       <c r="L185" s="71"/>
       <c r="M185" s="71"/>
-      <c r="N185" s="237"/>
+      <c r="N185" s="236"/>
     </row>
     <row r="186" spans="1:14" ht="15.75">
       <c r="A186" s="26"/>
@@ -12537,7 +12545,7 @@
       <c r="K186" s="71"/>
       <c r="L186" s="71"/>
       <c r="M186" s="71"/>
-      <c r="N186" s="237"/>
+      <c r="N186" s="236"/>
     </row>
     <row r="187" spans="1:14" ht="15.75">
       <c r="A187" s="26"/>
@@ -12548,7 +12556,7 @@
       <c r="K187" s="71"/>
       <c r="L187" s="71"/>
       <c r="M187" s="71"/>
-      <c r="N187" s="237"/>
+      <c r="N187" s="236"/>
     </row>
     <row r="188" spans="1:14" ht="15.75">
       <c r="A188" s="26"/>
@@ -12559,7 +12567,7 @@
       <c r="K188" s="71"/>
       <c r="L188" s="71"/>
       <c r="M188" s="71"/>
-      <c r="N188" s="237"/>
+      <c r="N188" s="236"/>
     </row>
     <row r="189" spans="1:14" ht="15.75">
       <c r="A189" s="26"/>
@@ -12570,7 +12578,7 @@
       <c r="K189" s="71"/>
       <c r="L189" s="71"/>
       <c r="M189" s="71"/>
-      <c r="N189" s="237"/>
+      <c r="N189" s="236"/>
     </row>
     <row r="190" spans="1:14" ht="15.75">
       <c r="A190" s="26"/>
@@ -12581,7 +12589,7 @@
       <c r="K190" s="71"/>
       <c r="L190" s="71"/>
       <c r="M190" s="71"/>
-      <c r="N190" s="237"/>
+      <c r="N190" s="236"/>
     </row>
     <row r="191" spans="1:14" ht="15.75">
       <c r="A191" s="26"/>
@@ -12592,7 +12600,7 @@
       <c r="K191" s="71"/>
       <c r="L191" s="71"/>
       <c r="M191" s="71"/>
-      <c r="N191" s="237"/>
+      <c r="N191" s="236"/>
     </row>
     <row r="192" spans="1:14" ht="15.75">
       <c r="A192" s="26"/>
@@ -12603,7 +12611,7 @@
       <c r="K192" s="71"/>
       <c r="L192" s="71"/>
       <c r="M192" s="71"/>
-      <c r="N192" s="237"/>
+      <c r="N192" s="236"/>
     </row>
     <row r="193" spans="1:14" ht="15.75">
       <c r="A193" s="26"/>
@@ -12614,7 +12622,7 @@
       <c r="K193" s="71"/>
       <c r="L193" s="71"/>
       <c r="M193" s="71"/>
-      <c r="N193" s="237"/>
+      <c r="N193" s="236"/>
     </row>
     <row r="194" spans="1:14" ht="15.75">
       <c r="A194" s="26"/>
@@ -12625,7 +12633,7 @@
       <c r="K194" s="71"/>
       <c r="L194" s="71"/>
       <c r="M194" s="71"/>
-      <c r="N194" s="237"/>
+      <c r="N194" s="236"/>
     </row>
     <row r="195" spans="1:14" ht="15.75">
       <c r="A195" s="26"/>
@@ -12636,7 +12644,7 @@
       <c r="K195" s="71"/>
       <c r="L195" s="71"/>
       <c r="M195" s="71"/>
-      <c r="N195" s="237"/>
+      <c r="N195" s="236"/>
     </row>
     <row r="196" spans="1:14" ht="15.75">
       <c r="A196" s="26"/>
@@ -12647,7 +12655,7 @@
       <c r="K196" s="71"/>
       <c r="L196" s="71"/>
       <c r="M196" s="71"/>
-      <c r="N196" s="237"/>
+      <c r="N196" s="236"/>
     </row>
     <row r="197" spans="1:14" ht="15.75">
       <c r="A197" s="26"/>
@@ -12658,7 +12666,7 @@
       <c r="K197" s="71"/>
       <c r="L197" s="71"/>
       <c r="M197" s="71"/>
-      <c r="N197" s="237"/>
+      <c r="N197" s="236"/>
     </row>
     <row r="198" spans="1:14" ht="15.75">
       <c r="A198" s="26"/>
@@ -12669,7 +12677,7 @@
       <c r="K198" s="71"/>
       <c r="L198" s="71"/>
       <c r="M198" s="71"/>
-      <c r="N198" s="237"/>
+      <c r="N198" s="236"/>
     </row>
     <row r="199" spans="1:14" ht="15.75">
       <c r="A199" s="26"/>
@@ -12680,7 +12688,7 @@
       <c r="K199" s="71"/>
       <c r="L199" s="71"/>
       <c r="M199" s="71"/>
-      <c r="N199" s="237"/>
+      <c r="N199" s="236"/>
     </row>
     <row r="200" spans="1:14" ht="15.75">
       <c r="A200" s="26"/>
@@ -12691,7 +12699,7 @@
       <c r="K200" s="71"/>
       <c r="L200" s="71"/>
       <c r="M200" s="71"/>
-      <c r="N200" s="237"/>
+      <c r="N200" s="236"/>
     </row>
     <row r="201" spans="1:14" ht="15.75">
       <c r="A201" s="26"/>
@@ -12702,7 +12710,7 @@
       <c r="K201" s="71"/>
       <c r="L201" s="71"/>
       <c r="M201" s="71"/>
-      <c r="N201" s="237"/>
+      <c r="N201" s="236"/>
     </row>
     <row r="202" spans="1:14" ht="15.75">
       <c r="A202" s="26"/>
@@ -12713,7 +12721,7 @@
       <c r="K202" s="71"/>
       <c r="L202" s="71"/>
       <c r="M202" s="71"/>
-      <c r="N202" s="237"/>
+      <c r="N202" s="236"/>
     </row>
     <row r="203" spans="1:14" ht="15.75">
       <c r="A203" s="26"/>
@@ -12724,7 +12732,7 @@
       <c r="K203" s="71"/>
       <c r="L203" s="71"/>
       <c r="M203" s="71"/>
-      <c r="N203" s="237"/>
+      <c r="N203" s="236"/>
     </row>
     <row r="204" spans="1:14" ht="15.75">
       <c r="A204" s="26"/>
@@ -12785,15 +12793,19 @@
   </sheetData>
   <autoFilter ref="A9:N183" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="H181:J181"/>
-    <mergeCell ref="H182:J182"/>
-    <mergeCell ref="H183:J183"/>
-    <mergeCell ref="A143:A151"/>
-    <mergeCell ref="A152:A157"/>
-    <mergeCell ref="A158:A166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="A170:A178"/>
-    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="A10:A25"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="A130:A142"/>
     <mergeCell ref="A46:A54"/>
     <mergeCell ref="A55:A60"/>
@@ -12805,532 +12817,538 @@
     <mergeCell ref="A105:A119"/>
     <mergeCell ref="A120:A123"/>
     <mergeCell ref="A124:A129"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="A10:A25"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H181:J181"/>
+    <mergeCell ref="H182:J182"/>
+    <mergeCell ref="H183:J183"/>
+    <mergeCell ref="A143:A151"/>
+    <mergeCell ref="A152:A157"/>
+    <mergeCell ref="A158:A166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A170:A178"/>
+    <mergeCell ref="A181:A183"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="E12:I12 E120:L120 E121:M168 K12:M12 E10:M11 K26:L26 E170:J183 E169:I169 K169:M182 E26:I27 K27:M27 E62:M79 K61:M61 E80:L80 E28:M37 E40:M60 N111:N180 E38:I39 K38:M39 E61:I61 N85:N109 E81:M119 B10:D183 E13:M25 J38">
+  <conditionalFormatting sqref="E12:I12 E120:L120 E121:M168 K12:M12 E10:M11 K26:L26 E170:J183 E169:I169 K169:M182 E26:I27 K27:M27 E62:M79 K61:M61 E80:L80 E28:M37 E40:M60 N111:N180 E39:I39 K38:M39 E61:I61 N85:N109 E81:M119 B10:D183 E13:M25 J38 E38:H38">
+    <cfRule type="expression" dxfId="103" priority="129">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:L14 K181 H26:I27 I138 H17:K17 H37:K37 H52:K54 H78:K79 H82:K82 H99:K99 H116:J119 H123:J123 H128:J129 H134:J135 H139:J140 H144:J144 H156:K157 H162:J162 H166:J166 H175:J175 H177:J177 H91:K91 I141:J142 I178:J178 H13:M13 K61:M61 H15:M16 H62:M66 H167:I168 H28:M28 H170:M174 K27:M27 H41:M51 H18:M20 H30:M36 K29:M29 H55:M55 H68:M77 H83:M90 H115:M115 K114:M114 H121:M122 H124:M126 H131:M133 H136:M137 H143:M143 H145:M147 H152:M153 K151:M151 H160:M161 H163:M164 H179:M180 K176:M176 I127:M127 I165:M165 I154:M155 H100:M113 H158:I159 K158:M159 H67:I67 K67:M67 I169 H181:H183 K167:M168 H10:I12 H57:M60 H56:I56 K56:M56 H130:I130 K130:M130 K39:M40 H120:I120 K120:L120 K26:L26 H149:M150 H148:K148 H81:M81 H80:L80 K10:M12 N111:N181 H39:I40 H61:I61 N85:N109 H92:M98 H21:K25 J38:K38 H38">
+    <cfRule type="cellIs" dxfId="102" priority="128" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116">
     <cfRule type="expression" dxfId="101" priority="127">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:L14 K181 H26:I27 I138 H17:K17 H37:K37 H52:K54 H78:K79 H82:K82 H99:K99 H116:J119 H123:J123 H128:J129 H134:J135 H139:J140 H144:J144 H156:K157 H162:J162 H166:J166 H175:J175 H177:J177 H91:K91 I141:J142 I178:J178 H13:M13 K61:M61 H15:M16 H62:M66 H167:I168 H28:M28 H170:M174 K27:M27 H41:M51 H18:M20 H30:M36 K29:M29 H55:M55 H68:M77 H83:M90 H115:M115 K114:M114 H121:M122 H124:M126 H131:M133 H136:M137 H143:M143 H145:M147 H152:M153 K151:M151 H160:M161 H163:M164 H179:M180 K176:M176 I127:M127 I165:M165 I154:M155 H100:M113 H158:I159 K158:M159 H67:I67 K67:M67 I169 H181:H183 K167:M168 H10:I12 H57:M60 H56:I56 K56:M56 H130:I130 K130:M130 K39:M40 H120:I120 K120:L120 K26:L26 H149:M150 H148:K148 H81:M81 H80:L80 K10:M12 N111:N181 H38:I40 H61:I61 N85:N109 H92:M98 H21:K25 J38:K38">
+  <conditionalFormatting sqref="K116">
     <cfRule type="cellIs" dxfId="100" priority="126" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K116">
+  <conditionalFormatting sqref="K118">
     <cfRule type="expression" dxfId="99" priority="125">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K116">
+  <conditionalFormatting sqref="K118">
     <cfRule type="cellIs" dxfId="98" priority="124" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K118">
+  <conditionalFormatting sqref="K119">
     <cfRule type="expression" dxfId="97" priority="123">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K118">
+  <conditionalFormatting sqref="K119">
     <cfRule type="cellIs" dxfId="96" priority="122" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K119">
+  <conditionalFormatting sqref="K117">
     <cfRule type="expression" dxfId="95" priority="121">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K119">
+  <conditionalFormatting sqref="K117">
     <cfRule type="cellIs" dxfId="94" priority="120" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K117">
+  <conditionalFormatting sqref="K123">
     <cfRule type="expression" dxfId="93" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K117">
+  <conditionalFormatting sqref="K123">
     <cfRule type="cellIs" dxfId="92" priority="118" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K123">
+  <conditionalFormatting sqref="K129">
     <cfRule type="expression" dxfId="91" priority="117">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K123">
+  <conditionalFormatting sqref="K129">
     <cfRule type="cellIs" dxfId="90" priority="116" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K129">
+  <conditionalFormatting sqref="K128">
     <cfRule type="expression" dxfId="89" priority="115">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K129">
+  <conditionalFormatting sqref="K128">
     <cfRule type="cellIs" dxfId="88" priority="114" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K128">
+  <conditionalFormatting sqref="K134">
     <cfRule type="expression" dxfId="87" priority="113">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K128">
+  <conditionalFormatting sqref="K134">
     <cfRule type="cellIs" dxfId="86" priority="112" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K134">
+  <conditionalFormatting sqref="K135">
     <cfRule type="expression" dxfId="85" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K134">
+  <conditionalFormatting sqref="K135">
     <cfRule type="cellIs" dxfId="84" priority="110" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K135">
+  <conditionalFormatting sqref="K138">
     <cfRule type="expression" dxfId="83" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K135">
+  <conditionalFormatting sqref="K138">
     <cfRule type="cellIs" dxfId="82" priority="108" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K138">
+  <conditionalFormatting sqref="K140">
     <cfRule type="expression" dxfId="81" priority="107">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K138">
+  <conditionalFormatting sqref="K140">
     <cfRule type="cellIs" dxfId="80" priority="106" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K140">
+  <conditionalFormatting sqref="K141:K142">
     <cfRule type="expression" dxfId="79" priority="105">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K140">
+  <conditionalFormatting sqref="K141:K142">
     <cfRule type="cellIs" dxfId="78" priority="104" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K141:K142">
+  <conditionalFormatting sqref="K139">
     <cfRule type="expression" dxfId="77" priority="103">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K141:K142">
+  <conditionalFormatting sqref="K139">
     <cfRule type="cellIs" dxfId="76" priority="102" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K139">
+  <conditionalFormatting sqref="K144">
     <cfRule type="expression" dxfId="75" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K139">
+  <conditionalFormatting sqref="K144">
     <cfRule type="cellIs" dxfId="74" priority="100" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K144">
+  <conditionalFormatting sqref="K162">
     <cfRule type="expression" dxfId="73" priority="99">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K144">
+  <conditionalFormatting sqref="K162">
     <cfRule type="cellIs" dxfId="72" priority="98" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K162">
+  <conditionalFormatting sqref="K166">
     <cfRule type="expression" dxfId="71" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K162">
+  <conditionalFormatting sqref="K166">
     <cfRule type="cellIs" dxfId="70" priority="96" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K166">
+  <conditionalFormatting sqref="K169">
     <cfRule type="expression" dxfId="69" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K166">
+  <conditionalFormatting sqref="K169">
     <cfRule type="cellIs" dxfId="68" priority="94" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K169">
+  <conditionalFormatting sqref="K175">
     <cfRule type="expression" dxfId="67" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K169">
+  <conditionalFormatting sqref="K175">
     <cfRule type="cellIs" dxfId="66" priority="92" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K175">
+  <conditionalFormatting sqref="K177">
     <cfRule type="expression" dxfId="65" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K175">
+  <conditionalFormatting sqref="K177">
     <cfRule type="cellIs" dxfId="64" priority="90" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K177">
+  <conditionalFormatting sqref="K178">
     <cfRule type="expression" dxfId="63" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K177">
+  <conditionalFormatting sqref="K178">
     <cfRule type="cellIs" dxfId="62" priority="88" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K178">
+  <conditionalFormatting sqref="K182">
     <cfRule type="expression" dxfId="61" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K178">
+  <conditionalFormatting sqref="K182">
     <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K182">
+  <conditionalFormatting sqref="K183">
     <cfRule type="expression" dxfId="59" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K182">
+  <conditionalFormatting sqref="K183">
     <cfRule type="cellIs" dxfId="58" priority="84" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K183">
+  <conditionalFormatting sqref="H29">
     <cfRule type="expression" dxfId="57" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K183">
+  <conditionalFormatting sqref="H29">
     <cfRule type="cellIs" dxfId="56" priority="82" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="J114">
     <cfRule type="expression" dxfId="55" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="J114">
     <cfRule type="cellIs" dxfId="54" priority="80" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J114">
+  <conditionalFormatting sqref="I114">
     <cfRule type="expression" dxfId="53" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J114">
+  <conditionalFormatting sqref="I114">
     <cfRule type="cellIs" dxfId="52" priority="78" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114">
+  <conditionalFormatting sqref="H114">
     <cfRule type="expression" dxfId="51" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114">
+  <conditionalFormatting sqref="H114">
     <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
+  <conditionalFormatting sqref="H127">
     <cfRule type="expression" dxfId="49" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
+  <conditionalFormatting sqref="H127">
     <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
+  <conditionalFormatting sqref="H138">
     <cfRule type="expression" dxfId="47" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
+  <conditionalFormatting sqref="H138">
     <cfRule type="cellIs" dxfId="46" priority="72" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H138">
+  <conditionalFormatting sqref="H141:H142">
     <cfRule type="expression" dxfId="45" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H138">
+  <conditionalFormatting sqref="H141:H142">
     <cfRule type="cellIs" dxfId="44" priority="70" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H141:H142">
+  <conditionalFormatting sqref="J151">
     <cfRule type="expression" dxfId="43" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H141:H142">
+  <conditionalFormatting sqref="J151">
     <cfRule type="cellIs" dxfId="42" priority="68" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J151">
+  <conditionalFormatting sqref="I151">
     <cfRule type="expression" dxfId="41" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J151">
+  <conditionalFormatting sqref="I151">
     <cfRule type="cellIs" dxfId="40" priority="66" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I151">
+  <conditionalFormatting sqref="H151">
     <cfRule type="expression" dxfId="39" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I151">
+  <conditionalFormatting sqref="H151">
     <cfRule type="cellIs" dxfId="38" priority="64" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H151">
+  <conditionalFormatting sqref="H165">
     <cfRule type="expression" dxfId="37" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H151">
+  <conditionalFormatting sqref="H165">
     <cfRule type="cellIs" dxfId="36" priority="62" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H165">
+  <conditionalFormatting sqref="H169">
     <cfRule type="expression" dxfId="35" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H165">
+  <conditionalFormatting sqref="H169">
     <cfRule type="cellIs" dxfId="34" priority="60" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H169">
+  <conditionalFormatting sqref="H154:H155">
     <cfRule type="expression" dxfId="33" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H169">
+  <conditionalFormatting sqref="H154:H155">
     <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H154:H155">
+  <conditionalFormatting sqref="H176">
     <cfRule type="expression" dxfId="31" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H154:H155">
+  <conditionalFormatting sqref="H176">
     <cfRule type="cellIs" dxfId="30" priority="56" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H176">
+  <conditionalFormatting sqref="I176">
     <cfRule type="expression" dxfId="29" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H176">
+  <conditionalFormatting sqref="I176">
     <cfRule type="cellIs" dxfId="28" priority="54" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I176">
+  <conditionalFormatting sqref="J176">
     <cfRule type="expression" dxfId="27" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I176">
+  <conditionalFormatting sqref="J176">
     <cfRule type="cellIs" dxfId="26" priority="52" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J176">
+  <conditionalFormatting sqref="H178">
     <cfRule type="expression" dxfId="25" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J176">
+  <conditionalFormatting sqref="H178">
     <cfRule type="cellIs" dxfId="24" priority="50" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H178">
-    <cfRule type="expression" dxfId="23" priority="49">
+  <conditionalFormatting sqref="E10:I10 E11:M11 K10:M10">
+    <cfRule type="expression" dxfId="23" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H178">
-    <cfRule type="cellIs" dxfId="22" priority="48" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:I10 E11:M11 K10:M10">
-    <cfRule type="expression" dxfId="21" priority="46">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="47">
+    <cfRule type="expression" priority="49">
       <formula>"MOD(ROW(),2)=2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N19 N21:N25 N27:N32 N34:N83">
-    <cfRule type="expression" dxfId="20" priority="44">
+    <cfRule type="expression" dxfId="22" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N13 N15:N19 N21:N25 N27:N32 N34:N83">
-    <cfRule type="cellIs" dxfId="19" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="45" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N19 N21:N25 N27:N32 N34:N83 N111:N1048576 N85:N109">
-    <cfRule type="cellIs" dxfId="18" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="47" operator="equal">
       <formula>"なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="expression" dxfId="17" priority="33">
+    <cfRule type="expression" dxfId="19" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="34" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="36" operator="equal">
       <formula>"なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="expression" dxfId="14" priority="30">
+    <cfRule type="expression" dxfId="16" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="33" operator="equal">
       <formula>"なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="expression" dxfId="11" priority="27">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="30" operator="equal">
       <formula>"なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N84">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N84">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N84">
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>"なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N181">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N182:N183">
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N182:N183">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N110">
     <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N182:N183">
+  <conditionalFormatting sqref="N110">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N110">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"なし"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N110">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N110">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>"なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/input/kosodate-map/hoikuen.xlsx
+++ b/input/kosodate-map/hoikuen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\leo\02\3D009_HOIKUNINTEI\専用\入園係\08_ホームページ\20　受入可能性表\令和05年度\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E6B5990A-E2BA-4E31-9371-15C6F76C4F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDE8583-A4C7-418E-9586-02053F3A4313}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{99276253-7D9D-40A3-A532-ECA8DDAAE223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ACD0963-821E-43EF-83F9-69BC47322F13}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="-75" windowWidth="10080" windowHeight="7305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,26 +141,26 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="大島　直人 - 個人用ビュー" guid="{16051E61-8B90-4FE1-A49E-6F2F23F4D568}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="藤野　恵理菜 - 個人用ビュー" guid="{2D256DF8-D030-4C6D-AA71-2E6E9A9B0B14}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="菅原　大智 - 個人用ビュー" guid="{A5216128-3301-4DA2-BB9D-A2B0B18A6D37}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="西尾　佳久 - 個人用ビュー" guid="{DE80D2D4-A772-4F02-A304-673180EEF4DB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="田中　悠気 - 個人用ビュー" guid="{CE0041BC-7C24-416A-AE2B-1867E02FB337}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="柳川　騎之 - 個人用ビュー" guid="{5E2A2DC3-32FF-4D9B-8086-36DA1142FA21}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
+    <customWorkbookView name="牧野　陽介 - 個人用ビュー" guid="{AABE4325-6870-4234-A595-04955EBD583E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="中村　耀 - 個人用ビュー" guid="{2A9A9167-6530-49D4-8B88-67C4EABF4277}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="永島　麻美 - 個人用ビュー" guid="{5CE4EDB0-26CC-4B55-9F9D-56040B98C515}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="森村　欣央 - 個人用ビュー" guid="{4CF63494-B971-4B00-860A-18252F0D87D0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="尾崎　紋加 - 個人用ビュー" guid="{59216830-A825-476B-8CBE-78563046C759}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="竹下　哲博 - 個人用ビュー" guid="{29320641-556A-4A24-AEEF-62FC8F195D2F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
+    <customWorkbookView name="鈴木　由佳 - 個人用ビュー" guid="{B66AB97A-A4F2-4A9F-9ADA-FE17014DA34D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="廣瀨　智啓 - 個人用ビュー" guid="{88B325CD-F4D0-4724-80F6-A367CBCA060E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="神子　拓也 - 個人用ビュー" guid="{A3BCB14A-7CCA-499C-A2A7-FBCF90A1B1EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="瑞木　靖弘 - 個人用ビュー" guid="{578C94CE-764C-4584-A664-D779FE84D202}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="渡邉　淳太郎 - 個人用ビュー" guid="{F82A2838-40D3-40B0-85E8-92E88B9163F2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="西　歩 - 個人用ビュー" guid="{7DC6FD10-0031-4D17-8C68-1625D405ED99}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
+    <customWorkbookView name="大髙　美緒 - 個人用ビュー" guid="{6094355E-E44C-4C56-8328-2C3685B421C9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
     <customWorkbookView name="堀口　紗代 - 個人用ビュー" guid="{871E4C58-8935-4230-8D70-F7A81F2FC724}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="大髙　美緒 - 個人用ビュー" guid="{6094355E-E44C-4C56-8328-2C3685B421C9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="西　歩 - 個人用ビュー" guid="{7DC6FD10-0031-4D17-8C68-1625D405ED99}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="渡邉　淳太郎 - 個人用ビュー" guid="{F82A2838-40D3-40B0-85E8-92E88B9163F2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="瑞木　靖弘 - 個人用ビュー" guid="{578C94CE-764C-4584-A664-D779FE84D202}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="神子　拓也 - 個人用ビュー" guid="{A3BCB14A-7CCA-499C-A2A7-FBCF90A1B1EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="廣瀨　智啓 - 個人用ビュー" guid="{88B325CD-F4D0-4724-80F6-A367CBCA060E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="鈴木　由佳 - 個人用ビュー" guid="{B66AB97A-A4F2-4A9F-9ADA-FE17014DA34D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="竹下　哲博 - 個人用ビュー" guid="{29320641-556A-4A24-AEEF-62FC8F195D2F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
-    <customWorkbookView name="尾崎　紋加 - 個人用ビュー" guid="{59216830-A825-476B-8CBE-78563046C759}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="森村　欣央 - 個人用ビュー" guid="{4CF63494-B971-4B00-860A-18252F0D87D0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="永島　麻美 - 個人用ビュー" guid="{5CE4EDB0-26CC-4B55-9F9D-56040B98C515}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="中村　耀 - 個人用ビュー" guid="{2A9A9167-6530-49D4-8B88-67C4EABF4277}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="牧野　陽介 - 個人用ビュー" guid="{AABE4325-6870-4234-A595-04955EBD583E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="柳川　騎之 - 個人用ビュー" guid="{5E2A2DC3-32FF-4D9B-8086-36DA1142FA21}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
-    <customWorkbookView name="田中　悠気 - 個人用ビュー" guid="{CE0041BC-7C24-416A-AE2B-1867E02FB337}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="西尾　佳久 - 個人用ビュー" guid="{DE80D2D4-A772-4F02-A304-673180EEF4DB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="菅原　大智 - 個人用ビュー" guid="{A5216128-3301-4DA2-BB9D-A2B0B18A6D37}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="藤野　恵理菜 - 個人用ビュー" guid="{2D256DF8-D030-4C6D-AA71-2E6E9A9B0B14}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
-    <customWorkbookView name="大島　直人 - 個人用ビュー" guid="{16051E61-8B90-4FE1-A49E-6F2F23F4D568}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -184,14 +184,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="354">
   <si>
-    <t>令和5年12月</t>
+    <t>令和6年1月</t>
     <rPh sb="0" eb="2">
       <t>レイワ</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>ネン</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="5" eb="6">
       <t>ガツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -212,7 +212,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>令和5年12月利用調整</t>
+      <t>令和6年1月利用調整</t>
     </r>
     <r>
       <rPr>
@@ -231,7 +231,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>各施設とも、令和5年11月利用調整後の受入れ予定人数であり、今後の保育士配置、入園辞退、転園、退園、申込児童や在園児童の健康状況等を踏まえた受入れ態勢の変更により実際の受入れ児童数が異なることにご留意ください。
+      <t>各施設とも、令和5年12月利用調整後の受入れ予定人数であり、今後の保育士配置、入園辞退、転園、退園、申込児童や在園児童の健康状況等を踏まえた受入れ態勢の変更により実際の受入れ児童数が異なることにご留意ください。
  　特に、</t>
     </r>
     <r>
@@ -311,211 +311,211 @@
       </rPr>
       <t>とは … 転入予定のない市外居住の児童について、受入れ人数に制限を踏まえた受入れ可能性になります。なお、一覧で「〇※受入れ可能性あり」の表示でも、受入れできないことがあります。</t>
     </r>
-    <rPh sb="15" eb="16">
+    <rPh sb="14" eb="15">
       <t>ガツ</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="25" eb="27">
       <t>シセツ</t>
     </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウ</t>
+    </rPh>
     <rPh sb="29" eb="30">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>チョウセイゴ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
       <t>ウ</t>
     </rPh>
-    <rPh sb="30" eb="31">
+    <rPh sb="68" eb="69">
       <t>イ</t>
     </rPh>
-    <rPh sb="32" eb="34">
+    <rPh sb="70" eb="72">
       <t>ヨテイ</t>
     </rPh>
-    <rPh sb="35" eb="37">
+    <rPh sb="72" eb="74">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ニュウエン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>テンエン</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>モウシコ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
       <t>ジドウ</t>
     </rPh>
-    <rPh sb="39" eb="41">
+    <rPh sb="105" eb="107">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ウケイレ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>テイイン</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="215" eb="218">
+      <t>ホイクシ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="251" eb="253">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="280" eb="282">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="283" eb="284">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="286" eb="288">
+      <t>ウケイ</t>
+    </rPh>
+    <rPh sb="289" eb="291">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="300" eb="301">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="309" eb="311">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="341" eb="343">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="343" eb="345">
+      <t>ウケイ</t>
+    </rPh>
+    <rPh sb="345" eb="346">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="352" eb="354">
+      <t>テンニュウ</t>
+    </rPh>
+    <rPh sb="354" eb="356">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="359" eb="361">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="361" eb="363">
+      <t>キョジュウ</t>
+    </rPh>
+    <rPh sb="364" eb="366">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="371" eb="373">
+      <t>ウケイ</t>
+    </rPh>
+    <rPh sb="374" eb="376">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="377" eb="379">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="380" eb="381">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="384" eb="385">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="385" eb="386">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="387" eb="390">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="399" eb="401">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="405" eb="407">
+      <t>ウケイ</t>
+    </rPh>
+    <rPh sb="408" eb="411">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="415" eb="417">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="55" eb="57">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="64" eb="67">
-      <t>チョウセイゴ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ニュウエン</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ジタイ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>テンエン</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>モウシコ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ウケイレ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>タイセイ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>テイイン</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>コンゴ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="216" eb="219">
-      <t>ホイクシ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="222" eb="224">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="252" eb="254">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="254" eb="256">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="281" eb="283">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="284" eb="285">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="287" eb="289">
-      <t>ウケイ</t>
-    </rPh>
-    <rPh sb="290" eb="292">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="301" eb="302">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="310" eb="312">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="342" eb="344">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="344" eb="346">
-      <t>ウケイ</t>
-    </rPh>
-    <rPh sb="346" eb="347">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="353" eb="355">
-      <t>テンニュウ</t>
-    </rPh>
-    <rPh sb="355" eb="357">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="360" eb="362">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="362" eb="364">
-      <t>キョジュウ</t>
-    </rPh>
-    <rPh sb="365" eb="367">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="372" eb="374">
-      <t>ウケイ</t>
-    </rPh>
-    <rPh sb="375" eb="377">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="378" eb="380">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="381" eb="382">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="385" eb="386">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="386" eb="387">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="388" eb="391">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="400" eb="402">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="406" eb="408">
-      <t>ウケイ</t>
-    </rPh>
-    <rPh sb="409" eb="412">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="416" eb="418">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="421" eb="423">
+    <rPh sb="420" eb="422">
       <t>ウケイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -676,9 +676,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>〇</t>
-  </si>
-  <si>
     <t>中央</t>
   </si>
   <si>
@@ -710,6 +707,9 @@
       <t>カイジン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
   </si>
   <si>
     <t>海神第二</t>
@@ -1022,7 +1022,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ひなぎく</t>
+    <t>ひなぎく ※令和6年1月より0歳受け入れ開始</t>
+    <rPh sb="6" eb="8">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -3910,7 +3931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -5114,13 +5135,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5701,9 +5735,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5831,12 +5862,132 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="177" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
@@ -5855,122 +6006,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5978,7 +6018,7 @@
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="104">
     <dxf>
       <fill>
         <patternFill>
@@ -5994,20 +6034,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -6017,28 +6043,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6071,46 +6076,11 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -6127,9 +6097,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
+          <bgColor rgb="FFA3A3A3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6141,11 +6118,11 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -6157,9 +6134,16 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -6171,72 +6155,16 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -6283,7 +6211,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFA3A3A3"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6291,48 +6219,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFA3A3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6360,7 +6246,497 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA3A3A3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6717,23 +7093,23 @@
   </sheetPr>
   <dimension ref="A1:O214"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="13" width="9" style="10" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="238" customWidth="1"/>
-    <col min="15" max="15" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="13" width="8.5703125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="237" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1">
@@ -6748,15 +7124,15 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="261">
-        <v>45219</v>
-      </c>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="259"/>
+      <c r="H1" s="300">
+        <v>45250</v>
+      </c>
+      <c r="I1" s="301"/>
+      <c r="J1" s="301"/>
+      <c r="K1" s="301"/>
+      <c r="L1" s="301"/>
+      <c r="M1" s="301"/>
+      <c r="N1" s="260"/>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
       <c r="A2" s="13"/>
@@ -6775,22 +7151,22 @@
       <c r="N2" s="207"/>
     </row>
     <row r="3" spans="1:15" ht="132.75" customHeight="1">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="263"/>
-      <c r="L3" s="263"/>
-      <c r="M3" s="263"/>
-      <c r="N3" s="263"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="302"/>
+      <c r="H3" s="302"/>
+      <c r="I3" s="302"/>
+      <c r="J3" s="302"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
       <c r="O3" s="72"/>
     </row>
     <row r="4" spans="1:15" ht="9" hidden="1" customHeight="1">
@@ -6810,19 +7186,19 @@
       <c r="N4" s="61"/>
     </row>
     <row r="5" spans="1:15" ht="4.5" hidden="1" customHeight="1">
-      <c r="A5" s="264"/>
-      <c r="B5" s="265"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
-      <c r="I5" s="265"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="265"/>
-      <c r="M5" s="265"/>
+      <c r="A5" s="303"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
       <c r="N5" s="208"/>
     </row>
     <row r="6" spans="1:15" ht="7.5" hidden="1" customHeight="1">
@@ -6843,21 +7219,21 @@
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="266" t="s">
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
-      <c r="H7" s="266"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
-      <c r="K7" s="266"/>
-      <c r="L7" s="266"/>
-      <c r="M7" s="266"/>
-      <c r="N7" s="239"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="305"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="305"/>
+      <c r="N7" s="238"/>
     </row>
     <row r="8" spans="1:15" ht="2.25" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
@@ -6913,7 +7289,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="267" t="s">
+      <c r="A10" s="268" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="197" t="s">
@@ -6940,12 +7316,12 @@
       <c r="K10" s="134"/>
       <c r="L10" s="134"/>
       <c r="M10" s="135"/>
-      <c r="N10" s="218" t="s">
+      <c r="N10" s="217" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
-      <c r="A11" s="267"/>
+      <c r="A11" s="268"/>
       <c r="B11" s="198" t="s">
         <v>17</v>
       </c>
@@ -6966,7 +7342,7 @@
       <c r="I11" s="182"/>
       <c r="J11" s="193"/>
       <c r="K11" s="182">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="182">
         <v>12</v>
@@ -6974,12 +7350,12 @@
       <c r="M11" s="79">
         <v>6</v>
       </c>
-      <c r="N11" s="218" t="s">
-        <v>25</v>
+      <c r="N11" s="217" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1">
-      <c r="A12" s="267"/>
+      <c r="A12" s="268"/>
       <c r="B12" s="22" t="s">
         <v>17</v>
       </c>
@@ -6988,10 +7364,10 @@
         <v>19</v>
       </c>
       <c r="E12" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="81" t="s">
         <v>26</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>27</v>
       </c>
       <c r="G12" s="66">
         <v>209</v>
@@ -7002,26 +7378,26 @@
       <c r="K12" s="83"/>
       <c r="L12" s="83"/>
       <c r="M12" s="84"/>
-      <c r="N12" s="219" t="s">
+      <c r="N12" s="218" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
-      <c r="A13" s="267"/>
+      <c r="A13" s="268"/>
       <c r="B13" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="80" t="s">
+      <c r="F13" s="81" t="s">
         <v>29</v>
-      </c>
-      <c r="F13" s="81" t="s">
-        <v>30</v>
       </c>
       <c r="G13" s="66">
         <v>140</v>
@@ -7032,26 +7408,26 @@
       <c r="K13" s="83"/>
       <c r="L13" s="83"/>
       <c r="M13" s="84"/>
-      <c r="N13" s="220" t="s">
+      <c r="N13" s="219" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
-      <c r="A14" s="267"/>
+      <c r="A14" s="268"/>
       <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="81" t="s">
         <v>31</v>
-      </c>
-      <c r="F14" s="81" t="s">
-        <v>32</v>
       </c>
       <c r="G14" s="23">
         <v>244</v>
@@ -7062,21 +7438,21 @@
       <c r="K14" s="83">
         <v>3</v>
       </c>
-      <c r="L14" s="269">
+      <c r="L14" s="306">
         <v>12</v>
       </c>
-      <c r="M14" s="270"/>
-      <c r="N14" s="221" t="s">
-        <v>25</v>
+      <c r="M14" s="307"/>
+      <c r="N14" s="220" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
-      <c r="A15" s="267"/>
+      <c r="A15" s="268"/>
       <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>19</v>
@@ -7102,12 +7478,12 @@
       <c r="M15" s="84">
         <v>2</v>
       </c>
-      <c r="N15" s="220" t="s">
-        <v>25</v>
+      <c r="N15" s="219" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="267"/>
+      <c r="A16" s="268"/>
       <c r="B16" s="22" t="s">
         <v>35</v>
       </c>
@@ -7119,7 +7495,7 @@
         <v>36</v>
       </c>
       <c r="F16" s="81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="66">
         <v>110</v>
@@ -7128,18 +7504,14 @@
       <c r="I16" s="182"/>
       <c r="J16" s="182"/>
       <c r="K16" s="182"/>
-      <c r="L16" s="182">
-        <v>1</v>
-      </c>
-      <c r="M16" s="79">
-        <v>1</v>
-      </c>
-      <c r="N16" s="220" t="s">
-        <v>25</v>
+      <c r="L16" s="182"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="219" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
-      <c r="A17" s="267"/>
+      <c r="A17" s="268"/>
       <c r="B17" s="22" t="s">
         <v>35</v>
       </c>
@@ -7164,12 +7536,12 @@
       <c r="K17" s="136"/>
       <c r="L17" s="121"/>
       <c r="M17" s="122"/>
-      <c r="N17" s="220" t="s">
-        <v>25</v>
+      <c r="N17" s="219" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
-      <c r="A18" s="267"/>
+      <c r="A18" s="268"/>
       <c r="B18" s="22" t="s">
         <v>35</v>
       </c>
@@ -7196,12 +7568,12 @@
       <c r="M18" s="79">
         <v>2</v>
       </c>
-      <c r="N18" s="222" t="s">
-        <v>25</v>
+      <c r="N18" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
-      <c r="A19" s="267"/>
+      <c r="A19" s="268"/>
       <c r="B19" s="22" t="s">
         <v>35</v>
       </c>
@@ -7228,12 +7600,12 @@
         <v>1</v>
       </c>
       <c r="M19" s="79"/>
-      <c r="N19" s="222" t="s">
+      <c r="N19" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
-      <c r="A20" s="267"/>
+      <c r="A20" s="268"/>
       <c r="B20" s="22" t="s">
         <v>35</v>
       </c>
@@ -7260,12 +7632,12 @@
       <c r="M20" s="79">
         <v>1</v>
       </c>
-      <c r="N20" s="222" t="s">
-        <v>25</v>
+      <c r="N20" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
-      <c r="A21" s="267"/>
+      <c r="A21" s="268"/>
       <c r="B21" s="22" t="s">
         <v>35</v>
       </c>
@@ -7288,12 +7660,12 @@
       <c r="K21" s="120"/>
       <c r="L21" s="121"/>
       <c r="M21" s="122"/>
-      <c r="N21" s="222" t="s">
+      <c r="N21" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
-      <c r="A22" s="267"/>
+      <c r="A22" s="268"/>
       <c r="B22" s="22" t="s">
         <v>35</v>
       </c>
@@ -7316,12 +7688,12 @@
       <c r="K22" s="120"/>
       <c r="L22" s="124"/>
       <c r="M22" s="125"/>
-      <c r="N22" s="222" t="s">
+      <c r="N22" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
-      <c r="A23" s="267"/>
+      <c r="A23" s="268"/>
       <c r="B23" s="22" t="s">
         <v>35</v>
       </c>
@@ -7333,7 +7705,7 @@
         <v>48</v>
       </c>
       <c r="F23" s="87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="66">
         <v>12</v>
@@ -7344,12 +7716,12 @@
       <c r="K23" s="120"/>
       <c r="L23" s="121"/>
       <c r="M23" s="122"/>
-      <c r="N23" s="222" t="s">
+      <c r="N23" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
-      <c r="A24" s="267"/>
+      <c r="A24" s="268"/>
       <c r="B24" s="22" t="s">
         <v>35</v>
       </c>
@@ -7361,23 +7733,23 @@
         <v>49</v>
       </c>
       <c r="F24" s="87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="66">
         <v>19</v>
       </c>
-      <c r="H24" s="253"/>
+      <c r="H24" s="252"/>
       <c r="I24" s="182"/>
-      <c r="J24" s="254"/>
+      <c r="J24" s="253"/>
       <c r="K24" s="123"/>
       <c r="L24" s="124"/>
       <c r="M24" s="125"/>
-      <c r="N24" s="222" t="s">
+      <c r="N24" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="268"/>
+      <c r="A25" s="269"/>
       <c r="B25" s="24" t="s">
         <v>35</v>
       </c>
@@ -7396,14 +7768,12 @@
       </c>
       <c r="H25" s="90"/>
       <c r="I25" s="91"/>
-      <c r="J25" s="91">
-        <v>1</v>
-      </c>
+      <c r="J25" s="91"/>
       <c r="K25" s="126"/>
       <c r="L25" s="127"/>
       <c r="M25" s="128"/>
-      <c r="N25" s="223" t="s">
-        <v>25</v>
+      <c r="N25" s="222" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
@@ -7426,26 +7796,24 @@
       <c r="G26" s="67">
         <v>168</v>
       </c>
-      <c r="H26" s="95">
-        <v>1</v>
-      </c>
-      <c r="I26" s="276"/>
-      <c r="J26" s="277"/>
-      <c r="K26" s="195">
-        <v>1</v>
-      </c>
-      <c r="L26" s="260">
-        <v>4</v>
+      <c r="H26" s="95"/>
+      <c r="I26" s="294">
+        <v>2</v>
+      </c>
+      <c r="J26" s="295"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="258">
+        <v>7</v>
       </c>
       <c r="M26" s="145">
         <v>6</v>
       </c>
-      <c r="N26" s="222" t="s">
-        <v>25</v>
+      <c r="N26" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1">
-      <c r="A27" s="274"/>
+      <c r="A27" s="283"/>
       <c r="B27" s="22" t="s">
         <v>17</v>
       </c>
@@ -7463,23 +7831,23 @@
         <v>143</v>
       </c>
       <c r="H27" s="78"/>
-      <c r="I27" s="278"/>
-      <c r="J27" s="279"/>
+      <c r="I27" s="296"/>
+      <c r="J27" s="297"/>
       <c r="K27" s="182">
         <v>5</v>
       </c>
       <c r="L27" s="182">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M27" s="79">
         <v>9</v>
       </c>
-      <c r="N27" s="222" t="s">
-        <v>25</v>
+      <c r="N27" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="275"/>
+      <c r="A28" s="284"/>
       <c r="B28" s="24" t="s">
         <v>35</v>
       </c>
@@ -7502,12 +7870,12 @@
       <c r="K28" s="91"/>
       <c r="L28" s="91"/>
       <c r="M28" s="92"/>
-      <c r="N28" s="223" t="s">
+      <c r="N28" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1">
-      <c r="A29" s="280" t="s">
+      <c r="A29" s="267" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="199" t="s">
@@ -7534,12 +7902,12 @@
       <c r="K29" s="195"/>
       <c r="L29" s="195"/>
       <c r="M29" s="98"/>
-      <c r="N29" s="224" t="s">
+      <c r="N29" s="223" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1">
-      <c r="A30" s="267"/>
+      <c r="A30" s="268"/>
       <c r="B30" s="22" t="s">
         <v>35</v>
       </c>
@@ -7562,12 +7930,12 @@
       <c r="K30" s="182"/>
       <c r="L30" s="182"/>
       <c r="M30" s="79"/>
-      <c r="N30" s="222" t="s">
+      <c r="N30" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
-      <c r="A31" s="267"/>
+      <c r="A31" s="268"/>
       <c r="B31" s="22" t="s">
         <v>35</v>
       </c>
@@ -7594,17 +7962,17 @@
       <c r="M31" s="79">
         <v>2</v>
       </c>
-      <c r="N31" s="222" t="s">
+      <c r="N31" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1">
-      <c r="A32" s="267"/>
+      <c r="A32" s="268"/>
       <c r="B32" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>19</v>
@@ -7624,12 +7992,12 @@
       <c r="K32" s="182"/>
       <c r="L32" s="182"/>
       <c r="M32" s="79"/>
-      <c r="N32" s="222" t="s">
+      <c r="N32" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1">
-      <c r="A33" s="267"/>
+      <c r="A33" s="268"/>
       <c r="B33" s="22" t="s">
         <v>35</v>
       </c>
@@ -7656,12 +8024,12 @@
       <c r="M33" s="79">
         <v>4</v>
       </c>
-      <c r="N33" s="222" t="s">
-        <v>25</v>
+      <c r="N33" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1">
-      <c r="A34" s="267"/>
+      <c r="A34" s="268"/>
       <c r="B34" s="22" t="s">
         <v>35</v>
       </c>
@@ -7690,12 +8058,12 @@
       <c r="M34" s="79">
         <v>6</v>
       </c>
-      <c r="N34" s="222" t="s">
+      <c r="N34" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1">
-      <c r="A35" s="267"/>
+      <c r="A35" s="268"/>
       <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
@@ -7712,9 +8080,7 @@
       <c r="G35" s="23">
         <v>50</v>
       </c>
-      <c r="H35" s="78">
-        <v>1</v>
-      </c>
+      <c r="H35" s="78"/>
       <c r="I35" s="182"/>
       <c r="J35" s="182">
         <v>1</v>
@@ -7728,12 +8094,12 @@
       <c r="M35" s="79">
         <v>5</v>
       </c>
-      <c r="N35" s="222" t="s">
-        <v>25</v>
+      <c r="N35" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1">
-      <c r="A36" s="267"/>
+      <c r="A36" s="268"/>
       <c r="B36" s="22" t="s">
         <v>35</v>
       </c>
@@ -7758,12 +8124,12 @@
       <c r="K36" s="182"/>
       <c r="L36" s="182"/>
       <c r="M36" s="79"/>
-      <c r="N36" s="222" t="s">
+      <c r="N36" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1">
-      <c r="A37" s="267"/>
+      <c r="A37" s="268"/>
       <c r="B37" s="200" t="s">
         <v>35</v>
       </c>
@@ -7786,12 +8152,12 @@
       <c r="K37" s="167"/>
       <c r="L37" s="168"/>
       <c r="M37" s="169"/>
-      <c r="N37" s="225" t="s">
+      <c r="N37" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="268"/>
+      <c r="A38" s="269"/>
       <c r="B38" s="24" t="s">
         <v>35</v>
       </c>
@@ -7799,27 +8165,29 @@
       <c r="D38" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="240" t="s">
+      <c r="E38" s="239" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="248" t="s">
+      <c r="F38" s="247" t="s">
         <v>60</v>
       </c>
       <c r="G38" s="68">
-        <v>15</v>
-      </c>
-      <c r="H38" s="171"/>
-      <c r="I38" s="255"/>
-      <c r="J38" s="255"/>
+        <v>17</v>
+      </c>
+      <c r="H38" s="298">
+        <v>1</v>
+      </c>
+      <c r="I38" s="299"/>
+      <c r="J38" s="254"/>
       <c r="K38" s="170"/>
       <c r="L38" s="130"/>
       <c r="M38" s="131"/>
-      <c r="N38" s="226" t="s">
-        <v>22</v>
+      <c r="N38" s="225" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1">
-      <c r="A39" s="280" t="s">
+      <c r="A39" s="267" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="199" t="s">
@@ -7852,12 +8220,12 @@
       <c r="M39" s="98">
         <v>5</v>
       </c>
-      <c r="N39" s="218" t="s">
-        <v>25</v>
+      <c r="N39" s="217" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1">
-      <c r="A40" s="267"/>
+      <c r="A40" s="268"/>
       <c r="B40" s="22" t="s">
         <v>17</v>
       </c>
@@ -7882,12 +8250,12 @@
       <c r="M40" s="79">
         <v>3</v>
       </c>
-      <c r="N40" s="222" t="s">
-        <v>25</v>
+      <c r="N40" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1">
-      <c r="A41" s="267"/>
+      <c r="A41" s="268"/>
       <c r="B41" s="22" t="s">
         <v>35</v>
       </c>
@@ -7910,12 +8278,12 @@
       <c r="K41" s="182"/>
       <c r="L41" s="182"/>
       <c r="M41" s="79"/>
-      <c r="N41" s="222" t="s">
+      <c r="N41" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1">
-      <c r="A42" s="267"/>
+      <c r="A42" s="268"/>
       <c r="B42" s="22" t="s">
         <v>35</v>
       </c>
@@ -7940,12 +8308,12 @@
         <v>1</v>
       </c>
       <c r="M42" s="79"/>
-      <c r="N42" s="222" t="s">
+      <c r="N42" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1">
-      <c r="A43" s="267"/>
+      <c r="A43" s="268"/>
       <c r="B43" s="22" t="s">
         <v>35</v>
       </c>
@@ -7962,15 +8330,9 @@
       <c r="G43" s="23">
         <v>74</v>
       </c>
-      <c r="H43" s="78">
-        <v>0</v>
-      </c>
-      <c r="I43" s="182">
-        <v>0</v>
-      </c>
-      <c r="J43" s="182">
-        <v>0</v>
-      </c>
+      <c r="H43" s="78"/>
+      <c r="I43" s="182"/>
+      <c r="J43" s="182"/>
       <c r="K43" s="182">
         <v>1</v>
       </c>
@@ -7980,12 +8342,12 @@
       <c r="M43" s="79">
         <v>5</v>
       </c>
-      <c r="N43" s="222" t="s">
-        <v>25</v>
+      <c r="N43" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1">
-      <c r="A44" s="267"/>
+      <c r="A44" s="268"/>
       <c r="B44" s="22" t="s">
         <v>35</v>
       </c>
@@ -8005,7 +8367,7 @@
       <c r="H44" s="78"/>
       <c r="I44" s="182"/>
       <c r="J44" s="182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" s="182">
         <v>5</v>
@@ -8016,12 +8378,12 @@
       <c r="M44" s="79">
         <v>9</v>
       </c>
-      <c r="N44" s="225" t="s">
-        <v>25</v>
+      <c r="N44" s="224" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="268"/>
+      <c r="A45" s="269"/>
       <c r="B45" s="24" t="s">
         <v>35</v>
       </c>
@@ -8044,12 +8406,12 @@
       <c r="K45" s="91"/>
       <c r="L45" s="91"/>
       <c r="M45" s="92"/>
-      <c r="N45" s="226" t="s">
+      <c r="N45" s="225" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1">
-      <c r="A46" s="280" t="s">
+      <c r="A46" s="267" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="199" t="s">
@@ -8068,18 +8430,22 @@
       <c r="G46" s="67">
         <v>110</v>
       </c>
-      <c r="H46" s="95"/>
+      <c r="H46" s="95">
+        <v>1</v>
+      </c>
       <c r="I46" s="195"/>
       <c r="J46" s="195"/>
-      <c r="K46" s="195"/>
+      <c r="K46" s="195">
+        <v>1</v>
+      </c>
       <c r="L46" s="195"/>
       <c r="M46" s="98"/>
-      <c r="N46" s="218" t="s">
+      <c r="N46" s="217" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1">
-      <c r="A47" s="267"/>
+      <c r="A47" s="268"/>
       <c r="B47" s="22" t="s">
         <v>35</v>
       </c>
@@ -8104,12 +8470,12 @@
         <v>1</v>
       </c>
       <c r="M47" s="79"/>
-      <c r="N47" s="222" t="s">
+      <c r="N47" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1">
-      <c r="A48" s="267"/>
+      <c r="A48" s="268"/>
       <c r="B48" s="22" t="s">
         <v>35</v>
       </c>
@@ -8136,12 +8502,12 @@
         <v>1</v>
       </c>
       <c r="M48" s="79"/>
-      <c r="N48" s="222" t="s">
+      <c r="N48" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1">
-      <c r="A49" s="267"/>
+      <c r="A49" s="268"/>
       <c r="B49" s="22" t="s">
         <v>35</v>
       </c>
@@ -8164,12 +8530,12 @@
       <c r="K49" s="182"/>
       <c r="L49" s="182"/>
       <c r="M49" s="79"/>
-      <c r="N49" s="222" t="s">
+      <c r="N49" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1">
-      <c r="A50" s="267"/>
+      <c r="A50" s="268"/>
       <c r="B50" s="22" t="s">
         <v>35</v>
       </c>
@@ -8194,12 +8560,12 @@
       <c r="K50" s="182"/>
       <c r="L50" s="182"/>
       <c r="M50" s="79"/>
-      <c r="N50" s="222" t="s">
+      <c r="N50" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1">
-      <c r="A51" s="267"/>
+      <c r="A51" s="268"/>
       <c r="B51" s="22" t="s">
         <v>35</v>
       </c>
@@ -8222,12 +8588,12 @@
       <c r="K51" s="182"/>
       <c r="L51" s="182"/>
       <c r="M51" s="79"/>
-      <c r="N51" s="222" t="s">
+      <c r="N51" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1">
-      <c r="A52" s="267"/>
+      <c r="A52" s="268"/>
       <c r="B52" s="22" t="s">
         <v>35</v>
       </c>
@@ -8246,16 +8612,18 @@
       </c>
       <c r="H52" s="78"/>
       <c r="I52" s="182"/>
-      <c r="J52" s="182"/>
+      <c r="J52" s="182">
+        <v>1</v>
+      </c>
       <c r="K52" s="123"/>
       <c r="L52" s="124"/>
       <c r="M52" s="125"/>
-      <c r="N52" s="227" t="s">
-        <v>22</v>
+      <c r="N52" s="226" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1">
-      <c r="A53" s="267"/>
+      <c r="A53" s="268"/>
       <c r="B53" s="22" t="s">
         <v>35</v>
       </c>
@@ -8278,12 +8646,12 @@
       <c r="K53" s="120"/>
       <c r="L53" s="121"/>
       <c r="M53" s="122"/>
-      <c r="N53" s="225" t="s">
+      <c r="N53" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="268"/>
+      <c r="A54" s="269"/>
       <c r="B54" s="24" t="s">
         <v>35</v>
       </c>
@@ -8306,7 +8674,7 @@
       <c r="K54" s="129"/>
       <c r="L54" s="130"/>
       <c r="M54" s="131"/>
-      <c r="N54" s="226" t="s">
+      <c r="N54" s="225" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8334,25 +8702,23 @@
       </c>
       <c r="H55" s="95"/>
       <c r="I55" s="195"/>
-      <c r="J55" s="195">
-        <v>1</v>
-      </c>
+      <c r="J55" s="195"/>
       <c r="K55" s="195">
         <v>3</v>
       </c>
       <c r="L55" s="195"/>
       <c r="M55" s="98"/>
-      <c r="N55" s="218" t="s">
-        <v>25</v>
+      <c r="N55" s="217" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15" customHeight="1">
-      <c r="A56" s="274"/>
+      <c r="A56" s="283"/>
       <c r="B56" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>19</v>
@@ -8372,12 +8738,12 @@
       <c r="K56" s="182"/>
       <c r="L56" s="182"/>
       <c r="M56" s="79"/>
-      <c r="N56" s="222" t="s">
+      <c r="N56" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15" customHeight="1">
-      <c r="A57" s="274"/>
+      <c r="A57" s="283"/>
       <c r="B57" s="22" t="s">
         <v>35</v>
       </c>
@@ -8396,20 +8762,18 @@
       </c>
       <c r="H57" s="78"/>
       <c r="I57" s="182"/>
-      <c r="J57" s="182">
-        <v>1</v>
-      </c>
+      <c r="J57" s="182"/>
       <c r="K57" s="182"/>
       <c r="L57" s="182">
         <v>1</v>
       </c>
       <c r="M57" s="79"/>
-      <c r="N57" s="225" t="s">
+      <c r="N57" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15" customHeight="1">
-      <c r="A58" s="274"/>
+      <c r="A58" s="283"/>
       <c r="B58" s="22" t="s">
         <v>35</v>
       </c>
@@ -8432,12 +8796,12 @@
       <c r="K58" s="144"/>
       <c r="L58" s="144"/>
       <c r="M58" s="145"/>
-      <c r="N58" s="222" t="s">
+      <c r="N58" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15" customHeight="1">
-      <c r="A59" s="274"/>
+      <c r="A59" s="283"/>
       <c r="B59" s="22" t="s">
         <v>35</v>
       </c>
@@ -8459,15 +8823,13 @@
       <c r="J59" s="182"/>
       <c r="K59" s="182"/>
       <c r="L59" s="182"/>
-      <c r="M59" s="79">
-        <v>2</v>
-      </c>
-      <c r="N59" s="228" t="s">
-        <v>25</v>
+      <c r="M59" s="79"/>
+      <c r="N59" s="227" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A60" s="275"/>
+      <c r="A60" s="284"/>
       <c r="B60" s="24" t="s">
         <v>35</v>
       </c>
@@ -8490,12 +8852,12 @@
       <c r="K60" s="156"/>
       <c r="L60" s="156"/>
       <c r="M60" s="157"/>
-      <c r="N60" s="226" t="s">
+      <c r="N60" s="225" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" customHeight="1">
-      <c r="A61" s="281" t="s">
+      <c r="A61" s="285" t="s">
         <v>117</v>
       </c>
       <c r="B61" s="199" t="s">
@@ -8518,16 +8880,16 @@
       </c>
       <c r="H61" s="95"/>
       <c r="I61" s="182"/>
-      <c r="J61" s="242"/>
+      <c r="J61" s="241"/>
       <c r="K61" s="195"/>
       <c r="L61" s="195"/>
       <c r="M61" s="98"/>
-      <c r="N61" s="218" t="s">
+      <c r="N61" s="217" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15" customHeight="1">
-      <c r="A62" s="282"/>
+      <c r="A62" s="286"/>
       <c r="B62" s="22" t="s">
         <v>35</v>
       </c>
@@ -8550,17 +8912,17 @@
       <c r="K62" s="182"/>
       <c r="L62" s="182"/>
       <c r="M62" s="79"/>
-      <c r="N62" s="222" t="s">
+      <c r="N62" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" customHeight="1">
-      <c r="A63" s="282"/>
+      <c r="A63" s="286"/>
       <c r="B63" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="31" t="s">
         <v>19</v>
@@ -8580,12 +8942,12 @@
       <c r="K63" s="182"/>
       <c r="L63" s="182"/>
       <c r="M63" s="79"/>
-      <c r="N63" s="222" t="s">
+      <c r="N63" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15" customHeight="1">
-      <c r="A64" s="282"/>
+      <c r="A64" s="286"/>
       <c r="B64" s="22" t="s">
         <v>35</v>
       </c>
@@ -8608,17 +8970,17 @@
       <c r="K64" s="182"/>
       <c r="L64" s="182"/>
       <c r="M64" s="79"/>
-      <c r="N64" s="222" t="s">
+      <c r="N64" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15" customHeight="1">
-      <c r="A65" s="282"/>
+      <c r="A65" s="286"/>
       <c r="B65" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="31" t="s">
         <v>19</v>
@@ -8632,23 +8994,25 @@
       <c r="G65" s="23">
         <v>120</v>
       </c>
-      <c r="H65" s="78"/>
+      <c r="H65" s="78">
+        <v>1</v>
+      </c>
       <c r="I65" s="182"/>
       <c r="J65" s="182"/>
       <c r="K65" s="182"/>
       <c r="L65" s="182"/>
       <c r="M65" s="79"/>
-      <c r="N65" s="222" t="s">
+      <c r="N65" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A66" s="282"/>
+      <c r="A66" s="286"/>
       <c r="B66" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>19</v>
@@ -8674,12 +9038,12 @@
       <c r="M66" s="79">
         <v>1</v>
       </c>
-      <c r="N66" s="223" t="s">
-        <v>25</v>
+      <c r="N66" s="222" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15" customHeight="1">
-      <c r="A67" s="281" t="s">
+      <c r="A67" s="285" t="s">
         <v>129</v>
       </c>
       <c r="B67" s="199" t="s">
@@ -8706,12 +9070,12 @@
       <c r="K67" s="195"/>
       <c r="L67" s="195"/>
       <c r="M67" s="98"/>
-      <c r="N67" s="224" t="s">
+      <c r="N67" s="223" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="15" customHeight="1">
-      <c r="A68" s="282"/>
+      <c r="A68" s="286"/>
       <c r="B68" s="22" t="s">
         <v>35</v>
       </c>
@@ -8734,12 +9098,12 @@
       <c r="K68" s="182"/>
       <c r="L68" s="182"/>
       <c r="M68" s="79"/>
-      <c r="N68" s="222" t="s">
+      <c r="N68" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15" customHeight="1">
-      <c r="A69" s="282"/>
+      <c r="A69" s="286"/>
       <c r="B69" s="22" t="s">
         <v>35</v>
       </c>
@@ -8762,12 +9126,12 @@
       <c r="K69" s="182"/>
       <c r="L69" s="182"/>
       <c r="M69" s="79"/>
-      <c r="N69" s="222" t="s">
+      <c r="N69" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15" customHeight="1">
-      <c r="A70" s="282"/>
+      <c r="A70" s="286"/>
       <c r="B70" s="22" t="s">
         <v>35</v>
       </c>
@@ -8790,17 +9154,17 @@
       <c r="K70" s="182"/>
       <c r="L70" s="182"/>
       <c r="M70" s="79"/>
-      <c r="N70" s="222" t="s">
+      <c r="N70" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15" customHeight="1">
-      <c r="A71" s="282"/>
+      <c r="A71" s="286"/>
       <c r="B71" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="31" t="s">
         <v>19</v>
@@ -8822,12 +9186,12 @@
       <c r="M71" s="79">
         <v>5</v>
       </c>
-      <c r="N71" s="222" t="s">
-        <v>25</v>
+      <c r="N71" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15" customHeight="1">
-      <c r="A72" s="282"/>
+      <c r="A72" s="286"/>
       <c r="B72" s="22" t="s">
         <v>35</v>
       </c>
@@ -8844,30 +9208,20 @@
       <c r="G72" s="66">
         <v>60</v>
       </c>
-      <c r="H72" s="78">
-        <v>0</v>
-      </c>
-      <c r="I72" s="182">
-        <v>0</v>
-      </c>
-      <c r="J72" s="182">
-        <v>0</v>
-      </c>
-      <c r="K72" s="182">
-        <v>0</v>
-      </c>
-      <c r="L72" s="182">
-        <v>0</v>
-      </c>
+      <c r="H72" s="78"/>
+      <c r="I72" s="182"/>
+      <c r="J72" s="182"/>
+      <c r="K72" s="182"/>
+      <c r="L72" s="182"/>
       <c r="M72" s="79">
         <v>6</v>
       </c>
-      <c r="N72" s="222" t="s">
+      <c r="N72" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15" customHeight="1">
-      <c r="A73" s="282"/>
+      <c r="A73" s="286"/>
       <c r="B73" s="22" t="s">
         <v>35</v>
       </c>
@@ -8892,12 +9246,12 @@
       <c r="K73" s="182"/>
       <c r="L73" s="182"/>
       <c r="M73" s="79"/>
-      <c r="N73" s="222" t="s">
+      <c r="N73" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15" customHeight="1">
-      <c r="A74" s="282"/>
+      <c r="A74" s="286"/>
       <c r="B74" s="22" t="s">
         <v>35</v>
       </c>
@@ -8928,12 +9282,12 @@
       <c r="M74" s="79">
         <v>1</v>
       </c>
-      <c r="N74" s="222" t="s">
-        <v>22</v>
+      <c r="N74" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15" customHeight="1">
-      <c r="A75" s="282"/>
+      <c r="A75" s="286"/>
       <c r="B75" s="22" t="s">
         <v>35</v>
       </c>
@@ -8958,12 +9312,12 @@
         <v>1</v>
       </c>
       <c r="M75" s="79"/>
-      <c r="N75" s="222" t="s">
+      <c r="N75" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1">
-      <c r="A76" s="282"/>
+      <c r="A76" s="286"/>
       <c r="B76" s="22" t="s">
         <v>35</v>
       </c>
@@ -8985,15 +9339,13 @@
       <c r="J76" s="182"/>
       <c r="K76" s="182"/>
       <c r="L76" s="182"/>
-      <c r="M76" s="79">
-        <v>5</v>
-      </c>
-      <c r="N76" s="222" t="s">
+      <c r="M76" s="79"/>
+      <c r="N76" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1">
-      <c r="A77" s="282"/>
+      <c r="A77" s="286"/>
       <c r="B77" s="22" t="s">
         <v>35</v>
       </c>
@@ -9018,12 +9370,12 @@
       <c r="K77" s="148"/>
       <c r="L77" s="148"/>
       <c r="M77" s="149"/>
-      <c r="N77" s="218" t="s">
+      <c r="N77" s="217" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1">
-      <c r="A78" s="282"/>
+      <c r="A78" s="286"/>
       <c r="B78" s="22" t="s">
         <v>35</v>
       </c>
@@ -9046,12 +9398,12 @@
       <c r="K78" s="120"/>
       <c r="L78" s="121"/>
       <c r="M78" s="122"/>
-      <c r="N78" s="222" t="s">
+      <c r="N78" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A79" s="283"/>
+      <c r="A79" s="287"/>
       <c r="B79" s="24" t="s">
         <v>35</v>
       </c>
@@ -9074,12 +9426,12 @@
       <c r="K79" s="186"/>
       <c r="L79" s="187"/>
       <c r="M79" s="188"/>
-      <c r="N79" s="223" t="s">
+      <c r="N79" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="15" customHeight="1">
-      <c r="A80" s="281" t="s">
+      <c r="A80" s="285" t="s">
         <v>155</v>
       </c>
       <c r="B80" s="199" t="s">
@@ -9104,16 +9456,16 @@
       <c r="I80" s="182"/>
       <c r="J80" s="182"/>
       <c r="K80" s="182"/>
-      <c r="L80" s="271">
-        <v>2</v>
-      </c>
-      <c r="M80" s="272"/>
-      <c r="N80" s="224" t="s">
-        <v>25</v>
+      <c r="L80" s="292">
+        <v>1</v>
+      </c>
+      <c r="M80" s="293"/>
+      <c r="N80" s="223" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1">
-      <c r="A81" s="284"/>
+      <c r="A81" s="277"/>
       <c r="B81" s="22" t="s">
         <v>35</v>
       </c>
@@ -9136,12 +9488,12 @@
       <c r="K81" s="182"/>
       <c r="L81" s="182"/>
       <c r="M81" s="79"/>
-      <c r="N81" s="222" t="s">
+      <c r="N81" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="15" customHeight="1">
-      <c r="A82" s="284"/>
+      <c r="A82" s="277"/>
       <c r="B82" s="22" t="s">
         <v>35</v>
       </c>
@@ -9164,12 +9516,12 @@
       <c r="K82" s="120"/>
       <c r="L82" s="121"/>
       <c r="M82" s="122"/>
-      <c r="N82" s="222" t="s">
+      <c r="N82" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" customHeight="1">
-      <c r="A83" s="284"/>
+      <c r="A83" s="277"/>
       <c r="B83" s="22" t="s">
         <v>35</v>
       </c>
@@ -9192,12 +9544,12 @@
       <c r="K83" s="182"/>
       <c r="L83" s="182"/>
       <c r="M83" s="79"/>
-      <c r="N83" s="222" t="s">
+      <c r="N83" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1">
-      <c r="A84" s="284"/>
+      <c r="A84" s="277"/>
       <c r="B84" s="22" t="s">
         <v>35</v>
       </c>
@@ -9220,12 +9572,12 @@
       <c r="K84" s="182"/>
       <c r="L84" s="182"/>
       <c r="M84" s="79"/>
-      <c r="N84" s="218" t="s">
+      <c r="N84" s="217" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="15" customHeight="1">
-      <c r="A85" s="284"/>
+      <c r="A85" s="277"/>
       <c r="B85" s="22" t="s">
         <v>35</v>
       </c>
@@ -9244,16 +9596,18 @@
       </c>
       <c r="H85" s="78"/>
       <c r="I85" s="182"/>
-      <c r="J85" s="182"/>
+      <c r="J85" s="182">
+        <v>1</v>
+      </c>
       <c r="K85" s="182"/>
       <c r="L85" s="182"/>
       <c r="M85" s="79"/>
-      <c r="N85" s="222" t="s">
-        <v>22</v>
+      <c r="N85" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1">
-      <c r="A86" s="284"/>
+      <c r="A86" s="277"/>
       <c r="B86" s="22" t="s">
         <v>35</v>
       </c>
@@ -9276,12 +9630,12 @@
       <c r="K86" s="182"/>
       <c r="L86" s="182"/>
       <c r="M86" s="79"/>
-      <c r="N86" s="222" t="s">
+      <c r="N86" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1">
-      <c r="A87" s="284"/>
+      <c r="A87" s="277"/>
       <c r="B87" s="22" t="s">
         <v>35</v>
       </c>
@@ -9298,18 +9652,18 @@
       <c r="G87" s="66">
         <v>60</v>
       </c>
-      <c r="H87" s="258"/>
+      <c r="H87" s="257"/>
       <c r="I87" s="182"/>
       <c r="J87" s="182"/>
       <c r="K87" s="182"/>
       <c r="L87" s="182"/>
       <c r="M87" s="79"/>
-      <c r="N87" s="222" t="s">
+      <c r="N87" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="15" customHeight="1">
-      <c r="A88" s="284"/>
+      <c r="A88" s="277"/>
       <c r="B88" s="22" t="s">
         <v>35</v>
       </c>
@@ -9331,15 +9685,13 @@
       <c r="J88" s="182"/>
       <c r="K88" s="182"/>
       <c r="L88" s="182"/>
-      <c r="M88" s="79">
-        <v>0</v>
-      </c>
-      <c r="N88" s="222" t="s">
+      <c r="M88" s="79"/>
+      <c r="N88" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="15" customHeight="1">
-      <c r="A89" s="284"/>
+      <c r="A89" s="277"/>
       <c r="B89" s="22" t="s">
         <v>35</v>
       </c>
@@ -9362,12 +9714,12 @@
       <c r="K89" s="182"/>
       <c r="L89" s="182"/>
       <c r="M89" s="79"/>
-      <c r="N89" s="222" t="s">
+      <c r="N89" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1">
-      <c r="A90" s="284"/>
+      <c r="A90" s="277"/>
       <c r="B90" s="201" t="s">
         <v>35</v>
       </c>
@@ -9390,12 +9742,12 @@
       <c r="K90" s="182"/>
       <c r="L90" s="182"/>
       <c r="M90" s="79"/>
-      <c r="N90" s="222" t="s">
+      <c r="N90" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A91" s="285"/>
+      <c r="A91" s="288"/>
       <c r="B91" s="24" t="s">
         <v>35</v>
       </c>
@@ -9418,12 +9770,12 @@
       <c r="K91" s="126"/>
       <c r="L91" s="127"/>
       <c r="M91" s="128"/>
-      <c r="N91" s="223" t="s">
+      <c r="N91" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="15" customHeight="1">
-      <c r="A92" s="286" t="s">
+      <c r="A92" s="289" t="s">
         <v>176</v>
       </c>
       <c r="B92" s="199" t="s">
@@ -9448,12 +9800,12 @@
       <c r="K92" s="195"/>
       <c r="L92" s="195"/>
       <c r="M92" s="98"/>
-      <c r="N92" s="224" t="s">
+      <c r="N92" s="223" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="15" customHeight="1">
-      <c r="A93" s="282"/>
+      <c r="A93" s="286"/>
       <c r="B93" s="22" t="s">
         <v>35</v>
       </c>
@@ -9470,18 +9822,20 @@
       <c r="G93" s="66">
         <v>130</v>
       </c>
-      <c r="H93" s="78"/>
+      <c r="H93" s="78">
+        <v>1</v>
+      </c>
       <c r="I93" s="182"/>
       <c r="J93" s="182"/>
       <c r="K93" s="182"/>
       <c r="L93" s="182"/>
       <c r="M93" s="79"/>
-      <c r="N93" s="222" t="s">
+      <c r="N93" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="15" customHeight="1">
-      <c r="A94" s="282"/>
+      <c r="A94" s="286"/>
       <c r="B94" s="22" t="s">
         <v>35</v>
       </c>
@@ -9504,12 +9858,12 @@
       <c r="K94" s="182"/>
       <c r="L94" s="182"/>
       <c r="M94" s="79"/>
-      <c r="N94" s="222" t="s">
+      <c r="N94" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="15" customHeight="1">
-      <c r="A95" s="282"/>
+      <c r="A95" s="286"/>
       <c r="B95" s="22" t="s">
         <v>35</v>
       </c>
@@ -9532,12 +9886,12 @@
       <c r="K95" s="182"/>
       <c r="L95" s="182"/>
       <c r="M95" s="79"/>
-      <c r="N95" s="222" t="s">
+      <c r="N95" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1">
-      <c r="A96" s="282"/>
+      <c r="A96" s="286"/>
       <c r="B96" s="22" t="s">
         <v>35</v>
       </c>
@@ -9560,12 +9914,12 @@
       <c r="K96" s="182"/>
       <c r="L96" s="182"/>
       <c r="M96" s="79"/>
-      <c r="N96" s="222" t="s">
+      <c r="N96" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1">
-      <c r="A97" s="282"/>
+      <c r="A97" s="286"/>
       <c r="B97" s="22" t="s">
         <v>35</v>
       </c>
@@ -9588,12 +9942,12 @@
       <c r="K97" s="182"/>
       <c r="L97" s="182"/>
       <c r="M97" s="79"/>
-      <c r="N97" s="222" t="s">
+      <c r="N97" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1">
-      <c r="A98" s="282"/>
+      <c r="A98" s="286"/>
       <c r="B98" s="22" t="s">
         <v>35</v>
       </c>
@@ -9616,12 +9970,12 @@
       <c r="K98" s="182"/>
       <c r="L98" s="182"/>
       <c r="M98" s="79"/>
-      <c r="N98" s="222" t="s">
+      <c r="N98" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A99" s="283"/>
+      <c r="A99" s="287"/>
       <c r="B99" s="24" t="s">
         <v>35</v>
       </c>
@@ -9644,12 +9998,12 @@
       <c r="K99" s="186"/>
       <c r="L99" s="187"/>
       <c r="M99" s="188"/>
-      <c r="N99" s="223" t="s">
+      <c r="N99" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="15" customHeight="1">
-      <c r="A100" s="281" t="s">
+      <c r="A100" s="285" t="s">
         <v>190</v>
       </c>
       <c r="B100" s="199" t="s">
@@ -9672,18 +10026,18 @@
       <c r="I100" s="195"/>
       <c r="J100" s="195"/>
       <c r="K100" s="195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L100" s="195"/>
       <c r="M100" s="98">
         <v>3</v>
       </c>
-      <c r="N100" s="224" t="s">
+      <c r="N100" s="223" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1">
-      <c r="A101" s="282"/>
+      <c r="A101" s="286"/>
       <c r="B101" s="22" t="s">
         <v>35</v>
       </c>
@@ -9706,12 +10060,12 @@
       <c r="K101" s="182"/>
       <c r="L101" s="182"/>
       <c r="M101" s="79"/>
-      <c r="N101" s="222" t="s">
+      <c r="N101" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1">
-      <c r="A102" s="282"/>
+      <c r="A102" s="286"/>
       <c r="B102" s="22" t="s">
         <v>35</v>
       </c>
@@ -9734,12 +10088,12 @@
       <c r="K102" s="182"/>
       <c r="L102" s="182"/>
       <c r="M102" s="79"/>
-      <c r="N102" s="222" t="s">
+      <c r="N102" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="15" customHeight="1">
-      <c r="A103" s="282"/>
+      <c r="A103" s="286"/>
       <c r="B103" s="22" t="s">
         <v>35</v>
       </c>
@@ -9756,30 +10110,22 @@
       <c r="G103" s="66">
         <v>60</v>
       </c>
-      <c r="H103" s="78">
-        <v>0</v>
-      </c>
-      <c r="I103" s="182">
-        <v>0</v>
-      </c>
-      <c r="J103" s="182">
-        <v>0</v>
-      </c>
+      <c r="H103" s="78"/>
+      <c r="I103" s="182"/>
+      <c r="J103" s="182"/>
       <c r="K103" s="182">
         <v>1</v>
       </c>
-      <c r="L103" s="182">
-        <v>0</v>
-      </c>
+      <c r="L103" s="182"/>
       <c r="M103" s="79">
         <v>2</v>
       </c>
-      <c r="N103" s="222" t="s">
+      <c r="N103" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A104" s="283"/>
+      <c r="A104" s="287"/>
       <c r="B104" s="24" t="s">
         <v>35</v>
       </c>
@@ -9806,12 +10152,12 @@
       <c r="M104" s="92">
         <v>4</v>
       </c>
-      <c r="N104" s="223" t="s">
+      <c r="N104" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1">
-      <c r="A105" s="280" t="s">
+      <c r="A105" s="267" t="s">
         <v>199</v>
       </c>
       <c r="B105" s="199" t="s">
@@ -9835,19 +10181,21 @@
       <c r="H105" s="95"/>
       <c r="I105" s="195"/>
       <c r="J105" s="195"/>
-      <c r="K105" s="195"/>
+      <c r="K105" s="195">
+        <v>1</v>
+      </c>
       <c r="L105" s="195">
         <v>1</v>
       </c>
       <c r="M105" s="109">
         <v>5</v>
       </c>
-      <c r="N105" s="229" t="s">
-        <v>25</v>
+      <c r="N105" s="228" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1">
-      <c r="A106" s="267"/>
+      <c r="A106" s="268"/>
       <c r="B106" s="22" t="s">
         <v>35</v>
       </c>
@@ -9866,16 +10214,20 @@
       </c>
       <c r="H106" s="78"/>
       <c r="I106" s="182"/>
-      <c r="J106" s="182"/>
-      <c r="K106" s="182"/>
+      <c r="J106" s="182">
+        <v>2</v>
+      </c>
+      <c r="K106" s="182">
+        <v>2</v>
+      </c>
       <c r="L106" s="182"/>
       <c r="M106" s="79"/>
-      <c r="N106" s="222" t="s">
-        <v>22</v>
+      <c r="N106" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1">
-      <c r="A107" s="267"/>
+      <c r="A107" s="268"/>
       <c r="B107" s="22" t="s">
         <v>35</v>
       </c>
@@ -9898,12 +10250,12 @@
       <c r="K107" s="182"/>
       <c r="L107" s="182"/>
       <c r="M107" s="79"/>
-      <c r="N107" s="230" t="s">
+      <c r="N107" s="229" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="15" customHeight="1">
-      <c r="A108" s="267"/>
+      <c r="A108" s="268"/>
       <c r="B108" s="22" t="s">
         <v>35</v>
       </c>
@@ -9926,12 +10278,12 @@
       <c r="K108" s="182"/>
       <c r="L108" s="182"/>
       <c r="M108" s="79"/>
-      <c r="N108" s="222" t="s">
+      <c r="N108" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="15" customHeight="1">
-      <c r="A109" s="267"/>
+      <c r="A109" s="268"/>
       <c r="B109" s="22" t="s">
         <v>35</v>
       </c>
@@ -9953,20 +10305,18 @@
       <c r="J109" s="182"/>
       <c r="K109" s="182"/>
       <c r="L109" s="182"/>
-      <c r="M109" s="79">
-        <v>1</v>
-      </c>
-      <c r="N109" s="230" t="s">
-        <v>25</v>
+      <c r="M109" s="79"/>
+      <c r="N109" s="229" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1">
-      <c r="A110" s="267"/>
+      <c r="A110" s="268"/>
       <c r="B110" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C110" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="31" t="s">
         <v>19</v>
@@ -9986,12 +10336,12 @@
       <c r="K110" s="182"/>
       <c r="L110" s="182"/>
       <c r="M110" s="79"/>
-      <c r="N110" s="222" t="s">
+      <c r="N110" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="15" customHeight="1">
-      <c r="A111" s="267"/>
+      <c r="A111" s="268"/>
       <c r="B111" s="22" t="s">
         <v>35</v>
       </c>
@@ -10016,12 +10366,12 @@
       <c r="K111" s="182"/>
       <c r="L111" s="182"/>
       <c r="M111" s="79"/>
-      <c r="N111" s="222" t="s">
+      <c r="N111" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1">
-      <c r="A112" s="267"/>
+      <c r="A112" s="268"/>
       <c r="B112" s="22" t="s">
         <v>35</v>
       </c>
@@ -10050,12 +10400,12 @@
       <c r="M112" s="79">
         <v>2</v>
       </c>
-      <c r="N112" s="222" t="s">
-        <v>25</v>
+      <c r="N112" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1">
-      <c r="A113" s="267"/>
+      <c r="A113" s="268"/>
       <c r="B113" s="22" t="s">
         <v>35</v>
       </c>
@@ -10078,12 +10428,12 @@
       <c r="K113" s="182"/>
       <c r="L113" s="182"/>
       <c r="M113" s="79"/>
-      <c r="N113" s="222" t="s">
+      <c r="N113" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1">
-      <c r="A114" s="267"/>
+      <c r="A114" s="268"/>
       <c r="B114" s="22" t="s">
         <v>35</v>
       </c>
@@ -10106,12 +10456,12 @@
       <c r="K114" s="182"/>
       <c r="L114" s="182"/>
       <c r="M114" s="79"/>
-      <c r="N114" s="222" t="s">
+      <c r="N114" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="15" customHeight="1">
-      <c r="A115" s="267"/>
+      <c r="A115" s="268"/>
       <c r="B115" s="22" t="s">
         <v>35</v>
       </c>
@@ -10138,12 +10488,12 @@
       <c r="M115" s="79">
         <v>1</v>
       </c>
-      <c r="N115" s="222" t="s">
-        <v>25</v>
+      <c r="N115" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="15" customHeight="1">
-      <c r="A116" s="267"/>
+      <c r="A116" s="268"/>
       <c r="B116" s="22" t="s">
         <v>35</v>
       </c>
@@ -10166,12 +10516,12 @@
       <c r="K116" s="120"/>
       <c r="L116" s="121"/>
       <c r="M116" s="122"/>
-      <c r="N116" s="241" t="s">
+      <c r="N116" s="240" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="15" customHeight="1">
-      <c r="A117" s="267"/>
+      <c r="A117" s="268"/>
       <c r="B117" s="22" t="s">
         <v>35</v>
       </c>
@@ -10194,12 +10544,12 @@
       <c r="K117" s="120"/>
       <c r="L117" s="189"/>
       <c r="M117" s="190"/>
-      <c r="N117" s="222" t="s">
+      <c r="N117" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="15" customHeight="1">
-      <c r="A118" s="267"/>
+      <c r="A118" s="268"/>
       <c r="B118" s="22" t="s">
         <v>35</v>
       </c>
@@ -10216,22 +10566,22 @@
       <c r="G118" s="66">
         <v>19</v>
       </c>
-      <c r="H118" s="78"/>
-      <c r="I118" s="182">
+      <c r="H118" s="78">
         <v>1</v>
       </c>
+      <c r="I118" s="182"/>
       <c r="J118" s="182">
         <v>1</v>
       </c>
       <c r="K118" s="120"/>
       <c r="L118" s="121"/>
       <c r="M118" s="122"/>
-      <c r="N118" s="222" t="s">
-        <v>25</v>
+      <c r="N118" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A119" s="268"/>
+      <c r="A119" s="269"/>
       <c r="B119" s="24" t="s">
         <v>35</v>
       </c>
@@ -10254,7 +10604,7 @@
       <c r="K119" s="126"/>
       <c r="L119" s="127"/>
       <c r="M119" s="128"/>
-      <c r="N119" s="222" t="s">
+      <c r="N119" s="221" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10286,17 +10636,17 @@
       <c r="K120" s="195"/>
       <c r="L120" s="195"/>
       <c r="M120" s="191"/>
-      <c r="N120" s="224" t="s">
+      <c r="N120" s="223" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="15" customHeight="1">
-      <c r="A121" s="274"/>
+      <c r="A121" s="283"/>
       <c r="B121" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C121" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="31" t="s">
         <v>19</v>
@@ -10313,15 +10663,17 @@
       <c r="H121" s="78"/>
       <c r="I121" s="182"/>
       <c r="J121" s="182"/>
-      <c r="K121" s="182"/>
+      <c r="K121" s="182">
+        <v>1</v>
+      </c>
       <c r="L121" s="182"/>
       <c r="M121" s="79"/>
-      <c r="N121" s="222" t="s">
+      <c r="N121" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="15" customHeight="1">
-      <c r="A122" s="274"/>
+      <c r="A122" s="283"/>
       <c r="B122" s="22" t="s">
         <v>35</v>
       </c>
@@ -10344,12 +10696,12 @@
       <c r="K122" s="182"/>
       <c r="L122" s="182"/>
       <c r="M122" s="79"/>
-      <c r="N122" s="222" t="s">
+      <c r="N122" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A123" s="287"/>
+      <c r="A123" s="275"/>
       <c r="B123" s="24" t="s">
         <v>35</v>
       </c>
@@ -10372,7 +10724,7 @@
       <c r="K123" s="126"/>
       <c r="L123" s="127"/>
       <c r="M123" s="128"/>
-      <c r="N123" s="223" t="s">
+      <c r="N123" s="222" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10404,12 +10756,12 @@
       <c r="K124" s="195"/>
       <c r="L124" s="195"/>
       <c r="M124" s="98"/>
-      <c r="N124" s="224" t="s">
+      <c r="N124" s="223" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="15" customHeight="1">
-      <c r="A125" s="288"/>
+      <c r="A125" s="274"/>
       <c r="B125" s="22" t="s">
         <v>35</v>
       </c>
@@ -10432,17 +10784,17 @@
       <c r="K125" s="182"/>
       <c r="L125" s="182"/>
       <c r="M125" s="79"/>
-      <c r="N125" s="222" t="s">
+      <c r="N125" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="15" customHeight="1">
-      <c r="A126" s="288"/>
+      <c r="A126" s="274"/>
       <c r="B126" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C126" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="31" t="s">
         <v>19</v>
@@ -10459,20 +10811,22 @@
       <c r="H126" s="78"/>
       <c r="I126" s="182"/>
       <c r="J126" s="182"/>
-      <c r="K126" s="182"/>
+      <c r="K126" s="182">
+        <v>1</v>
+      </c>
       <c r="L126" s="182"/>
       <c r="M126" s="79"/>
-      <c r="N126" s="222" t="s">
-        <v>22</v>
+      <c r="N126" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="15" customHeight="1">
-      <c r="A127" s="288"/>
+      <c r="A127" s="274"/>
       <c r="B127" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="31" t="s">
         <v>42</v>
@@ -10492,12 +10846,12 @@
       <c r="K127" s="182"/>
       <c r="L127" s="182"/>
       <c r="M127" s="79"/>
-      <c r="N127" s="222" t="s">
+      <c r="N127" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="15" customHeight="1">
-      <c r="A128" s="289"/>
+      <c r="A128" s="290"/>
       <c r="B128" s="22" t="s">
         <v>35</v>
       </c>
@@ -10520,12 +10874,12 @@
       <c r="K128" s="120"/>
       <c r="L128" s="121"/>
       <c r="M128" s="122"/>
-      <c r="N128" s="227" t="s">
+      <c r="N128" s="226" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A129" s="290"/>
+      <c r="A129" s="291"/>
       <c r="B129" s="24" t="s">
         <v>35</v>
       </c>
@@ -10548,19 +10902,19 @@
       <c r="K129" s="126"/>
       <c r="L129" s="127"/>
       <c r="M129" s="128"/>
-      <c r="N129" s="225" t="s">
+      <c r="N129" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="15" customHeight="1">
-      <c r="A130" s="280" t="s">
+      <c r="A130" s="267" t="s">
         <v>249</v>
       </c>
       <c r="B130" s="199" t="s">
         <v>17</v>
       </c>
       <c r="C130" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="33" t="s">
         <v>19</v>
@@ -10580,17 +10934,17 @@
       <c r="K130" s="111"/>
       <c r="L130" s="111"/>
       <c r="M130" s="112"/>
-      <c r="N130" s="231" t="s">
+      <c r="N130" s="230" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="15" customHeight="1">
-      <c r="A131" s="267"/>
+      <c r="A131" s="268"/>
       <c r="B131" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C131" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="31" t="s">
         <v>19</v>
@@ -10610,12 +10964,12 @@
       <c r="K131" s="114"/>
       <c r="L131" s="114"/>
       <c r="M131" s="115"/>
-      <c r="N131" s="232" t="s">
+      <c r="N131" s="231" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="15" customHeight="1">
-      <c r="A132" s="267"/>
+      <c r="A132" s="268"/>
       <c r="B132" s="22" t="s">
         <v>35</v>
       </c>
@@ -10638,18 +10992,16 @@
       <c r="I132" s="182">
         <v>1</v>
       </c>
-      <c r="J132" s="182">
-        <v>1</v>
-      </c>
+      <c r="J132" s="182"/>
       <c r="K132" s="182"/>
       <c r="L132" s="182"/>
       <c r="M132" s="79"/>
-      <c r="N132" s="222" t="s">
+      <c r="N132" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="15" customHeight="1">
-      <c r="A133" s="267"/>
+      <c r="A133" s="268"/>
       <c r="B133" s="22" t="s">
         <v>35</v>
       </c>
@@ -10674,12 +11026,12 @@
       <c r="K133" s="182"/>
       <c r="L133" s="182"/>
       <c r="M133" s="79"/>
-      <c r="N133" s="222" t="s">
+      <c r="N133" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="15" customHeight="1">
-      <c r="A134" s="267"/>
+      <c r="A134" s="268"/>
       <c r="B134" s="22" t="s">
         <v>35</v>
       </c>
@@ -10698,16 +11050,18 @@
       </c>
       <c r="H134" s="78"/>
       <c r="I134" s="182"/>
-      <c r="J134" s="182"/>
+      <c r="J134" s="182">
+        <v>1</v>
+      </c>
       <c r="K134" s="120"/>
       <c r="L134" s="121"/>
       <c r="M134" s="122"/>
-      <c r="N134" s="222" t="s">
-        <v>22</v>
+      <c r="N134" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="15" customHeight="1">
-      <c r="A135" s="267"/>
+      <c r="A135" s="268"/>
       <c r="B135" s="22" t="s">
         <v>35</v>
       </c>
@@ -10730,12 +11084,12 @@
       <c r="K135" s="120"/>
       <c r="L135" s="121"/>
       <c r="M135" s="122"/>
-      <c r="N135" s="222" t="s">
+      <c r="N135" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="15" customHeight="1">
-      <c r="A136" s="267"/>
+      <c r="A136" s="268"/>
       <c r="B136" s="22" t="s">
         <v>35</v>
       </c>
@@ -10752,30 +11106,20 @@
       <c r="G136" s="66">
         <v>56</v>
       </c>
-      <c r="H136" s="78">
-        <v>0</v>
-      </c>
-      <c r="I136" s="182">
-        <v>0</v>
-      </c>
-      <c r="J136" s="182">
-        <v>0</v>
-      </c>
-      <c r="K136" s="182">
-        <v>0</v>
-      </c>
-      <c r="L136" s="182">
-        <v>0</v>
-      </c>
+      <c r="H136" s="78"/>
+      <c r="I136" s="182"/>
+      <c r="J136" s="182"/>
+      <c r="K136" s="182"/>
+      <c r="L136" s="182"/>
       <c r="M136" s="79">
         <v>1</v>
       </c>
-      <c r="N136" s="222" t="s">
+      <c r="N136" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="15" customHeight="1">
-      <c r="A137" s="267"/>
+      <c r="A137" s="268"/>
       <c r="B137" s="22" t="s">
         <v>35</v>
       </c>
@@ -10802,12 +11146,12 @@
       <c r="M137" s="79">
         <v>1</v>
       </c>
-      <c r="N137" s="222" t="s">
-        <v>25</v>
+      <c r="N137" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="15" customHeight="1">
-      <c r="A138" s="267"/>
+      <c r="A138" s="268"/>
       <c r="B138" s="22" t="s">
         <v>35</v>
       </c>
@@ -10830,12 +11174,12 @@
       <c r="K138" s="120"/>
       <c r="L138" s="121"/>
       <c r="M138" s="122"/>
-      <c r="N138" s="222" t="s">
+      <c r="N138" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="15" customHeight="1">
-      <c r="A139" s="267"/>
+      <c r="A139" s="268"/>
       <c r="B139" s="22" t="s">
         <v>35</v>
       </c>
@@ -10858,12 +11202,12 @@
       <c r="K139" s="120"/>
       <c r="L139" s="121"/>
       <c r="M139" s="122"/>
-      <c r="N139" s="222" t="s">
+      <c r="N139" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="15" customHeight="1">
-      <c r="A140" s="267"/>
+      <c r="A140" s="268"/>
       <c r="B140" s="22" t="s">
         <v>35</v>
       </c>
@@ -10881,17 +11225,19 @@
         <v>19</v>
       </c>
       <c r="H140" s="78"/>
-      <c r="I140" s="182"/>
+      <c r="I140" s="182">
+        <v>1</v>
+      </c>
       <c r="J140" s="182"/>
       <c r="K140" s="120"/>
       <c r="L140" s="121"/>
       <c r="M140" s="122"/>
-      <c r="N140" s="222" t="s">
-        <v>22</v>
+      <c r="N140" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="15" customHeight="1">
-      <c r="A141" s="267"/>
+      <c r="A141" s="268"/>
       <c r="B141" s="200" t="s">
         <v>35</v>
       </c>
@@ -10914,12 +11260,12 @@
       <c r="K141" s="167"/>
       <c r="L141" s="168"/>
       <c r="M141" s="169"/>
-      <c r="N141" s="225" t="s">
+      <c r="N141" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A142" s="268"/>
+      <c r="A142" s="269"/>
       <c r="B142" s="24" t="s">
         <v>35</v>
       </c>
@@ -10938,16 +11284,18 @@
       </c>
       <c r="H142" s="90"/>
       <c r="I142" s="91"/>
-      <c r="J142" s="91"/>
+      <c r="J142" s="91">
+        <v>1</v>
+      </c>
       <c r="K142" s="204"/>
       <c r="L142" s="205"/>
       <c r="M142" s="206"/>
-      <c r="N142" s="226" t="s">
+      <c r="N142" s="225" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="15" customHeight="1">
-      <c r="A143" s="280" t="s">
+      <c r="A143" s="267" t="s">
         <v>272</v>
       </c>
       <c r="B143" s="199" t="s">
@@ -10976,12 +11324,12 @@
       <c r="M143" s="98">
         <v>7</v>
       </c>
-      <c r="N143" s="218" t="s">
-        <v>25</v>
+      <c r="N143" s="217" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="15" customHeight="1">
-      <c r="A144" s="267"/>
+      <c r="A144" s="268"/>
       <c r="B144" s="22" t="s">
         <v>35</v>
       </c>
@@ -11000,16 +11348,18 @@
       </c>
       <c r="H144" s="78"/>
       <c r="I144" s="182"/>
-      <c r="J144" s="182"/>
+      <c r="J144" s="182">
+        <v>1</v>
+      </c>
       <c r="K144" s="120"/>
       <c r="L144" s="121"/>
       <c r="M144" s="122"/>
-      <c r="N144" s="222" t="s">
+      <c r="N144" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="15" customHeight="1">
-      <c r="A145" s="267"/>
+      <c r="A145" s="268"/>
       <c r="B145" s="22" t="s">
         <v>35</v>
       </c>
@@ -11034,12 +11384,12 @@
         <v>1</v>
       </c>
       <c r="M145" s="79"/>
-      <c r="N145" s="222" t="s">
-        <v>25</v>
+      <c r="N145" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="15" customHeight="1">
-      <c r="A146" s="267"/>
+      <c r="A146" s="268"/>
       <c r="B146" s="22" t="s">
         <v>35</v>
       </c>
@@ -11062,12 +11412,12 @@
       <c r="K146" s="182"/>
       <c r="L146" s="182"/>
       <c r="M146" s="79"/>
-      <c r="N146" s="222" t="s">
+      <c r="N146" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="15" customHeight="1">
-      <c r="A147" s="267"/>
+      <c r="A147" s="268"/>
       <c r="B147" s="22" t="s">
         <v>35</v>
       </c>
@@ -11090,12 +11440,12 @@
       <c r="K147" s="182"/>
       <c r="L147" s="182"/>
       <c r="M147" s="79"/>
-      <c r="N147" s="222" t="s">
+      <c r="N147" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="15" customHeight="1">
-      <c r="A148" s="267"/>
+      <c r="A148" s="268"/>
       <c r="B148" s="22" t="s">
         <v>35</v>
       </c>
@@ -11116,14 +11466,14 @@
       <c r="I148" s="182"/>
       <c r="J148" s="182"/>
       <c r="K148" s="182"/>
-      <c r="L148" s="216"/>
-      <c r="M148" s="217"/>
-      <c r="N148" s="222" t="s">
+      <c r="L148" s="215"/>
+      <c r="M148" s="216"/>
+      <c r="N148" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="15" customHeight="1">
-      <c r="A149" s="267"/>
+      <c r="A149" s="268"/>
       <c r="B149" s="22" t="s">
         <v>35</v>
       </c>
@@ -11146,12 +11496,12 @@
       <c r="K149" s="182"/>
       <c r="L149" s="182"/>
       <c r="M149" s="79"/>
-      <c r="N149" s="222" t="s">
+      <c r="N149" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="15" customHeight="1">
-      <c r="A150" s="267"/>
+      <c r="A150" s="268"/>
       <c r="B150" s="22" t="s">
         <v>35</v>
       </c>
@@ -11174,20 +11524,20 @@
       <c r="I150" s="182"/>
       <c r="J150" s="182"/>
       <c r="K150" s="182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L150" s="182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M150" s="79">
-        <v>2</v>
-      </c>
-      <c r="N150" s="225" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="N150" s="224" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A151" s="268"/>
+      <c r="A151" s="269"/>
       <c r="B151" s="24" t="s">
         <v>35</v>
       </c>
@@ -11210,12 +11560,12 @@
       <c r="K151" s="91"/>
       <c r="L151" s="91"/>
       <c r="M151" s="92"/>
-      <c r="N151" s="226" t="s">
+      <c r="N151" s="225" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="15" customHeight="1">
-      <c r="A152" s="297" t="s">
+      <c r="A152" s="270" t="s">
         <v>288</v>
       </c>
       <c r="B152" s="199" t="s">
@@ -11240,12 +11590,12 @@
       <c r="K152" s="195"/>
       <c r="L152" s="195"/>
       <c r="M152" s="98"/>
-      <c r="N152" s="218" t="s">
+      <c r="N152" s="217" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="15" customHeight="1">
-      <c r="A153" s="298"/>
+      <c r="A153" s="271"/>
       <c r="B153" s="22" t="s">
         <v>35</v>
       </c>
@@ -11268,12 +11618,12 @@
       <c r="K153" s="182"/>
       <c r="L153" s="182"/>
       <c r="M153" s="79"/>
-      <c r="N153" s="222" t="s">
+      <c r="N153" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="15" customHeight="1">
-      <c r="A154" s="298"/>
+      <c r="A154" s="271"/>
       <c r="B154" s="22" t="s">
         <v>35</v>
       </c>
@@ -11298,42 +11648,42 @@
       <c r="M154" s="79">
         <v>1</v>
       </c>
-      <c r="N154" s="225" t="s">
+      <c r="N154" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="15" customHeight="1">
-      <c r="A155" s="298"/>
+      <c r="A155" s="271"/>
       <c r="B155" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="C155" s="247" t="s">
+      <c r="C155" s="246" t="s">
         <v>18</v>
       </c>
       <c r="D155" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="E155" s="243" t="s">
+      <c r="E155" s="242" t="s">
         <v>295</v>
       </c>
-      <c r="F155" s="249" t="s">
+      <c r="F155" s="248" t="s">
         <v>296</v>
       </c>
-      <c r="G155" s="245">
+      <c r="G155" s="244">
         <v>30</v>
       </c>
       <c r="H155" s="180"/>
       <c r="I155" s="181"/>
       <c r="J155" s="181"/>
-      <c r="K155" s="256"/>
-      <c r="L155" s="256"/>
-      <c r="M155" s="257"/>
-      <c r="N155" s="233" t="s">
+      <c r="K155" s="255"/>
+      <c r="L155" s="255"/>
+      <c r="M155" s="256"/>
+      <c r="N155" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="15" customHeight="1">
-      <c r="A156" s="298"/>
+      <c r="A156" s="271"/>
       <c r="B156" s="200" t="s">
         <v>35</v>
       </c>
@@ -11350,20 +11700,18 @@
       <c r="G156" s="174">
         <v>19</v>
       </c>
-      <c r="H156" s="143">
-        <v>1</v>
-      </c>
+      <c r="H156" s="143"/>
       <c r="I156" s="175"/>
       <c r="J156" s="175"/>
       <c r="K156" s="167"/>
       <c r="L156" s="168"/>
       <c r="M156" s="169"/>
-      <c r="N156" s="233" t="s">
+      <c r="N156" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A157" s="299"/>
+      <c r="A157" s="272"/>
       <c r="B157" s="24" t="s">
         <v>35</v>
       </c>
@@ -11371,22 +11719,22 @@
       <c r="D157" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E157" s="244" t="s">
+      <c r="E157" s="243" t="s">
         <v>299</v>
       </c>
-      <c r="F157" s="250" t="s">
+      <c r="F157" s="249" t="s">
         <v>296</v>
       </c>
-      <c r="G157" s="246">
+      <c r="G157" s="245">
         <v>18</v>
       </c>
       <c r="H157" s="171"/>
-      <c r="I157" s="251"/>
-      <c r="J157" s="252"/>
+      <c r="I157" s="250"/>
+      <c r="J157" s="251"/>
       <c r="K157" s="126"/>
       <c r="L157" s="127"/>
       <c r="M157" s="128"/>
-      <c r="N157" s="226" t="s">
+      <c r="N157" s="225" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11413,22 +11761,24 @@
       <c r="H158" s="95"/>
       <c r="I158" s="195"/>
       <c r="J158" s="194"/>
-      <c r="K158" s="195"/>
+      <c r="K158" s="195">
+        <v>1</v>
+      </c>
       <c r="L158" s="195"/>
       <c r="M158" s="98">
         <v>1</v>
       </c>
-      <c r="N158" s="218" t="s">
-        <v>25</v>
+      <c r="N158" s="217" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="15" customHeight="1">
-      <c r="A159" s="288"/>
+      <c r="A159" s="274"/>
       <c r="B159" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" s="31" t="s">
         <v>19</v>
@@ -11452,12 +11802,12 @@
       <c r="M159" s="79">
         <v>1</v>
       </c>
-      <c r="N159" s="222" t="s">
-        <v>25</v>
+      <c r="N159" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="15" customHeight="1">
-      <c r="A160" s="288"/>
+      <c r="A160" s="274"/>
       <c r="B160" s="22" t="s">
         <v>35</v>
       </c>
@@ -11474,20 +11824,18 @@
       <c r="G160" s="66">
         <v>100</v>
       </c>
-      <c r="H160" s="78">
-        <v>1</v>
-      </c>
+      <c r="H160" s="78"/>
       <c r="I160" s="182"/>
       <c r="J160" s="182"/>
       <c r="K160" s="182"/>
       <c r="L160" s="182"/>
       <c r="M160" s="79"/>
-      <c r="N160" s="222" t="s">
-        <v>25</v>
+      <c r="N160" s="221" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="15" customHeight="1">
-      <c r="A161" s="288"/>
+      <c r="A161" s="274"/>
       <c r="B161" s="22" t="s">
         <v>35</v>
       </c>
@@ -11510,12 +11858,12 @@
       <c r="K161" s="182"/>
       <c r="L161" s="182"/>
       <c r="M161" s="79"/>
-      <c r="N161" s="222" t="s">
+      <c r="N161" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="15" customHeight="1">
-      <c r="A162" s="288"/>
+      <c r="A162" s="274"/>
       <c r="B162" s="22" t="s">
         <v>35</v>
       </c>
@@ -11533,19 +11881,19 @@
         <v>30</v>
       </c>
       <c r="H162" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" s="182"/>
       <c r="J162" s="182"/>
       <c r="K162" s="120"/>
       <c r="L162" s="121"/>
       <c r="M162" s="122"/>
-      <c r="N162" s="222" t="s">
-        <v>22</v>
+      <c r="N162" s="221" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="15" customHeight="1">
-      <c r="A163" s="288"/>
+      <c r="A163" s="274"/>
       <c r="B163" s="22" t="s">
         <v>35</v>
       </c>
@@ -11564,21 +11912,23 @@
       </c>
       <c r="H163" s="78"/>
       <c r="I163" s="182"/>
-      <c r="J163" s="182"/>
+      <c r="J163" s="182">
+        <v>1</v>
+      </c>
       <c r="K163" s="182"/>
       <c r="L163" s="182"/>
       <c r="M163" s="79"/>
-      <c r="N163" s="225" t="s">
+      <c r="N163" s="224" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="15" customHeight="1">
-      <c r="A164" s="288"/>
+      <c r="A164" s="274"/>
       <c r="B164" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" s="31" t="s">
         <v>19</v>
@@ -11598,12 +11948,12 @@
       <c r="K164" s="182"/>
       <c r="L164" s="182"/>
       <c r="M164" s="79"/>
-      <c r="N164" s="233" t="s">
+      <c r="N164" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="15" customHeight="1">
-      <c r="A165" s="288"/>
+      <c r="A165" s="274"/>
       <c r="B165" s="22" t="s">
         <v>35</v>
       </c>
@@ -11626,16 +11976,14 @@
       <c r="I165" s="182"/>
       <c r="J165" s="182"/>
       <c r="K165" s="182"/>
-      <c r="L165" s="182">
-        <v>1</v>
-      </c>
+      <c r="L165" s="182"/>
       <c r="M165" s="79"/>
-      <c r="N165" s="222" t="s">
+      <c r="N165" s="221" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A166" s="287"/>
+      <c r="A166" s="275"/>
       <c r="B166" s="24" t="s">
         <v>35</v>
       </c>
@@ -11658,12 +12006,12 @@
       <c r="K166" s="126"/>
       <c r="L166" s="127"/>
       <c r="M166" s="128"/>
-      <c r="N166" s="223" t="s">
+      <c r="N166" s="222" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="15" customHeight="1">
-      <c r="A167" s="300" t="s">
+      <c r="A167" s="276" t="s">
         <v>318</v>
       </c>
       <c r="B167" s="199" t="s">
@@ -11688,17 +12036,17 @@
       <c r="K167" s="195"/>
       <c r="L167" s="195"/>
       <c r="M167" s="98"/>
-      <c r="N167" s="234" t="s">
+      <c r="N167" s="233" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="15" customHeight="1">
-      <c r="A168" s="284"/>
+      <c r="A168" s="277"/>
       <c r="B168" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C168" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" s="31" t="s">
         <v>19</v>
@@ -11718,12 +12066,12 @@
       <c r="K168" s="182"/>
       <c r="L168" s="182"/>
       <c r="M168" s="79"/>
-      <c r="N168" s="233" t="s">
+      <c r="N168" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A169" s="301"/>
+      <c r="A169" s="278"/>
       <c r="B169" s="24" t="s">
         <v>35</v>
       </c>
@@ -11741,17 +12089,19 @@
         <v>19</v>
       </c>
       <c r="H169" s="210"/>
-      <c r="I169" s="91"/>
-      <c r="J169" s="215"/>
+      <c r="I169" s="91">
+        <v>1</v>
+      </c>
+      <c r="J169" s="259"/>
       <c r="K169" s="211"/>
       <c r="L169" s="212"/>
       <c r="M169" s="213"/>
-      <c r="N169" s="226" t="s">
+      <c r="N169" s="225" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="15" customHeight="1">
-      <c r="A170" s="302" t="s">
+      <c r="A170" s="279" t="s">
         <v>324</v>
       </c>
       <c r="B170" s="199" t="s">
@@ -11776,12 +12126,12 @@
       <c r="K170" s="195"/>
       <c r="L170" s="195"/>
       <c r="M170" s="98"/>
-      <c r="N170" s="234" t="s">
+      <c r="N170" s="233" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="15" customHeight="1">
-      <c r="A171" s="303"/>
+      <c r="A171" s="280"/>
       <c r="B171" s="22" t="s">
         <v>35</v>
       </c>
@@ -11804,12 +12154,12 @@
       <c r="K171" s="182"/>
       <c r="L171" s="182"/>
       <c r="M171" s="79"/>
-      <c r="N171" s="233" t="s">
+      <c r="N171" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="15" customHeight="1">
-      <c r="A172" s="303"/>
+      <c r="A172" s="280"/>
       <c r="B172" s="22" t="s">
         <v>35</v>
       </c>
@@ -11834,12 +12184,12 @@
       <c r="K172" s="182"/>
       <c r="L172" s="182"/>
       <c r="M172" s="79"/>
-      <c r="N172" s="233" t="s">
+      <c r="N172" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="15" customHeight="1">
-      <c r="A173" s="303"/>
+      <c r="A173" s="280"/>
       <c r="B173" s="22" t="s">
         <v>35</v>
       </c>
@@ -11859,19 +12209,15 @@
       <c r="H173" s="78"/>
       <c r="I173" s="182"/>
       <c r="J173" s="182"/>
-      <c r="K173" s="182">
-        <v>2</v>
-      </c>
+      <c r="K173" s="182"/>
       <c r="L173" s="182"/>
-      <c r="M173" s="79">
-        <v>2</v>
-      </c>
-      <c r="N173" s="233" t="s">
+      <c r="M173" s="79"/>
+      <c r="N173" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="15" customHeight="1">
-      <c r="A174" s="303"/>
+      <c r="A174" s="280"/>
       <c r="B174" s="22" t="s">
         <v>35</v>
       </c>
@@ -11890,18 +12236,16 @@
       </c>
       <c r="H174" s="78"/>
       <c r="I174" s="182"/>
-      <c r="J174" s="182">
-        <v>2</v>
-      </c>
+      <c r="J174" s="182"/>
       <c r="K174" s="182"/>
       <c r="L174" s="182"/>
       <c r="M174" s="79"/>
-      <c r="N174" s="233" t="s">
-        <v>25</v>
+      <c r="N174" s="232" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="15" customHeight="1">
-      <c r="A175" s="303"/>
+      <c r="A175" s="280"/>
       <c r="B175" s="22" t="s">
         <v>35</v>
       </c>
@@ -11924,12 +12268,12 @@
       <c r="K175" s="120"/>
       <c r="L175" s="121"/>
       <c r="M175" s="122"/>
-      <c r="N175" s="233" t="s">
+      <c r="N175" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="15" customHeight="1">
-      <c r="A176" s="303"/>
+      <c r="A176" s="280"/>
       <c r="B176" s="22" t="s">
         <v>35</v>
       </c>
@@ -11952,18 +12296,18 @@
       <c r="I176" s="120"/>
       <c r="J176" s="120"/>
       <c r="K176" s="182">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L176" s="182">
         <v>4</v>
       </c>
       <c r="M176" s="79"/>
-      <c r="N176" s="233" t="s">
+      <c r="N176" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="15" customHeight="1">
-      <c r="A177" s="303"/>
+      <c r="A177" s="280"/>
       <c r="B177" s="22" t="s">
         <v>35</v>
       </c>
@@ -11986,12 +12330,12 @@
       <c r="K177" s="120"/>
       <c r="L177" s="121"/>
       <c r="M177" s="122"/>
-      <c r="N177" s="233" t="s">
+      <c r="N177" s="232" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A178" s="304"/>
+      <c r="A178" s="281"/>
       <c r="B178" s="24" t="s">
         <v>35</v>
       </c>
@@ -12009,13 +12353,15 @@
         <v>19</v>
       </c>
       <c r="H178" s="138"/>
-      <c r="I178" s="91"/>
+      <c r="I178" s="91">
+        <v>3</v>
+      </c>
       <c r="J178" s="91"/>
       <c r="K178" s="126"/>
       <c r="L178" s="127"/>
       <c r="M178" s="128"/>
-      <c r="N178" s="235" t="s">
-        <v>22</v>
+      <c r="N178" s="234" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="15" customHeight="1" thickBot="1">
@@ -12041,22 +12387,12 @@
       <c r="H179" s="118">
         <v>1</v>
       </c>
-      <c r="I179" s="73">
-        <v>0</v>
-      </c>
-      <c r="J179" s="73">
-        <v>0</v>
-      </c>
-      <c r="K179" s="73">
-        <v>0</v>
-      </c>
-      <c r="L179" s="73">
-        <v>0</v>
-      </c>
-      <c r="M179" s="119">
-        <v>0</v>
-      </c>
-      <c r="N179" s="236" t="s">
+      <c r="I179" s="73"/>
+      <c r="J179" s="73"/>
+      <c r="K179" s="73"/>
+      <c r="L179" s="73"/>
+      <c r="M179" s="119"/>
+      <c r="N179" s="235" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12086,12 +12422,12 @@
       <c r="K180" s="73"/>
       <c r="L180" s="73"/>
       <c r="M180" s="119"/>
-      <c r="N180" s="236" t="s">
+      <c r="N180" s="235" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="15" customHeight="1">
-      <c r="A181" s="305" t="s">
+      <c r="A181" s="282" t="s">
         <v>346</v>
       </c>
       <c r="B181" s="199" t="s">
@@ -12110,18 +12446,18 @@
       <c r="G181" s="69">
         <v>3</v>
       </c>
-      <c r="H181" s="291"/>
-      <c r="I181" s="292"/>
-      <c r="J181" s="292"/>
+      <c r="H181" s="261"/>
+      <c r="I181" s="262"/>
+      <c r="J181" s="262"/>
       <c r="K181" s="178"/>
       <c r="L181" s="132"/>
       <c r="M181" s="179"/>
-      <c r="N181" s="234" t="s">
+      <c r="N181" s="233" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="15" customHeight="1">
-      <c r="A182" s="303"/>
+      <c r="A182" s="280"/>
       <c r="B182" s="22" t="s">
         <v>35</v>
       </c>
@@ -12138,20 +12474,20 @@
       <c r="G182" s="66">
         <v>5</v>
       </c>
-      <c r="H182" s="293">
+      <c r="H182" s="263">
         <v>1</v>
       </c>
-      <c r="I182" s="294"/>
-      <c r="J182" s="294"/>
+      <c r="I182" s="264"/>
+      <c r="J182" s="264"/>
       <c r="K182" s="120"/>
       <c r="L182" s="121"/>
       <c r="M182" s="122"/>
-      <c r="N182" s="233" t="s">
-        <v>25</v>
+      <c r="N182" s="232" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A183" s="304"/>
+      <c r="A183" s="281"/>
       <c r="B183" s="21" t="s">
         <v>35</v>
       </c>
@@ -12168,13 +12504,13 @@
       <c r="G183" s="25">
         <v>5</v>
       </c>
-      <c r="H183" s="295"/>
-      <c r="I183" s="296"/>
-      <c r="J183" s="296"/>
+      <c r="H183" s="265"/>
+      <c r="I183" s="266"/>
+      <c r="J183" s="266"/>
       <c r="K183" s="126"/>
       <c r="L183" s="187"/>
       <c r="M183" s="188"/>
-      <c r="N183" s="235" t="s">
+      <c r="N183" s="234" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12187,7 +12523,7 @@
       <c r="K184" s="71"/>
       <c r="L184" s="71"/>
       <c r="M184" s="71"/>
-      <c r="N184" s="237"/>
+      <c r="N184" s="236"/>
     </row>
     <row r="185" spans="1:14" ht="15.75">
       <c r="A185" s="26"/>
@@ -12198,7 +12534,7 @@
       <c r="K185" s="71"/>
       <c r="L185" s="71"/>
       <c r="M185" s="71"/>
-      <c r="N185" s="237"/>
+      <c r="N185" s="236"/>
     </row>
     <row r="186" spans="1:14" ht="15.75">
       <c r="A186" s="26"/>
@@ -12209,7 +12545,7 @@
       <c r="K186" s="71"/>
       <c r="L186" s="71"/>
       <c r="M186" s="71"/>
-      <c r="N186" s="237"/>
+      <c r="N186" s="236"/>
     </row>
     <row r="187" spans="1:14" ht="15.75">
       <c r="A187" s="26"/>
@@ -12220,7 +12556,7 @@
       <c r="K187" s="71"/>
       <c r="L187" s="71"/>
       <c r="M187" s="71"/>
-      <c r="N187" s="237"/>
+      <c r="N187" s="236"/>
     </row>
     <row r="188" spans="1:14" ht="15.75">
       <c r="A188" s="26"/>
@@ -12231,7 +12567,7 @@
       <c r="K188" s="71"/>
       <c r="L188" s="71"/>
       <c r="M188" s="71"/>
-      <c r="N188" s="237"/>
+      <c r="N188" s="236"/>
     </row>
     <row r="189" spans="1:14" ht="15.75">
       <c r="A189" s="26"/>
@@ -12242,7 +12578,7 @@
       <c r="K189" s="71"/>
       <c r="L189" s="71"/>
       <c r="M189" s="71"/>
-      <c r="N189" s="237"/>
+      <c r="N189" s="236"/>
     </row>
     <row r="190" spans="1:14" ht="15.75">
       <c r="A190" s="26"/>
@@ -12253,7 +12589,7 @@
       <c r="K190" s="71"/>
       <c r="L190" s="71"/>
       <c r="M190" s="71"/>
-      <c r="N190" s="237"/>
+      <c r="N190" s="236"/>
     </row>
     <row r="191" spans="1:14" ht="15.75">
       <c r="A191" s="26"/>
@@ -12264,7 +12600,7 @@
       <c r="K191" s="71"/>
       <c r="L191" s="71"/>
       <c r="M191" s="71"/>
-      <c r="N191" s="237"/>
+      <c r="N191" s="236"/>
     </row>
     <row r="192" spans="1:14" ht="15.75">
       <c r="A192" s="26"/>
@@ -12275,7 +12611,7 @@
       <c r="K192" s="71"/>
       <c r="L192" s="71"/>
       <c r="M192" s="71"/>
-      <c r="N192" s="237"/>
+      <c r="N192" s="236"/>
     </row>
     <row r="193" spans="1:14" ht="15.75">
       <c r="A193" s="26"/>
@@ -12286,7 +12622,7 @@
       <c r="K193" s="71"/>
       <c r="L193" s="71"/>
       <c r="M193" s="71"/>
-      <c r="N193" s="237"/>
+      <c r="N193" s="236"/>
     </row>
     <row r="194" spans="1:14" ht="15.75">
       <c r="A194" s="26"/>
@@ -12297,7 +12633,7 @@
       <c r="K194" s="71"/>
       <c r="L194" s="71"/>
       <c r="M194" s="71"/>
-      <c r="N194" s="237"/>
+      <c r="N194" s="236"/>
     </row>
     <row r="195" spans="1:14" ht="15.75">
       <c r="A195" s="26"/>
@@ -12308,7 +12644,7 @@
       <c r="K195" s="71"/>
       <c r="L195" s="71"/>
       <c r="M195" s="71"/>
-      <c r="N195" s="237"/>
+      <c r="N195" s="236"/>
     </row>
     <row r="196" spans="1:14" ht="15.75">
       <c r="A196" s="26"/>
@@ -12319,7 +12655,7 @@
       <c r="K196" s="71"/>
       <c r="L196" s="71"/>
       <c r="M196" s="71"/>
-      <c r="N196" s="237"/>
+      <c r="N196" s="236"/>
     </row>
     <row r="197" spans="1:14" ht="15.75">
       <c r="A197" s="26"/>
@@ -12330,7 +12666,7 @@
       <c r="K197" s="71"/>
       <c r="L197" s="71"/>
       <c r="M197" s="71"/>
-      <c r="N197" s="237"/>
+      <c r="N197" s="236"/>
     </row>
     <row r="198" spans="1:14" ht="15.75">
       <c r="A198" s="26"/>
@@ -12341,7 +12677,7 @@
       <c r="K198" s="71"/>
       <c r="L198" s="71"/>
       <c r="M198" s="71"/>
-      <c r="N198" s="237"/>
+      <c r="N198" s="236"/>
     </row>
     <row r="199" spans="1:14" ht="15.75">
       <c r="A199" s="26"/>
@@ -12352,7 +12688,7 @@
       <c r="K199" s="71"/>
       <c r="L199" s="71"/>
       <c r="M199" s="71"/>
-      <c r="N199" s="237"/>
+      <c r="N199" s="236"/>
     </row>
     <row r="200" spans="1:14" ht="15.75">
       <c r="A200" s="26"/>
@@ -12363,7 +12699,7 @@
       <c r="K200" s="71"/>
       <c r="L200" s="71"/>
       <c r="M200" s="71"/>
-      <c r="N200" s="237"/>
+      <c r="N200" s="236"/>
     </row>
     <row r="201" spans="1:14" ht="15.75">
       <c r="A201" s="26"/>
@@ -12374,7 +12710,7 @@
       <c r="K201" s="71"/>
       <c r="L201" s="71"/>
       <c r="M201" s="71"/>
-      <c r="N201" s="237"/>
+      <c r="N201" s="236"/>
     </row>
     <row r="202" spans="1:14" ht="15.75">
       <c r="A202" s="26"/>
@@ -12385,7 +12721,7 @@
       <c r="K202" s="71"/>
       <c r="L202" s="71"/>
       <c r="M202" s="71"/>
-      <c r="N202" s="237"/>
+      <c r="N202" s="236"/>
     </row>
     <row r="203" spans="1:14" ht="15.75">
       <c r="A203" s="26"/>
@@ -12396,7 +12732,7 @@
       <c r="K203" s="71"/>
       <c r="L203" s="71"/>
       <c r="M203" s="71"/>
-      <c r="N203" s="237"/>
+      <c r="N203" s="236"/>
     </row>
     <row r="204" spans="1:14" ht="15.75">
       <c r="A204" s="26"/>
@@ -12456,16 +12792,20 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:N183" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="32">
-    <mergeCell ref="H181:J181"/>
-    <mergeCell ref="H182:J182"/>
-    <mergeCell ref="H183:J183"/>
-    <mergeCell ref="A143:A151"/>
-    <mergeCell ref="A152:A157"/>
-    <mergeCell ref="A158:A166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="A170:A178"/>
-    <mergeCell ref="A181:A183"/>
+  <mergeCells count="33">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="A10:A25"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="A130:A142"/>
     <mergeCell ref="A46:A54"/>
     <mergeCell ref="A55:A60"/>
@@ -12477,292 +12817,537 @@
     <mergeCell ref="A105:A119"/>
     <mergeCell ref="A120:A123"/>
     <mergeCell ref="A124:A129"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="A10:A25"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H181:J181"/>
+    <mergeCell ref="H182:J182"/>
+    <mergeCell ref="H183:J183"/>
+    <mergeCell ref="A143:A151"/>
+    <mergeCell ref="A152:A157"/>
+    <mergeCell ref="A158:A166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A170:A178"/>
+    <mergeCell ref="A181:A183"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="E10:I10 K10:M10 E11:M11">
-    <cfRule type="expression" dxfId="55" priority="48">
+  <conditionalFormatting sqref="E12:I12 E120:L120 E121:M168 K12:M12 E10:M11 K26:L26 E170:J183 E169:I169 K169:M182 E26:I27 K27:M27 E62:M79 K61:M61 E80:L80 E28:M37 E40:M60 N111:N180 E39:I39 K38:M39 E61:I61 N85:N109 E81:M119 B10:D183 E13:M25 J38 E38:H38">
+    <cfRule type="expression" dxfId="103" priority="129">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:L14 K181 H26:I27 I138 H17:K17 H37:K37 H52:K54 H78:K79 H82:K82 H99:K99 H116:J119 H123:J123 H128:J129 H134:J135 H139:J140 H144:J144 H156:K157 H162:J162 H166:J166 H175:J175 H177:J177 H91:K91 I141:J142 I178:J178 H13:M13 K61:M61 H15:M16 H62:M66 H167:I168 H28:M28 H170:M174 K27:M27 H41:M51 H18:M20 H30:M36 K29:M29 H55:M55 H68:M77 H83:M90 H115:M115 K114:M114 H121:M122 H124:M126 H131:M133 H136:M137 H143:M143 H145:M147 H152:M153 K151:M151 H160:M161 H163:M164 H179:M180 K176:M176 I127:M127 I165:M165 I154:M155 H100:M113 H158:I159 K158:M159 H67:I67 K67:M67 I169 H181:H183 K167:M168 H10:I12 H57:M60 H56:I56 K56:M56 H130:I130 K130:M130 K39:M40 H120:I120 K120:L120 K26:L26 H149:M150 H148:K148 H81:M81 H80:L80 K10:M12 N111:N181 H39:I40 H61:I61 N85:N109 H92:M98 H21:K25 J38:K38 H38">
+    <cfRule type="cellIs" dxfId="102" priority="128" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116">
+    <cfRule type="expression" dxfId="101" priority="127">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116">
+    <cfRule type="cellIs" dxfId="100" priority="126" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K118">
+    <cfRule type="expression" dxfId="99" priority="125">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K118">
+    <cfRule type="cellIs" dxfId="98" priority="124" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K119">
+    <cfRule type="expression" dxfId="97" priority="123">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K119">
+    <cfRule type="cellIs" dxfId="96" priority="122" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K117">
+    <cfRule type="expression" dxfId="95" priority="121">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K117">
+    <cfRule type="cellIs" dxfId="94" priority="120" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K123">
+    <cfRule type="expression" dxfId="93" priority="119">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K123">
+    <cfRule type="cellIs" dxfId="92" priority="118" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K129">
+    <cfRule type="expression" dxfId="91" priority="117">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K129">
+    <cfRule type="cellIs" dxfId="90" priority="116" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K128">
+    <cfRule type="expression" dxfId="89" priority="115">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K128">
+    <cfRule type="cellIs" dxfId="88" priority="114" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K134">
+    <cfRule type="expression" dxfId="87" priority="113">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K134">
+    <cfRule type="cellIs" dxfId="86" priority="112" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K135">
+    <cfRule type="expression" dxfId="85" priority="111">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K135">
+    <cfRule type="cellIs" dxfId="84" priority="110" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K138">
+    <cfRule type="expression" dxfId="83" priority="109">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K138">
+    <cfRule type="cellIs" dxfId="82" priority="108" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K140">
+    <cfRule type="expression" dxfId="81" priority="107">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K140">
+    <cfRule type="cellIs" dxfId="80" priority="106" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K141:K142">
+    <cfRule type="expression" dxfId="79" priority="105">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K141:K142">
+    <cfRule type="cellIs" dxfId="78" priority="104" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K139">
+    <cfRule type="expression" dxfId="77" priority="103">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K139">
+    <cfRule type="cellIs" dxfId="76" priority="102" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K144">
+    <cfRule type="expression" dxfId="75" priority="101">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K144">
+    <cfRule type="cellIs" dxfId="74" priority="100" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K162">
+    <cfRule type="expression" dxfId="73" priority="99">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K162">
+    <cfRule type="cellIs" dxfId="72" priority="98" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K166">
+    <cfRule type="expression" dxfId="71" priority="97">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K166">
+    <cfRule type="cellIs" dxfId="70" priority="96" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K169">
+    <cfRule type="expression" dxfId="69" priority="95">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K169">
+    <cfRule type="cellIs" dxfId="68" priority="94" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K175">
+    <cfRule type="expression" dxfId="67" priority="93">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K175">
+    <cfRule type="cellIs" dxfId="66" priority="92" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K177">
+    <cfRule type="expression" dxfId="65" priority="91">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K177">
+    <cfRule type="cellIs" dxfId="64" priority="90" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K178">
+    <cfRule type="expression" dxfId="63" priority="89">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K178">
+    <cfRule type="cellIs" dxfId="62" priority="88" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K182">
+    <cfRule type="expression" dxfId="61" priority="87">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K182">
+    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K183">
+    <cfRule type="expression" dxfId="59" priority="85">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K183">
+    <cfRule type="cellIs" dxfId="58" priority="84" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="expression" dxfId="57" priority="83">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="cellIs" dxfId="56" priority="82" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J114">
+    <cfRule type="expression" dxfId="55" priority="81">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J114">
+    <cfRule type="cellIs" dxfId="54" priority="80" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I114">
+    <cfRule type="expression" dxfId="53" priority="79">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I114">
+    <cfRule type="cellIs" dxfId="52" priority="78" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="expression" dxfId="51" priority="77">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127">
+    <cfRule type="expression" dxfId="49" priority="75">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127">
+    <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H138">
+    <cfRule type="expression" dxfId="47" priority="73">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H138">
+    <cfRule type="cellIs" dxfId="46" priority="72" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H141:H142">
+    <cfRule type="expression" dxfId="45" priority="71">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H141:H142">
+    <cfRule type="cellIs" dxfId="44" priority="70" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J151">
+    <cfRule type="expression" dxfId="43" priority="69">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J151">
+    <cfRule type="cellIs" dxfId="42" priority="68" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I151">
+    <cfRule type="expression" dxfId="41" priority="67">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I151">
+    <cfRule type="cellIs" dxfId="40" priority="66" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H151">
+    <cfRule type="expression" dxfId="39" priority="65">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H151">
+    <cfRule type="cellIs" dxfId="38" priority="64" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H165">
+    <cfRule type="expression" dxfId="37" priority="63">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H165">
+    <cfRule type="cellIs" dxfId="36" priority="62" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H169">
+    <cfRule type="expression" dxfId="35" priority="61">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H169">
+    <cfRule type="cellIs" dxfId="34" priority="60" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H154:H155">
+    <cfRule type="expression" dxfId="33" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H154:H155">
+    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H176">
+    <cfRule type="expression" dxfId="31" priority="57">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H176">
+    <cfRule type="cellIs" dxfId="30" priority="56" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I176">
+    <cfRule type="expression" dxfId="29" priority="55">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I176">
+    <cfRule type="cellIs" dxfId="28" priority="54" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J176">
+    <cfRule type="expression" dxfId="27" priority="53">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J176">
+    <cfRule type="cellIs" dxfId="26" priority="52" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H178">
+    <cfRule type="expression" dxfId="25" priority="51">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H178">
+    <cfRule type="cellIs" dxfId="24" priority="50" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:I10 E11:M11 K10:M10">
+    <cfRule type="expression" dxfId="23" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="49">
       <formula>"MOD(ROW(),2)=2"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E169:I169">
-    <cfRule type="expression" dxfId="54" priority="61">
+  <conditionalFormatting sqref="N10:N19 N21:N25 N27:N32 N34:N83">
+    <cfRule type="expression" dxfId="22" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:M11 E12:I12 K12:M12 E13:M25 E26:I27 E28:M37 J38 E38:I39 K38:M39 E40:M60 E61:I61 K61:M61 E62:M79 E80:L80 E81:M119 N111:N180 E120:L120 E121:M168 K169:M182 E170:J183 B10:D183">
-    <cfRule type="expression" dxfId="53" priority="129">
+  <conditionalFormatting sqref="N10:N13 N15:N19 N21:N25 N27:N32 N34:N83">
+    <cfRule type="cellIs" dxfId="21" priority="45" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:N19 N21:N25 N27:N32 N34:N83 N111:N1048576 N85:N109">
+    <cfRule type="cellIs" dxfId="20" priority="47" operator="equal">
+      <formula>"なし"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="expression" dxfId="19" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="52" priority="82" operator="equal">
+  <conditionalFormatting sqref="N20">
+    <cfRule type="cellIs" dxfId="18" priority="34" operator="equal">
       <formula>"*"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="83">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="cellIs" dxfId="17" priority="36" operator="equal">
+      <formula>"なし"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="expression" dxfId="16" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
-    <cfRule type="expression" dxfId="50" priority="75">
+  <conditionalFormatting sqref="N26">
+    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="cellIs" dxfId="14" priority="33" operator="equal">
+      <formula>"なし"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H138">
-    <cfRule type="expression" dxfId="49" priority="73">
+  <conditionalFormatting sqref="N33">
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33">
+    <cfRule type="cellIs" dxfId="11" priority="30" operator="equal">
+      <formula>"なし"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N84">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H141:H142">
-    <cfRule type="expression" dxfId="48" priority="71">
+  <conditionalFormatting sqref="N84">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N84">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+      <formula>"なし"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N181">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H154:H155">
-    <cfRule type="expression" dxfId="47" priority="59">
+  <conditionalFormatting sqref="N182:N183">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H165">
-    <cfRule type="expression" dxfId="46" priority="63">
+  <conditionalFormatting sqref="N182:N183">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N110">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H178">
-    <cfRule type="expression" dxfId="45" priority="51">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:I12 K10:M12 N111:N181 H13:M13 H14:L14 H15:M16 H17:K17 H18:M20 H21:K25 H26:I27 H28:M28 K29:M29 H30:M36 H37:K37 J38:K38 H38:I40 K39:M40 H41:M51 H52:K54 H55:M55 H56:I56 K56:M56 H57:M60 H61:I61 K61:M61 H62:M66 H67:I67 K67:M67 H68:M77 H78:K79 H80:L80 H81:M81 H82:K82 H83:M90 H91:K91 H92:M98 H99:K99 H120:I120 K120:L120 H121:M122 H130:I130 K130:M130 H131:M133 H136:M137 H143:M143 H145:M147 H148:K148 H156:K157 H158:I159 K158:M159 H160:M161 K167:M168 H170:M174 H179:M180 H181:H183">
-    <cfRule type="cellIs" dxfId="44" priority="128" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H138:I138">
-    <cfRule type="cellIs" dxfId="43" priority="72" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H167:I169">
-    <cfRule type="cellIs" dxfId="42" priority="60" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H114:J114">
-    <cfRule type="expression" dxfId="41" priority="77">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H139:J142">
-    <cfRule type="cellIs" dxfId="40" priority="70" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H151:J151">
-    <cfRule type="expression" dxfId="39" priority="65">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H176:J176">
-    <cfRule type="expression" dxfId="38" priority="53">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H116:K119">
-    <cfRule type="cellIs" dxfId="37" priority="120" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H123:K123">
-    <cfRule type="cellIs" dxfId="36" priority="118" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H128:K129">
-    <cfRule type="cellIs" dxfId="35" priority="114" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H134:K135">
-    <cfRule type="cellIs" dxfId="34" priority="110" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H144:K144">
-    <cfRule type="cellIs" dxfId="33" priority="100" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H162:K162">
-    <cfRule type="cellIs" dxfId="32" priority="98" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H166:K166">
-    <cfRule type="cellIs" dxfId="31" priority="96" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H175:K175">
-    <cfRule type="cellIs" dxfId="30" priority="92" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H177:K178">
-    <cfRule type="cellIs" dxfId="29" priority="50" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H100:M115">
-    <cfRule type="cellIs" dxfId="28" priority="76" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H124:M127">
-    <cfRule type="cellIs" dxfId="27" priority="74" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H149:M155">
-    <cfRule type="cellIs" dxfId="26" priority="58" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H163:M165">
-    <cfRule type="cellIs" dxfId="25" priority="62" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H176:M176">
-    <cfRule type="cellIs" dxfId="24" priority="52" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K116:K119">
-    <cfRule type="expression" dxfId="23" priority="121">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K123">
-    <cfRule type="expression" dxfId="22" priority="119">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K128:K129">
-    <cfRule type="expression" dxfId="21" priority="115">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K134:K135">
-    <cfRule type="expression" dxfId="20" priority="111">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K138:K142">
-    <cfRule type="cellIs" dxfId="19" priority="102" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="103">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K144">
-    <cfRule type="expression" dxfId="17" priority="101">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K162">
-    <cfRule type="expression" dxfId="16" priority="99">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K166">
-    <cfRule type="expression" dxfId="15" priority="97">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K169">
-    <cfRule type="expression" dxfId="14" priority="95">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="94" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K175">
-    <cfRule type="expression" dxfId="12" priority="93">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K177:K178">
-    <cfRule type="expression" dxfId="11" priority="89">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K181:K183">
-    <cfRule type="cellIs" dxfId="10" priority="84" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K182:K183">
-    <cfRule type="expression" dxfId="9" priority="85">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26:M27">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N13">
-    <cfRule type="cellIs" dxfId="6" priority="45" operator="equal">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N19">
-    <cfRule type="expression" dxfId="5" priority="46">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N1048576">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
-      <formula>"なし"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:N110">
+  <conditionalFormatting sqref="N110">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N20:N110">
-    <cfRule type="expression" dxfId="2" priority="9">
+  <conditionalFormatting sqref="N110">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"なし"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N181:N183">
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N182:N183">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12776,8 +13361,7 @@
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;C&amp;P /&amp;N&amp;R&amp;"ＭＳ Ｐゴシック,太字"&amp;26&amp;U
-</oddHeader>
+    <oddHeader>&amp;C&amp;P /&amp;N</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="99" max="16" man="1"/>
